--- a/LUCKY LADY.xlsx
+++ b/LUCKY LADY.xlsx
@@ -1046,7 +1046,7 @@
     <t>Химмедсинтез</t>
   </si>
   <si>
-    <t>ВОЗВРА</t>
+    <t>ВОЗВРАТ</t>
   </si>
 </sst>
 </file>
@@ -3664,27 +3664,111 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3723,15 +3807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3742,116 +3817,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3870,6 +3851,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3903,9 +3903,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3917,13 +3916,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3933,6 +3927,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -34582,7 +34582,7 @@
   <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34619,60 +34619,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="733" t="s">
+      <c r="A1" s="742" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="733"/>
-      <c r="C1" s="733"/>
-      <c r="D1" s="733"/>
-      <c r="E1" s="733"/>
-      <c r="F1" s="733"/>
-      <c r="G1" s="733"/>
-      <c r="H1" s="733"/>
-      <c r="I1" s="733"/>
-      <c r="J1" s="733"/>
-      <c r="K1" s="733"/>
-      <c r="L1" s="733"/>
-      <c r="M1" s="733"/>
+      <c r="B1" s="742"/>
+      <c r="C1" s="742"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="734"/>
-      <c r="B2" s="734"/>
-      <c r="C2" s="734"/>
-      <c r="D2" s="734"/>
-      <c r="E2" s="734"/>
-      <c r="F2" s="734"/>
-      <c r="G2" s="734"/>
-      <c r="H2" s="734"/>
-      <c r="I2" s="734"/>
-      <c r="J2" s="734"/>
-      <c r="K2" s="734"/>
-      <c r="L2" s="734"/>
-      <c r="M2" s="734"/>
+      <c r="A2" s="743"/>
+      <c r="B2" s="743"/>
+      <c r="C2" s="743"/>
+      <c r="D2" s="743"/>
+      <c r="E2" s="743"/>
+      <c r="F2" s="743"/>
+      <c r="G2" s="743"/>
+      <c r="H2" s="743"/>
+      <c r="I2" s="743"/>
+      <c r="J2" s="743"/>
+      <c r="K2" s="743"/>
+      <c r="L2" s="743"/>
+      <c r="M2" s="743"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="732" t="s">
+      <c r="A3" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="695"/>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="696"/>
-      <c r="H3" s="741" t="s">
+      <c r="B3" s="682"/>
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="683"/>
+      <c r="H3" s="734" t="s">
         <v>286</v>
       </c>
-      <c r="I3" s="742"/>
-      <c r="J3" s="742"/>
-      <c r="K3" s="742"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="743"/>
+      <c r="I3" s="735"/>
+      <c r="J3" s="735"/>
+      <c r="K3" s="735"/>
+      <c r="L3" s="735"/>
+      <c r="M3" s="736"/>
       <c r="N3" s="612"/>
-      <c r="O3" s="722" t="s">
+      <c r="O3" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="722"/>
+      <c r="P3" s="694"/>
       <c r="U3" s="768" t="s">
         <v>168</v>
       </c>
@@ -34712,8 +34712,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="739"/>
-      <c r="I4" s="740"/>
+      <c r="H4" s="732"/>
+      <c r="I4" s="733"/>
       <c r="J4" s="606" t="s">
         <v>35</v>
       </c>
@@ -34800,10 +34800,10 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="165"/>
-      <c r="H5" s="744" t="s">
+      <c r="H5" s="737" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="713"/>
+      <c r="I5" s="676"/>
       <c r="J5" s="601">
         <v>1564.38</v>
       </c>
@@ -34891,10 +34891,10 @@
       <c r="G6" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="761" t="s">
+      <c r="H6" s="755" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="762"/>
+      <c r="I6" s="756"/>
       <c r="J6" s="531">
         <v>815.26</v>
       </c>
@@ -35669,10 +35669,10 @@
       <c r="X20" s="87"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="765" t="s">
+      <c r="A21" s="763" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="766"/>
+      <c r="B21" s="764"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
         <v>2047.0299999999997</v>
@@ -35710,20 +35710,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="697" t="s">
+      <c r="H22" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="699" t="s">
+      <c r="I22" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="699" t="s">
+      <c r="J22" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="699"/>
-      <c r="L22" s="701" t="s">
+      <c r="K22" s="725"/>
+      <c r="L22" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="703" t="s">
+      <c r="M22" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -35746,16 +35746,16 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="698"/>
-      <c r="I23" s="700"/>
+      <c r="H23" s="724"/>
+      <c r="I23" s="685"/>
       <c r="J23" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="702"/>
-      <c r="M23" s="704"/>
+      <c r="L23" s="686"/>
+      <c r="M23" s="687"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
         <v>73</v>
@@ -36284,18 +36284,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="681" t="s">
+      <c r="H33" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="683" t="s">
+      <c r="I33" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="684"/>
-      <c r="K33" s="685"/>
-      <c r="L33" s="689" t="s">
+      <c r="J33" s="713"/>
+      <c r="K33" s="714"/>
+      <c r="L33" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="690"/>
+      <c r="M33" s="719"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -36317,12 +36317,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="682"/>
-      <c r="I34" s="686"/>
-      <c r="J34" s="687"/>
-      <c r="K34" s="688"/>
-      <c r="L34" s="691"/>
-      <c r="M34" s="692"/>
+      <c r="H34" s="711"/>
+      <c r="I34" s="715"/>
+      <c r="J34" s="716"/>
+      <c r="K34" s="717"/>
+      <c r="L34" s="720"/>
+      <c r="M34" s="721"/>
       <c r="N34" s="1"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="373"/>
@@ -36347,10 +36347,10 @@
       <c r="H35" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="756" t="s">
+      <c r="I35" s="757" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="756"/>
+      <c r="J35" s="757"/>
       <c r="K35" s="618">
         <v>328.13</v>
       </c>
@@ -36384,10 +36384,10 @@
       <c r="H36" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="757" t="s">
+      <c r="I36" s="758" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="757"/>
+      <c r="J36" s="758"/>
       <c r="K36" s="619">
         <v>71.83</v>
       </c>
@@ -36420,10 +36420,10 @@
       <c r="H37" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="757" t="s">
+      <c r="I37" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="757"/>
+      <c r="J37" s="758"/>
       <c r="K37" s="619">
         <v>5.63</v>
       </c>
@@ -36456,10 +36456,10 @@
       <c r="H38" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="757" t="s">
+      <c r="I38" s="758" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="757"/>
+      <c r="J38" s="758"/>
       <c r="K38" s="619">
         <v>257</v>
       </c>
@@ -36492,10 +36492,10 @@
       <c r="H39" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="758" t="s">
+      <c r="I39" s="759" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="758"/>
+      <c r="J39" s="759"/>
       <c r="K39" s="480">
         <v>654.32000000000005</v>
       </c>
@@ -36528,10 +36528,10 @@
       <c r="H40" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="759" t="s">
+      <c r="I40" s="760" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="760"/>
+      <c r="J40" s="761"/>
       <c r="K40" s="619">
         <v>324.85000000000002</v>
       </c>
@@ -36635,10 +36635,10 @@
       <c r="H43" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="759" t="s">
+      <c r="I43" s="760" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="760"/>
+      <c r="J43" s="761"/>
       <c r="K43" s="619">
         <v>1575.56</v>
       </c>
@@ -36671,10 +36671,10 @@
       <c r="H44" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="759" t="s">
+      <c r="I44" s="760" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="760"/>
+      <c r="J44" s="761"/>
       <c r="K44" s="619">
         <v>10</v>
       </c>
@@ -36707,10 +36707,10 @@
       <c r="H45" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I45" s="675" t="s">
+      <c r="I45" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="675"/>
+      <c r="J45" s="677"/>
       <c r="K45" s="94">
         <f>J5+J6</f>
         <v>2379.6400000000003</v>
@@ -36749,10 +36749,10 @@
         <f>SUM(K35:K45)</f>
         <v>6125.5499999999993</v>
       </c>
-      <c r="K46" s="676" t="s">
+      <c r="K46" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="676"/>
+      <c r="L46" s="730"/>
       <c r="M46" s="542"/>
       <c r="N46" s="1"/>
       <c r="P46" s="373"/>
@@ -36774,10 +36774,10 @@
       <c r="E47" s="373"/>
       <c r="F47" s="373"/>
       <c r="G47" s="373"/>
-      <c r="H47" s="735"/>
-      <c r="I47" s="735"/>
-      <c r="J47" s="735"/>
-      <c r="K47" s="735"/>
+      <c r="H47" s="744"/>
+      <c r="I47" s="744"/>
+      <c r="J47" s="744"/>
+      <c r="K47" s="744"/>
       <c r="L47" s="373"/>
       <c r="M47" s="460"/>
       <c r="N47" s="1"/>
@@ -36793,21 +36793,21 @@
       <c r="Y47" s="373"/>
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="733" t="s">
+      <c r="A48" s="742" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="733"/>
-      <c r="C48" s="733"/>
-      <c r="D48" s="733"/>
-      <c r="E48" s="733"/>
-      <c r="F48" s="733"/>
-      <c r="G48" s="733"/>
-      <c r="H48" s="733"/>
-      <c r="I48" s="733"/>
-      <c r="J48" s="733"/>
-      <c r="K48" s="733"/>
-      <c r="L48" s="733"/>
-      <c r="M48" s="733"/>
+      <c r="B48" s="742"/>
+      <c r="C48" s="742"/>
+      <c r="D48" s="742"/>
+      <c r="E48" s="742"/>
+      <c r="F48" s="742"/>
+      <c r="G48" s="742"/>
+      <c r="H48" s="742"/>
+      <c r="I48" s="742"/>
+      <c r="J48" s="742"/>
+      <c r="K48" s="742"/>
+      <c r="L48" s="742"/>
+      <c r="M48" s="742"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="373"/>
@@ -36820,19 +36820,19 @@
       <c r="X48" s="373"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="734"/>
-      <c r="B49" s="734"/>
-      <c r="C49" s="734"/>
-      <c r="D49" s="734"/>
-      <c r="E49" s="734"/>
-      <c r="F49" s="734"/>
-      <c r="G49" s="734"/>
-      <c r="H49" s="734"/>
-      <c r="I49" s="734"/>
-      <c r="J49" s="734"/>
-      <c r="K49" s="734"/>
-      <c r="L49" s="734"/>
-      <c r="M49" s="734"/>
+      <c r="A49" s="743"/>
+      <c r="B49" s="743"/>
+      <c r="C49" s="743"/>
+      <c r="D49" s="743"/>
+      <c r="E49" s="743"/>
+      <c r="F49" s="743"/>
+      <c r="G49" s="743"/>
+      <c r="H49" s="743"/>
+      <c r="I49" s="743"/>
+      <c r="J49" s="743"/>
+      <c r="K49" s="743"/>
+      <c r="L49" s="743"/>
+      <c r="M49" s="743"/>
       <c r="N49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="373"/>
@@ -36845,23 +36845,23 @@
       <c r="X49" s="373"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="732" t="s">
+      <c r="A50" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="695"/>
-      <c r="C50" s="695"/>
-      <c r="D50" s="695"/>
-      <c r="E50" s="695"/>
-      <c r="F50" s="695"/>
-      <c r="G50" s="696"/>
-      <c r="H50" s="736" t="s">
+      <c r="B50" s="682"/>
+      <c r="C50" s="682"/>
+      <c r="D50" s="682"/>
+      <c r="E50" s="682"/>
+      <c r="F50" s="682"/>
+      <c r="G50" s="683"/>
+      <c r="H50" s="740" t="s">
         <v>287</v>
       </c>
-      <c r="I50" s="737"/>
-      <c r="J50" s="737"/>
-      <c r="K50" s="737"/>
-      <c r="L50" s="737"/>
-      <c r="M50" s="738"/>
+      <c r="I50" s="738"/>
+      <c r="J50" s="738"/>
+      <c r="K50" s="738"/>
+      <c r="L50" s="738"/>
+      <c r="M50" s="741"/>
       <c r="N50" s="1"/>
       <c r="S50" s="280"/>
       <c r="T50" s="373"/>
@@ -37394,10 +37394,10 @@
       <c r="P67" s="373"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="765" t="s">
+      <c r="A68" s="763" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="766"/>
+      <c r="B68" s="764"/>
       <c r="C68" s="365">
         <f>SUM(C53:C67)</f>
         <v>2376.2400000000002</v>
@@ -37427,20 +37427,20 @@
       <c r="E69" s="361"/>
       <c r="F69" s="359"/>
       <c r="G69" s="392"/>
-      <c r="H69" s="697" t="s">
+      <c r="H69" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="699" t="s">
+      <c r="I69" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="699" t="s">
+      <c r="J69" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="699"/>
-      <c r="L69" s="701" t="s">
+      <c r="K69" s="725"/>
+      <c r="L69" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="703" t="s">
+      <c r="M69" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N69" s="1"/>
@@ -37455,16 +37455,16 @@
       <c r="E70" s="222"/>
       <c r="F70" s="207"/>
       <c r="G70" s="207"/>
-      <c r="H70" s="698"/>
-      <c r="I70" s="700"/>
+      <c r="H70" s="724"/>
+      <c r="I70" s="685"/>
       <c r="J70" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="702"/>
-      <c r="M70" s="704"/>
+      <c r="L70" s="686"/>
+      <c r="M70" s="687"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
       <c r="P70" s="457"/>
@@ -37654,18 +37654,18 @@
       <c r="E77" s="85"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="681" t="s">
+      <c r="H77" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="683" t="s">
+      <c r="I77" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="684"/>
-      <c r="K77" s="685"/>
-      <c r="L77" s="689" t="s">
+      <c r="J77" s="713"/>
+      <c r="K77" s="714"/>
+      <c r="L77" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="690"/>
+      <c r="M77" s="719"/>
       <c r="N77" s="1"/>
       <c r="O77" s="373"/>
       <c r="P77" s="455"/>
@@ -37682,12 +37682,12 @@
       <c r="E78" s="290"/>
       <c r="F78" s="373"/>
       <c r="G78" s="394"/>
-      <c r="H78" s="682"/>
-      <c r="I78" s="686"/>
-      <c r="J78" s="687"/>
-      <c r="K78" s="688"/>
-      <c r="L78" s="691"/>
-      <c r="M78" s="692"/>
+      <c r="H78" s="711"/>
+      <c r="I78" s="715"/>
+      <c r="J78" s="716"/>
+      <c r="K78" s="717"/>
+      <c r="L78" s="720"/>
+      <c r="M78" s="721"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
@@ -37712,10 +37712,10 @@
       <c r="H79" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I79" s="693" t="s">
+      <c r="I79" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="693"/>
+      <c r="J79" s="722"/>
       <c r="K79" s="618">
         <v>131.25</v>
       </c>
@@ -37747,10 +37747,10 @@
       <c r="H80" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I80" s="678" t="s">
+      <c r="I80" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="678"/>
+      <c r="J80" s="680"/>
       <c r="K80" s="619">
         <v>21.35</v>
       </c>
@@ -37782,10 +37782,10 @@
       <c r="H81" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I81" s="678" t="s">
+      <c r="I81" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="678"/>
+      <c r="J81" s="680"/>
       <c r="K81" s="619">
         <v>2.25</v>
       </c>
@@ -37816,10 +37816,10 @@
       <c r="H82" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I82" s="678" t="s">
+      <c r="I82" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="678"/>
+      <c r="J82" s="680"/>
       <c r="K82" s="619">
         <v>89</v>
       </c>
@@ -37850,10 +37850,10 @@
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="764" t="s">
+      <c r="I83" s="767" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="764"/>
+      <c r="J83" s="767"/>
       <c r="K83" s="480">
         <v>176.5</v>
       </c>
@@ -37887,10 +37887,10 @@
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="759" t="s">
+      <c r="I84" s="760" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="760"/>
+      <c r="J84" s="761"/>
       <c r="K84" s="619">
         <v>55.66</v>
       </c>
@@ -37923,10 +37923,10 @@
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="679" t="s">
+      <c r="I85" s="678" t="s">
         <v>174</v>
       </c>
-      <c r="J85" s="680"/>
+      <c r="J85" s="679"/>
       <c r="K85" s="619">
         <v>257.08999999999997</v>
       </c>
@@ -37996,10 +37996,10 @@
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="679" t="s">
+      <c r="I87" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="680"/>
+      <c r="J87" s="679"/>
       <c r="K87" s="648">
         <v>616.88</v>
       </c>
@@ -38032,10 +38032,10 @@
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="679" t="s">
+      <c r="I88" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J88" s="680"/>
+      <c r="J88" s="679"/>
       <c r="K88" s="477">
         <v>10</v>
       </c>
@@ -38068,10 +38068,10 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="763" t="s">
+      <c r="I89" s="766" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="763"/>
+      <c r="J89" s="766"/>
       <c r="K89" s="658">
         <f>I52</f>
         <v>500.24</v>
@@ -38107,10 +38107,10 @@
         <f>SUM(K79:K89)</f>
         <v>2007.28</v>
       </c>
-      <c r="K90" s="676" t="s">
+      <c r="K90" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L90" s="676"/>
+      <c r="L90" s="730"/>
       <c r="M90" s="605">
         <v>0</v>
       </c>
@@ -38327,22 +38327,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:M49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:K34"/>
@@ -38355,31 +38364,22 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -40221,7 +40221,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="708" t="s">
+      <c r="A1" s="704" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="705"/>
@@ -40229,15 +40229,15 @@
       <c r="D1" s="705"/>
       <c r="E1" s="705"/>
       <c r="F1" s="705"/>
-      <c r="G1" s="709"/>
+      <c r="G1" s="706"/>
       <c r="H1" s="411"/>
-      <c r="I1" s="706" t="s">
+      <c r="I1" s="701" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="706"/>
-      <c r="K1" s="706"/>
-      <c r="L1" s="706"/>
-      <c r="M1" s="707"/>
+      <c r="J1" s="701"/>
+      <c r="K1" s="701"/>
+      <c r="L1" s="701"/>
+      <c r="M1" s="709"/>
       <c r="N1" s="705" t="s">
         <v>60</v>
       </c>
@@ -40478,7 +40478,7 @@
       <c r="Q6" s="112"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="710">
+      <c r="A7" s="707">
         <v>43648</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -40498,20 +40498,20 @@
       <c r="G7" s="107">
         <v>1162</v>
       </c>
-      <c r="H7" s="714" t="s">
+      <c r="H7" s="684" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="700" t="s">
+      <c r="I7" s="685" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="700" t="s">
+      <c r="J7" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="700"/>
-      <c r="L7" s="702" t="s">
+      <c r="K7" s="685"/>
+      <c r="L7" s="686" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="704" t="s">
+      <c r="M7" s="687" t="s">
         <v>95</v>
       </c>
       <c r="N7" s="378"/>
@@ -40524,7 +40524,7 @@
       <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="711"/>
+      <c r="A8" s="708"/>
       <c r="B8" s="376" t="s">
         <v>32</v>
       </c>
@@ -40545,16 +40545,16 @@
       <c r="G8" s="107">
         <v>378</v>
       </c>
-      <c r="H8" s="714"/>
-      <c r="I8" s="700"/>
+      <c r="H8" s="684"/>
+      <c r="I8" s="685"/>
       <c r="J8" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="702"/>
-      <c r="M8" s="704"/>
+      <c r="L8" s="686"/>
+      <c r="M8" s="687"/>
       <c r="N8" s="378"/>
       <c r="O8" s="53" t="s">
         <v>67</v>
@@ -40959,10 +40959,10 @@
       <c r="H18" s="43">
         <v>1</v>
       </c>
-      <c r="I18" s="678" t="s">
+      <c r="I18" s="680" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="678"/>
+      <c r="J18" s="680"/>
       <c r="K18" s="376">
         <v>288.75</v>
       </c>
@@ -41006,10 +41006,10 @@
       <c r="H19" s="43">
         <v>2</v>
       </c>
-      <c r="I19" s="678" t="s">
+      <c r="I19" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="678"/>
+      <c r="J19" s="680"/>
       <c r="K19" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -41049,10 +41049,10 @@
       <c r="H20" s="43">
         <v>3</v>
       </c>
-      <c r="I20" s="678" t="s">
+      <c r="I20" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="678"/>
+      <c r="J20" s="680"/>
       <c r="K20" s="376">
         <v>10</v>
       </c>
@@ -41089,10 +41089,10 @@
       <c r="H21" s="43">
         <v>4</v>
       </c>
-      <c r="I21" s="678" t="s">
+      <c r="I21" s="680" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="678"/>
+      <c r="J21" s="680"/>
       <c r="K21" s="376">
         <v>5</v>
       </c>
@@ -41118,10 +41118,10 @@
       <c r="H22" s="43">
         <v>5</v>
       </c>
-      <c r="I22" s="678" t="s">
+      <c r="I22" s="680" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="678"/>
+      <c r="J22" s="680"/>
       <c r="K22" s="376">
         <v>4</v>
       </c>
@@ -41144,10 +41144,10 @@
       <c r="H23" s="43">
         <v>6</v>
       </c>
-      <c r="I23" s="678" t="s">
+      <c r="I23" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="678"/>
+      <c r="J23" s="680"/>
       <c r="K23" s="376">
         <v>332.56</v>
       </c>
@@ -41170,10 +41170,10 @@
       <c r="H24" s="43">
         <v>7</v>
       </c>
-      <c r="I24" s="712" t="s">
+      <c r="I24" s="675" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="713"/>
+      <c r="J24" s="676"/>
       <c r="K24" s="376">
         <v>458.46</v>
       </c>
@@ -41196,10 +41196,10 @@
       <c r="H25" s="43">
         <v>8</v>
       </c>
-      <c r="I25" s="712" t="s">
+      <c r="I25" s="675" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="713"/>
+      <c r="J25" s="676"/>
       <c r="K25" s="376">
         <v>4.58</v>
       </c>
@@ -41224,10 +41224,10 @@
       <c r="H26" s="43">
         <v>9</v>
       </c>
-      <c r="I26" s="675" t="s">
+      <c r="I26" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="675"/>
+      <c r="J26" s="677"/>
       <c r="K26" s="376">
         <v>1041.98</v>
       </c>
@@ -41251,10 +41251,10 @@
       <c r="H27" s="43">
         <v>10</v>
       </c>
-      <c r="I27" s="679" t="s">
+      <c r="I27" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="680"/>
+      <c r="J27" s="679"/>
       <c r="K27" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -41279,10 +41279,10 @@
       <c r="H28" s="43">
         <v>11</v>
       </c>
-      <c r="I28" s="679" t="s">
+      <c r="I28" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="680"/>
+      <c r="J28" s="679"/>
       <c r="K28" s="53">
         <v>1730.44</v>
       </c>
@@ -41399,11 +41399,11 @@
       <c r="F34" s="109"/>
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
-      <c r="I34" s="727" t="s">
+      <c r="I34" s="688" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="727"/>
-      <c r="K34" s="727"/>
+      <c r="J34" s="688"/>
+      <c r="K34" s="688"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109"/>
       <c r="N34" s="109"/>
@@ -41422,13 +41422,13 @@
       <c r="F35" s="382"/>
       <c r="G35" s="382"/>
       <c r="H35" s="373"/>
-      <c r="I35" s="728"/>
-      <c r="J35" s="728"/>
-      <c r="K35" s="728"/>
+      <c r="I35" s="689"/>
+      <c r="J35" s="689"/>
+      <c r="K35" s="689"/>
       <c r="L35" s="382"/>
       <c r="M35" s="382"/>
-      <c r="N35" s="720"/>
-      <c r="O35" s="720"/>
+      <c r="N35" s="699"/>
+      <c r="O35" s="699"/>
       <c r="P35" s="373"/>
       <c r="Q35" s="373"/>
       <c r="R35" s="373"/>
@@ -41458,27 +41458,27 @@
       <c r="T36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="721" t="s">
+      <c r="A37" s="700" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="722"/>
-      <c r="C37" s="722"/>
-      <c r="D37" s="722"/>
-      <c r="E37" s="722"/>
-      <c r="F37" s="722"/>
-      <c r="G37" s="722"/>
+      <c r="B37" s="694"/>
+      <c r="C37" s="694"/>
+      <c r="D37" s="694"/>
+      <c r="E37" s="694"/>
+      <c r="F37" s="694"/>
+      <c r="G37" s="694"/>
       <c r="H37" s="108"/>
-      <c r="I37" s="706" t="s">
+      <c r="I37" s="701" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="706"/>
-      <c r="K37" s="706"/>
-      <c r="L37" s="706"/>
-      <c r="M37" s="723"/>
-      <c r="N37" s="722" t="s">
+      <c r="J37" s="701"/>
+      <c r="K37" s="701"/>
+      <c r="L37" s="701"/>
+      <c r="M37" s="702"/>
+      <c r="N37" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="722"/>
+      <c r="O37" s="694"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -41772,20 +41772,20 @@
       <c r="G43" s="168">
         <v>1291</v>
       </c>
-      <c r="H43" s="724" t="s">
+      <c r="H43" s="703" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="700" t="s">
+      <c r="I43" s="685" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="700" t="s">
+      <c r="J43" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="700"/>
-      <c r="L43" s="702" t="s">
+      <c r="K43" s="685"/>
+      <c r="L43" s="686" t="s">
         <v>93</v>
       </c>
-      <c r="M43" s="715" t="s">
+      <c r="M43" s="695" t="s">
         <v>95</v>
       </c>
       <c r="N43" s="157">
@@ -41828,16 +41828,16 @@
       <c r="G44" s="165">
         <v>612</v>
       </c>
-      <c r="H44" s="714"/>
-      <c r="I44" s="700"/>
+      <c r="H44" s="684"/>
+      <c r="I44" s="685"/>
       <c r="J44" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="702"/>
-      <c r="M44" s="715"/>
+      <c r="L44" s="686"/>
+      <c r="M44" s="695"/>
       <c r="N44" s="52">
         <v>43694</v>
       </c>
@@ -41958,10 +41958,10 @@
         <f>M45-I46-J46-K46+L46</f>
         <v>101446.18</v>
       </c>
-      <c r="N46" s="716" t="s">
+      <c r="N46" s="696" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="717"/>
+      <c r="O46" s="697"/>
       <c r="P46" s="218">
         <f>SUM(P39:P45)</f>
         <v>5413.1299999999992</v>
@@ -42122,10 +42122,10 @@
       <c r="G50" s="166">
         <v>184</v>
       </c>
-      <c r="H50" s="718" t="s">
+      <c r="H50" s="698" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="719"/>
+      <c r="I50" s="691"/>
       <c r="J50" s="214" t="s">
         <v>121</v>
       </c>
@@ -42245,10 +42245,10 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="I54" s="678" t="s">
+      <c r="I54" s="680" t="s">
         <v>47</v>
       </c>
-      <c r="J54" s="678"/>
+      <c r="J54" s="680"/>
       <c r="K54" s="376">
         <v>288.75</v>
       </c>
@@ -42275,10 +42275,10 @@
       <c r="H55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="678" t="s">
+      <c r="I55" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="678"/>
+      <c r="J55" s="680"/>
       <c r="K55" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -42304,10 +42304,10 @@
       <c r="H56" s="1">
         <v>3</v>
       </c>
-      <c r="I56" s="678" t="s">
+      <c r="I56" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="678"/>
+      <c r="J56" s="680"/>
       <c r="K56" s="376">
         <v>10</v>
       </c>
@@ -42331,10 +42331,10 @@
       <c r="H57" s="1">
         <v>4</v>
       </c>
-      <c r="I57" s="678" t="s">
+      <c r="I57" s="680" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="678"/>
+      <c r="J57" s="680"/>
       <c r="K57" s="376">
         <v>5</v>
       </c>
@@ -42358,10 +42358,10 @@
       <c r="H58" s="1">
         <v>5</v>
       </c>
-      <c r="I58" s="678" t="s">
+      <c r="I58" s="680" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="678"/>
+      <c r="J58" s="680"/>
       <c r="K58" s="376">
         <v>4</v>
       </c>
@@ -42385,10 +42385,10 @@
       <c r="H59" s="1">
         <v>6</v>
       </c>
-      <c r="I59" s="678" t="s">
+      <c r="I59" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="678"/>
+      <c r="J59" s="680"/>
       <c r="K59" s="376">
         <v>332.56</v>
       </c>
@@ -42414,10 +42414,10 @@
       <c r="H60" s="1">
         <v>7</v>
       </c>
-      <c r="I60" s="712" t="s">
+      <c r="I60" s="675" t="s">
         <v>48</v>
       </c>
-      <c r="J60" s="713"/>
+      <c r="J60" s="676"/>
       <c r="K60" s="376">
         <v>458.46</v>
       </c>
@@ -42441,10 +42441,10 @@
       <c r="H61" s="1">
         <v>8</v>
       </c>
-      <c r="I61" s="712" t="s">
+      <c r="I61" s="675" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="713"/>
+      <c r="J61" s="676"/>
       <c r="K61" s="376">
         <v>4.58</v>
       </c>
@@ -42470,10 +42470,10 @@
       <c r="H62" s="1">
         <v>9</v>
       </c>
-      <c r="I62" s="675" t="s">
+      <c r="I62" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J62" s="675"/>
+      <c r="J62" s="677"/>
       <c r="K62" s="376">
         <v>1041.98</v>
       </c>
@@ -42497,10 +42497,10 @@
       <c r="H63" s="1">
         <v>10</v>
       </c>
-      <c r="I63" s="679" t="s">
+      <c r="I63" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="680"/>
+      <c r="J63" s="679"/>
       <c r="K63" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -42527,10 +42527,10 @@
       <c r="H64" s="1">
         <v>11</v>
       </c>
-      <c r="I64" s="679" t="s">
+      <c r="I64" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J64" s="680"/>
+      <c r="J64" s="679"/>
       <c r="K64" s="53">
         <v>1730.44</v>
       </c>
@@ -42594,27 +42594,27 @@
       <c r="S66" s="110"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="725" t="s">
+      <c r="A67" s="692" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="726"/>
-      <c r="C67" s="726"/>
-      <c r="D67" s="726"/>
-      <c r="E67" s="726"/>
-      <c r="F67" s="726"/>
-      <c r="G67" s="726"/>
+      <c r="B67" s="693"/>
+      <c r="C67" s="693"/>
+      <c r="D67" s="693"/>
+      <c r="E67" s="693"/>
+      <c r="F67" s="693"/>
+      <c r="G67" s="693"/>
       <c r="H67" s="109"/>
-      <c r="I67" s="726" t="s">
+      <c r="I67" s="693" t="s">
         <v>136</v>
       </c>
-      <c r="J67" s="726"/>
-      <c r="K67" s="726"/>
-      <c r="L67" s="726"/>
-      <c r="M67" s="726"/>
-      <c r="N67" s="722" t="s">
+      <c r="J67" s="693"/>
+      <c r="K67" s="693"/>
+      <c r="L67" s="693"/>
+      <c r="M67" s="693"/>
+      <c r="N67" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="722"/>
+      <c r="O67" s="694"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -42887,20 +42887,20 @@
       <c r="G73" s="261">
         <v>621</v>
       </c>
-      <c r="H73" s="714" t="s">
+      <c r="H73" s="684" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="700" t="s">
+      <c r="I73" s="685" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="700" t="s">
+      <c r="J73" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="700"/>
-      <c r="L73" s="702" t="s">
+      <c r="K73" s="685"/>
+      <c r="L73" s="686" t="s">
         <v>93</v>
       </c>
-      <c r="M73" s="702" t="s">
+      <c r="M73" s="686" t="s">
         <v>95</v>
       </c>
       <c r="N73" s="274"/>
@@ -42934,16 +42934,16 @@
         <v>оплачено</v>
       </c>
       <c r="G74" s="165"/>
-      <c r="H74" s="714"/>
-      <c r="I74" s="700"/>
+      <c r="H74" s="684"/>
+      <c r="I74" s="685"/>
       <c r="J74" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K74" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="702"/>
-      <c r="M74" s="702"/>
+      <c r="L74" s="686"/>
+      <c r="M74" s="686"/>
       <c r="N74" s="273"/>
       <c r="O74" s="373"/>
       <c r="P74" s="373"/>
@@ -42991,11 +42991,11 @@
         <v>98779.159999999989</v>
       </c>
       <c r="N75" s="273"/>
-      <c r="O75" s="730" t="s">
+      <c r="O75" s="673" t="s">
         <v>196</v>
       </c>
-      <c r="P75" s="730"/>
-      <c r="Q75" s="730"/>
+      <c r="P75" s="673"/>
+      <c r="Q75" s="673"/>
       <c r="R75" s="373"/>
       <c r="S75" s="422"/>
     </row>
@@ -43039,9 +43039,9 @@
         <v>101446.18</v>
       </c>
       <c r="N76" s="373"/>
-      <c r="O76" s="731"/>
-      <c r="P76" s="731"/>
-      <c r="Q76" s="731"/>
+      <c r="O76" s="674"/>
+      <c r="P76" s="674"/>
+      <c r="Q76" s="674"/>
       <c r="R76" s="373"/>
       <c r="S76" s="422"/>
     </row>
@@ -43188,10 +43188,10 @@
         <v>оплачено</v>
       </c>
       <c r="G80" s="165"/>
-      <c r="H80" s="729" t="s">
+      <c r="H80" s="690" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="719"/>
+      <c r="I80" s="691"/>
       <c r="J80" s="214" t="s">
         <v>121</v>
       </c>
@@ -43489,10 +43489,10 @@
       <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="I89" s="678" t="s">
+      <c r="I89" s="680" t="s">
         <v>47</v>
       </c>
-      <c r="J89" s="678"/>
+      <c r="J89" s="680"/>
       <c r="K89" s="376">
         <v>288.75</v>
       </c>
@@ -43517,10 +43517,10 @@
       <c r="H90" s="1">
         <v>2</v>
       </c>
-      <c r="I90" s="678" t="s">
+      <c r="I90" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J90" s="678"/>
+      <c r="J90" s="680"/>
       <c r="K90" s="376">
         <v>64.349999999999994</v>
       </c>
@@ -43559,10 +43559,10 @@
       <c r="H91" s="1">
         <v>3</v>
       </c>
-      <c r="I91" s="678" t="s">
+      <c r="I91" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J91" s="678"/>
+      <c r="J91" s="680"/>
       <c r="K91" s="376">
         <v>10</v>
       </c>
@@ -43599,10 +43599,10 @@
       <c r="H92" s="1">
         <v>4</v>
       </c>
-      <c r="I92" s="678" t="s">
+      <c r="I92" s="680" t="s">
         <v>53</v>
       </c>
-      <c r="J92" s="678"/>
+      <c r="J92" s="680"/>
       <c r="K92" s="376">
         <v>5</v>
       </c>
@@ -43637,8 +43637,8 @@
       <c r="H93" s="1">
         <v>5</v>
       </c>
-      <c r="I93" s="678"/>
-      <c r="J93" s="678"/>
+      <c r="I93" s="680"/>
+      <c r="J93" s="680"/>
       <c r="K93" s="376"/>
       <c r="L93" s="1"/>
       <c r="M93" s="159"/>
@@ -43669,10 +43669,10 @@
       <c r="H94" s="1">
         <v>6</v>
       </c>
-      <c r="I94" s="678" t="s">
+      <c r="I94" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J94" s="678"/>
+      <c r="J94" s="680"/>
       <c r="K94" s="376">
         <v>234.75</v>
       </c>
@@ -43717,10 +43717,10 @@
       <c r="H95" s="1">
         <v>7</v>
       </c>
-      <c r="I95" s="712" t="s">
+      <c r="I95" s="675" t="s">
         <v>48</v>
       </c>
-      <c r="J95" s="713"/>
+      <c r="J95" s="676"/>
       <c r="K95" s="376">
         <v>458.46</v>
       </c>
@@ -43755,10 +43755,10 @@
       <c r="H96" s="1">
         <v>8</v>
       </c>
-      <c r="I96" s="712" t="s">
+      <c r="I96" s="675" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="713"/>
+      <c r="J96" s="676"/>
       <c r="K96" s="376">
         <v>4.58</v>
       </c>
@@ -43793,10 +43793,10 @@
       <c r="H97" s="1">
         <v>9</v>
       </c>
-      <c r="I97" s="675" t="s">
+      <c r="I97" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J97" s="675"/>
+      <c r="J97" s="677"/>
       <c r="K97" s="376">
         <v>1041.98</v>
       </c>
@@ -43831,10 +43831,10 @@
       <c r="H98" s="1">
         <v>10</v>
       </c>
-      <c r="I98" s="679" t="s">
+      <c r="I98" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="680"/>
+      <c r="J98" s="679"/>
       <c r="K98" s="376">
         <v>276</v>
       </c>
@@ -43869,10 +43869,10 @@
       <c r="H99" s="1">
         <v>11</v>
       </c>
-      <c r="I99" s="679" t="s">
+      <c r="I99" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J99" s="680"/>
+      <c r="J99" s="679"/>
       <c r="K99" s="53">
         <v>1730.44</v>
       </c>
@@ -44252,23 +44252,23 @@
       <c r="S112" s="110"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="694" t="s">
+      <c r="A113" s="681" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="695"/>
-      <c r="C113" s="695"/>
-      <c r="D113" s="695"/>
-      <c r="E113" s="695"/>
-      <c r="F113" s="695"/>
-      <c r="G113" s="696"/>
+      <c r="B113" s="682"/>
+      <c r="C113" s="682"/>
+      <c r="D113" s="682"/>
+      <c r="E113" s="682"/>
+      <c r="F113" s="682"/>
+      <c r="G113" s="683"/>
       <c r="H113" s="329"/>
-      <c r="I113" s="695" t="s">
+      <c r="I113" s="682" t="s">
         <v>158</v>
       </c>
-      <c r="J113" s="695"/>
-      <c r="K113" s="695"/>
-      <c r="L113" s="695"/>
-      <c r="M113" s="696"/>
+      <c r="J113" s="682"/>
+      <c r="K113" s="682"/>
+      <c r="L113" s="682"/>
+      <c r="M113" s="683"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -44498,27 +44498,27 @@
       <c r="G119" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="H119" s="714" t="s">
+      <c r="H119" s="684" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="700" t="s">
+      <c r="I119" s="685" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="700" t="s">
+      <c r="J119" s="685" t="s">
         <v>21</v>
       </c>
-      <c r="K119" s="700"/>
-      <c r="L119" s="702" t="s">
+      <c r="K119" s="685"/>
+      <c r="L119" s="686" t="s">
         <v>93</v>
       </c>
-      <c r="M119" s="704" t="s">
+      <c r="M119" s="687" t="s">
         <v>95</v>
       </c>
-      <c r="O119" s="730" t="s">
+      <c r="O119" s="673" t="s">
         <v>197</v>
       </c>
-      <c r="P119" s="730"/>
-      <c r="Q119" s="730"/>
+      <c r="P119" s="673"/>
+      <c r="Q119" s="673"/>
       <c r="R119" s="1"/>
       <c r="S119" s="112"/>
     </row>
@@ -44544,19 +44544,19 @@
         <v>оплачено</v>
       </c>
       <c r="G120" s="318"/>
-      <c r="H120" s="714"/>
-      <c r="I120" s="700"/>
+      <c r="H120" s="684"/>
+      <c r="I120" s="685"/>
       <c r="J120" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K120" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L120" s="702"/>
-      <c r="M120" s="704"/>
-      <c r="O120" s="731"/>
-      <c r="P120" s="731"/>
-      <c r="Q120" s="731"/>
+      <c r="L120" s="686"/>
+      <c r="M120" s="687"/>
+      <c r="O120" s="674"/>
+      <c r="P120" s="674"/>
+      <c r="Q120" s="674"/>
       <c r="R120" s="1"/>
       <c r="S120" s="112"/>
     </row>
@@ -44814,10 +44814,10 @@
         <v>оплачено</v>
       </c>
       <c r="G126" s="318"/>
-      <c r="H126" s="729" t="s">
+      <c r="H126" s="690" t="s">
         <v>122</v>
       </c>
-      <c r="I126" s="719"/>
+      <c r="I126" s="691"/>
       <c r="J126" s="312" t="s">
         <v>121</v>
       </c>
@@ -44941,10 +44941,10 @@
       <c r="H130" s="1">
         <v>1</v>
       </c>
-      <c r="I130" s="678" t="s">
+      <c r="I130" s="680" t="s">
         <v>47</v>
       </c>
-      <c r="J130" s="678"/>
+      <c r="J130" s="680"/>
       <c r="K130" s="376">
         <v>288.75</v>
       </c>
@@ -44971,10 +44971,10 @@
       <c r="H131" s="1">
         <v>2</v>
       </c>
-      <c r="I131" s="678" t="s">
+      <c r="I131" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J131" s="678"/>
+      <c r="J131" s="680"/>
       <c r="K131" s="376">
         <v>60.29</v>
       </c>
@@ -45001,10 +45001,10 @@
       <c r="H132" s="1">
         <v>3</v>
       </c>
-      <c r="I132" s="678" t="s">
+      <c r="I132" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J132" s="678"/>
+      <c r="J132" s="680"/>
       <c r="K132" s="376">
         <v>4.95</v>
       </c>
@@ -45031,10 +45031,10 @@
       <c r="H133" s="1">
         <v>6</v>
       </c>
-      <c r="I133" s="678" t="s">
+      <c r="I133" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J133" s="678"/>
+      <c r="J133" s="680"/>
       <c r="K133" s="376">
         <v>234.75</v>
       </c>
@@ -45061,10 +45061,10 @@
       <c r="H134" s="1">
         <v>8</v>
       </c>
-      <c r="I134" s="712" t="s">
+      <c r="I134" s="675" t="s">
         <v>53</v>
       </c>
-      <c r="J134" s="713"/>
+      <c r="J134" s="676"/>
       <c r="K134" s="376">
         <v>7.01</v>
       </c>
@@ -45091,10 +45091,10 @@
       <c r="H135" s="1">
         <v>9</v>
       </c>
-      <c r="I135" s="675" t="s">
+      <c r="I135" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J135" s="675"/>
+      <c r="J135" s="677"/>
       <c r="K135" s="376">
         <v>1045.72</v>
       </c>
@@ -45121,10 +45121,10 @@
       <c r="H136" s="1">
         <v>10</v>
       </c>
-      <c r="I136" s="679" t="s">
+      <c r="I136" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J136" s="680"/>
+      <c r="J136" s="679"/>
       <c r="K136" s="376">
         <v>176.72</v>
       </c>
@@ -45151,10 +45151,10 @@
       <c r="H137" s="1">
         <v>11</v>
       </c>
-      <c r="I137" s="679" t="s">
+      <c r="I137" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J137" s="680"/>
+      <c r="J137" s="679"/>
       <c r="K137" s="53">
         <v>1730.7</v>
       </c>
@@ -45378,23 +45378,23 @@
       <c r="S147" s="110"/>
     </row>
     <row r="148" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="694" t="s">
+      <c r="A148" s="681" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="695"/>
-      <c r="C148" s="695"/>
-      <c r="D148" s="695"/>
-      <c r="E148" s="695"/>
-      <c r="F148" s="695"/>
-      <c r="G148" s="696"/>
+      <c r="B148" s="682"/>
+      <c r="C148" s="682"/>
+      <c r="D148" s="682"/>
+      <c r="E148" s="682"/>
+      <c r="F148" s="682"/>
+      <c r="G148" s="683"/>
       <c r="H148" s="352"/>
-      <c r="I148" s="695" t="s">
+      <c r="I148" s="682" t="s">
         <v>165</v>
       </c>
-      <c r="J148" s="695"/>
-      <c r="K148" s="695"/>
-      <c r="L148" s="695"/>
-      <c r="M148" s="696"/>
+      <c r="J148" s="682"/>
+      <c r="K148" s="682"/>
+      <c r="L148" s="682"/>
+      <c r="M148" s="683"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -45857,11 +45857,11 @@
       <c r="L163" s="1"/>
       <c r="M163" s="44"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="677" t="s">
+      <c r="P163" s="731" t="s">
         <v>283</v>
       </c>
-      <c r="Q163" s="677"/>
-      <c r="R163" s="677"/>
+      <c r="Q163" s="731"/>
+      <c r="R163" s="731"/>
       <c r="S163" s="112"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -45885,9 +45885,9 @@
       <c r="L164" s="1"/>
       <c r="M164" s="44"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="677"/>
-      <c r="Q164" s="677"/>
-      <c r="R164" s="677"/>
+      <c r="P164" s="731"/>
+      <c r="Q164" s="731"/>
+      <c r="R164" s="731"/>
       <c r="S164" s="112"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -45911,9 +45911,9 @@
       <c r="L165" s="1"/>
       <c r="M165" s="44"/>
       <c r="O165" s="1"/>
-      <c r="P165" s="677"/>
-      <c r="Q165" s="677"/>
-      <c r="R165" s="677"/>
+      <c r="P165" s="731"/>
+      <c r="Q165" s="731"/>
+      <c r="R165" s="731"/>
       <c r="S165" s="112"/>
     </row>
     <row r="166" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45950,20 +45950,20 @@
       <c r="E167" s="361"/>
       <c r="F167" s="359"/>
       <c r="G167" s="392"/>
-      <c r="H167" s="697" t="s">
+      <c r="H167" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I167" s="699" t="s">
+      <c r="I167" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J167" s="699" t="s">
+      <c r="J167" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K167" s="699"/>
-      <c r="L167" s="701" t="s">
+      <c r="K167" s="725"/>
+      <c r="L167" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M167" s="703" t="s">
+      <c r="M167" s="727" t="s">
         <v>95</v>
       </c>
       <c r="O167" s="1"/>
@@ -45980,16 +45980,16 @@
       <c r="E168" s="222"/>
       <c r="F168" s="207"/>
       <c r="G168" s="207"/>
-      <c r="H168" s="698"/>
-      <c r="I168" s="700"/>
+      <c r="H168" s="724"/>
+      <c r="I168" s="685"/>
       <c r="J168" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L168" s="702"/>
-      <c r="M168" s="704"/>
+      <c r="L168" s="686"/>
+      <c r="M168" s="687"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -46200,18 +46200,18 @@
       <c r="E175" s="85"/>
       <c r="F175" s="373"/>
       <c r="G175" s="373"/>
-      <c r="H175" s="681" t="s">
+      <c r="H175" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I175" s="683" t="s">
+      <c r="I175" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J175" s="684"/>
-      <c r="K175" s="685"/>
-      <c r="L175" s="689" t="s">
+      <c r="J175" s="713"/>
+      <c r="K175" s="714"/>
+      <c r="L175" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M175" s="690"/>
+      <c r="M175" s="719"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -46226,12 +46226,12 @@
       <c r="E176" s="290"/>
       <c r="F176" s="373"/>
       <c r="G176" s="394"/>
-      <c r="H176" s="682"/>
-      <c r="I176" s="686"/>
-      <c r="J176" s="687"/>
-      <c r="K176" s="688"/>
-      <c r="L176" s="691"/>
-      <c r="M176" s="692"/>
+      <c r="H176" s="711"/>
+      <c r="I176" s="715"/>
+      <c r="J176" s="716"/>
+      <c r="K176" s="717"/>
+      <c r="L176" s="720"/>
+      <c r="M176" s="721"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -46249,10 +46249,10 @@
       <c r="H177" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I177" s="693" t="s">
+      <c r="I177" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J177" s="693"/>
+      <c r="J177" s="722"/>
       <c r="K177" s="616">
         <v>288.75</v>
       </c>
@@ -46282,10 +46282,10 @@
       <c r="H178" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I178" s="678" t="s">
+      <c r="I178" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J178" s="678"/>
+      <c r="J178" s="680"/>
       <c r="K178" s="606">
         <v>60.19</v>
       </c>
@@ -46298,10 +46298,10 @@
       <c r="N178" s="369" t="s">
         <v>56</v>
       </c>
-      <c r="O178" s="678" t="s">
+      <c r="O178" s="680" t="s">
         <v>47</v>
       </c>
-      <c r="P178" s="678"/>
+      <c r="P178" s="680"/>
       <c r="Q178" s="606">
         <v>28.88</v>
       </c>
@@ -46323,10 +46323,10 @@
       <c r="H179" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I179" s="678" t="s">
+      <c r="I179" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J179" s="678"/>
+      <c r="J179" s="680"/>
       <c r="K179" s="606">
         <v>4.95</v>
       </c>
@@ -46336,10 +46336,10 @@
       <c r="M179" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="O179" s="678" t="s">
+      <c r="O179" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="P179" s="678"/>
+      <c r="P179" s="680"/>
       <c r="Q179" s="606"/>
       <c r="R179" s="288">
         <v>43783</v>
@@ -46359,10 +46359,10 @@
       <c r="H180" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I180" s="678" t="s">
+      <c r="I180" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J180" s="678"/>
+      <c r="J180" s="680"/>
       <c r="K180" s="606">
         <v>234.75</v>
       </c>
@@ -46375,10 +46375,10 @@
       <c r="N180" s="351" t="s">
         <v>56</v>
       </c>
-      <c r="O180" s="678" t="s">
+      <c r="O180" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="P180" s="678"/>
+      <c r="P180" s="680"/>
       <c r="Q180" s="606">
         <v>0.5</v>
       </c>
@@ -46400,10 +46400,10 @@
       <c r="H181" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I181" s="675" t="s">
+      <c r="I181" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J181" s="675"/>
+      <c r="J181" s="677"/>
       <c r="K181" s="610">
         <v>1147.99</v>
       </c>
@@ -46416,10 +46416,10 @@
       <c r="N181" s="351" t="s">
         <v>56</v>
       </c>
-      <c r="O181" s="678" t="s">
+      <c r="O181" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="P181" s="678"/>
+      <c r="P181" s="680"/>
       <c r="Q181" s="606">
         <v>66.75</v>
       </c>
@@ -46441,10 +46441,10 @@
       <c r="H182" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="I182" s="679" t="s">
+      <c r="I182" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J182" s="680"/>
+      <c r="J182" s="679"/>
       <c r="K182" s="606">
         <v>176.72</v>
       </c>
@@ -46455,10 +46455,10 @@
         <v>170</v>
       </c>
       <c r="N182" s="351"/>
-      <c r="O182" s="675" t="s">
+      <c r="O182" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="P182" s="675"/>
+      <c r="P182" s="677"/>
       <c r="Q182" s="610"/>
       <c r="R182" s="308" t="s">
         <v>177</v>
@@ -46493,10 +46493,10 @@
         <v>170</v>
       </c>
       <c r="N183" s="351"/>
-      <c r="O183" s="679" t="s">
+      <c r="O183" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="P183" s="680"/>
+      <c r="P183" s="679"/>
       <c r="Q183" s="606"/>
       <c r="R183" s="288">
         <v>43790</v>
@@ -46552,10 +46552,10 @@
       <c r="H185" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I185" s="679" t="s">
+      <c r="I185" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J185" s="680"/>
+      <c r="J185" s="679"/>
       <c r="K185" s="619">
         <v>1446.11</v>
       </c>
@@ -46588,20 +46588,20 @@
       <c r="H186" s="356" t="s">
         <v>193</v>
       </c>
-      <c r="I186" s="673" t="s">
+      <c r="I186" s="728" t="s">
         <v>181</v>
       </c>
-      <c r="J186" s="674"/>
+      <c r="J186" s="729"/>
       <c r="K186" s="619"/>
       <c r="L186" s="288" t="s">
         <v>182</v>
       </c>
       <c r="M186" s="44"/>
       <c r="N186" s="373"/>
-      <c r="O186" s="679" t="s">
+      <c r="O186" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="P186" s="680"/>
+      <c r="P186" s="679"/>
       <c r="Q186" s="619"/>
       <c r="R186" s="288">
         <v>43783</v>
@@ -46621,10 +46621,10 @@
       <c r="H187" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="I187" s="675" t="s">
+      <c r="I187" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J187" s="675"/>
+      <c r="J187" s="677"/>
       <c r="K187" s="619">
         <f>J152</f>
         <v>2927.79</v>
@@ -46662,10 +46662,10 @@
         <f>SUM(K177:K187)</f>
         <v>6858.8600000000006</v>
       </c>
-      <c r="K188" s="676" t="s">
+      <c r="K188" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L188" s="676"/>
+      <c r="L188" s="730"/>
       <c r="M188" s="367">
         <v>0</v>
       </c>
@@ -46904,21 +46904,78 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="O75:Q76"/>
-    <mergeCell ref="O119:Q120"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="P163:R165"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:K176"/>
+    <mergeCell ref="L175:M176"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
     <mergeCell ref="I137:J137"/>
     <mergeCell ref="I34:K35"/>
     <mergeCell ref="H126:I126"/>
@@ -46941,78 +46998,21 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="I175:K176"/>
-    <mergeCell ref="L175:M176"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="P163:R165"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="O75:Q76"/>
+    <mergeCell ref="O119:Q120"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -47059,28 +47059,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="732" t="s">
+      <c r="A1" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="696"/>
-      <c r="H1" s="741" t="s">
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="683"/>
+      <c r="H1" s="734" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="743"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="736"/>
       <c r="N1" s="389"/>
-      <c r="O1" s="722" t="s">
+      <c r="O1" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="722"/>
+      <c r="P1" s="694"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -47104,8 +47104,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="739"/>
-      <c r="I2" s="740"/>
+      <c r="H2" s="732"/>
+      <c r="I2" s="733"/>
       <c r="J2" s="384" t="s">
         <v>35</v>
       </c>
@@ -47158,10 +47158,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="737" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="713"/>
+      <c r="I3" s="676"/>
       <c r="J3" s="390">
         <v>1458.67</v>
       </c>
@@ -47214,10 +47214,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="744" t="s">
+      <c r="H4" s="737" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="713"/>
+      <c r="I4" s="676"/>
       <c r="J4" s="287">
         <v>1035.6500000000001</v>
       </c>
@@ -47736,20 +47736,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="697" t="s">
+      <c r="H20" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="699" t="s">
+      <c r="I20" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="699" t="s">
+      <c r="J20" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="699"/>
-      <c r="L20" s="701" t="s">
+      <c r="K20" s="725"/>
+      <c r="L20" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="703" t="s">
+      <c r="M20" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -47769,16 +47769,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="698"/>
-      <c r="I21" s="700"/>
+      <c r="H21" s="724"/>
+      <c r="I21" s="685"/>
       <c r="J21" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="702"/>
-      <c r="M21" s="704"/>
+      <c r="L21" s="686"/>
+      <c r="M21" s="687"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -48005,18 +48005,18 @@
       <c r="E28" s="85"/>
       <c r="F28" s="373"/>
       <c r="G28" s="373"/>
-      <c r="H28" s="681" t="s">
+      <c r="H28" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="683" t="s">
+      <c r="I28" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="684"/>
-      <c r="K28" s="685"/>
-      <c r="L28" s="689" t="s">
+      <c r="J28" s="713"/>
+      <c r="K28" s="714"/>
+      <c r="L28" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M28" s="690"/>
+      <c r="M28" s="719"/>
       <c r="N28" s="1"/>
       <c r="P28" s="373"/>
       <c r="Q28" s="373"/>
@@ -48033,12 +48033,12 @@
       <c r="E29" s="290"/>
       <c r="F29" s="373"/>
       <c r="G29" s="394"/>
-      <c r="H29" s="682"/>
-      <c r="I29" s="686"/>
-      <c r="J29" s="687"/>
-      <c r="K29" s="688"/>
-      <c r="L29" s="691"/>
-      <c r="M29" s="692"/>
+      <c r="H29" s="711"/>
+      <c r="I29" s="715"/>
+      <c r="J29" s="716"/>
+      <c r="K29" s="717"/>
+      <c r="L29" s="720"/>
+      <c r="M29" s="721"/>
       <c r="N29" s="1"/>
       <c r="P29" s="373"/>
       <c r="Q29" s="373"/>
@@ -48058,10 +48058,10 @@
       <c r="H30" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="693" t="s">
+      <c r="I30" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="693"/>
+      <c r="J30" s="722"/>
       <c r="K30" s="479">
         <v>288.75</v>
       </c>
@@ -48090,10 +48090,10 @@
       <c r="H31" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="678" t="s">
+      <c r="I31" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="678"/>
+      <c r="J31" s="680"/>
       <c r="K31" s="53">
         <v>60.19</v>
       </c>
@@ -48122,10 +48122,10 @@
       <c r="H32" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I32" s="678" t="s">
+      <c r="I32" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="678"/>
+      <c r="J32" s="680"/>
       <c r="K32" s="53">
         <v>4.95</v>
       </c>
@@ -48154,10 +48154,10 @@
       <c r="H33" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="678" t="s">
+      <c r="I33" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="678"/>
+      <c r="J33" s="680"/>
       <c r="K33" s="53">
         <v>257</v>
       </c>
@@ -48186,10 +48186,10 @@
       <c r="H34" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I34" s="675" t="s">
+      <c r="I34" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="675"/>
+      <c r="J34" s="677"/>
       <c r="K34" s="480">
         <v>922.03</v>
       </c>
@@ -48218,10 +48218,10 @@
       <c r="H35" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="679" t="s">
+      <c r="I35" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="680"/>
+      <c r="J35" s="679"/>
       <c r="K35" s="53">
         <v>315.07</v>
       </c>
@@ -48310,10 +48310,10 @@
       <c r="H38" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="679" t="s">
+      <c r="I38" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="680"/>
+      <c r="J38" s="679"/>
       <c r="K38" s="53">
         <v>1483.76</v>
       </c>
@@ -48342,10 +48342,10 @@
       <c r="H39" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="679" t="s">
+      <c r="I39" s="678" t="s">
         <v>181</v>
       </c>
-      <c r="J39" s="680"/>
+      <c r="J39" s="679"/>
       <c r="K39" s="53">
         <v>10</v>
       </c>
@@ -48372,10 +48372,10 @@
       <c r="H40" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="675" t="s">
+      <c r="I40" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="675"/>
+      <c r="J40" s="677"/>
       <c r="K40" s="53">
         <f>J5</f>
         <v>2494.3200000000002</v>
@@ -48410,10 +48410,10 @@
         <f>SUM(K30:K40)</f>
         <v>6294.5300000000007</v>
       </c>
-      <c r="K41" s="676" t="s">
+      <c r="K41" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="676"/>
+      <c r="L41" s="730"/>
       <c r="M41" s="367">
         <v>0</v>
       </c>
@@ -48433,10 +48433,10 @@
       <c r="E42" s="373"/>
       <c r="F42" s="373"/>
       <c r="G42" s="373"/>
-      <c r="H42" s="735"/>
-      <c r="I42" s="735"/>
-      <c r="J42" s="735"/>
-      <c r="K42" s="735"/>
+      <c r="H42" s="744"/>
+      <c r="I42" s="744"/>
+      <c r="J42" s="744"/>
+      <c r="K42" s="744"/>
       <c r="L42" s="373"/>
       <c r="M42" s="460"/>
       <c r="N42" s="1"/>
@@ -48449,18 +48449,18 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="373"/>
-      <c r="B43" s="733" t="s">
+      <c r="B43" s="742" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="733"/>
-      <c r="D43" s="733"/>
-      <c r="E43" s="733"/>
-      <c r="F43" s="733"/>
-      <c r="G43" s="733"/>
-      <c r="H43" s="733"/>
-      <c r="I43" s="733"/>
-      <c r="J43" s="733"/>
-      <c r="K43" s="733"/>
+      <c r="C43" s="742"/>
+      <c r="D43" s="742"/>
+      <c r="E43" s="742"/>
+      <c r="F43" s="742"/>
+      <c r="G43" s="742"/>
+      <c r="H43" s="742"/>
+      <c r="I43" s="742"/>
+      <c r="J43" s="742"/>
+      <c r="K43" s="742"/>
       <c r="L43" s="373"/>
       <c r="M43" s="460"/>
       <c r="N43" s="1"/>
@@ -48471,16 +48471,16 @@
       <c r="T43" s="373"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="734"/>
-      <c r="C44" s="734"/>
-      <c r="D44" s="734"/>
-      <c r="E44" s="734"/>
-      <c r="F44" s="734"/>
-      <c r="G44" s="734"/>
-      <c r="H44" s="734"/>
-      <c r="I44" s="734"/>
-      <c r="J44" s="734"/>
-      <c r="K44" s="734"/>
+      <c r="B44" s="743"/>
+      <c r="C44" s="743"/>
+      <c r="D44" s="743"/>
+      <c r="E44" s="743"/>
+      <c r="F44" s="743"/>
+      <c r="G44" s="743"/>
+      <c r="H44" s="743"/>
+      <c r="I44" s="743"/>
+      <c r="J44" s="743"/>
+      <c r="K44" s="743"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -48491,23 +48491,23 @@
       <c r="T44" s="373"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="732" t="s">
+      <c r="A45" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="695"/>
-      <c r="C45" s="695"/>
-      <c r="D45" s="695"/>
-      <c r="E45" s="695"/>
-      <c r="F45" s="695"/>
-      <c r="G45" s="696"/>
-      <c r="H45" s="736" t="s">
+      <c r="B45" s="682"/>
+      <c r="C45" s="682"/>
+      <c r="D45" s="682"/>
+      <c r="E45" s="682"/>
+      <c r="F45" s="682"/>
+      <c r="G45" s="683"/>
+      <c r="H45" s="740" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="737"/>
-      <c r="J45" s="737"/>
-      <c r="K45" s="737"/>
-      <c r="L45" s="737"/>
-      <c r="M45" s="738"/>
+      <c r="I45" s="738"/>
+      <c r="J45" s="738"/>
+      <c r="K45" s="738"/>
+      <c r="L45" s="738"/>
+      <c r="M45" s="741"/>
       <c r="N45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="459"/>
@@ -49149,20 +49149,20 @@
       <c r="E64" s="361"/>
       <c r="F64" s="359"/>
       <c r="G64" s="392"/>
-      <c r="H64" s="697" t="s">
+      <c r="H64" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="699" t="s">
+      <c r="I64" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="699" t="s">
+      <c r="J64" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="699"/>
-      <c r="L64" s="701" t="s">
+      <c r="K64" s="725"/>
+      <c r="L64" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M64" s="703" t="s">
+      <c r="M64" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N64" s="1"/>
@@ -49182,16 +49182,16 @@
       <c r="E65" s="222"/>
       <c r="F65" s="207"/>
       <c r="G65" s="207"/>
-      <c r="H65" s="698"/>
-      <c r="I65" s="700"/>
+      <c r="H65" s="724"/>
+      <c r="I65" s="685"/>
       <c r="J65" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="702"/>
-      <c r="M65" s="704"/>
+      <c r="L65" s="686"/>
+      <c r="M65" s="687"/>
       <c r="N65" s="1"/>
       <c r="O65" s="373"/>
       <c r="P65" s="535">
@@ -49352,18 +49352,18 @@
       <c r="E72" s="85"/>
       <c r="F72" s="373"/>
       <c r="G72" s="373"/>
-      <c r="H72" s="681" t="s">
+      <c r="H72" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="683" t="s">
+      <c r="I72" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="684"/>
-      <c r="K72" s="685"/>
-      <c r="L72" s="689" t="s">
+      <c r="J72" s="713"/>
+      <c r="K72" s="714"/>
+      <c r="L72" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M72" s="690"/>
+      <c r="M72" s="719"/>
       <c r="N72" s="1"/>
       <c r="O72" s="373"/>
       <c r="P72" s="534">
@@ -49378,12 +49378,12 @@
       <c r="E73" s="290"/>
       <c r="F73" s="373"/>
       <c r="G73" s="394"/>
-      <c r="H73" s="682"/>
-      <c r="I73" s="686"/>
-      <c r="J73" s="687"/>
-      <c r="K73" s="688"/>
-      <c r="L73" s="691"/>
-      <c r="M73" s="692"/>
+      <c r="H73" s="711"/>
+      <c r="I73" s="715"/>
+      <c r="J73" s="716"/>
+      <c r="K73" s="717"/>
+      <c r="L73" s="720"/>
+      <c r="M73" s="721"/>
       <c r="N73" s="1"/>
       <c r="O73" s="373"/>
       <c r="P73" s="534">
@@ -49409,10 +49409,10 @@
         <f>IF(K74="","не нужно","оплачено")</f>
         <v>оплачено</v>
       </c>
-      <c r="I74" s="693" t="s">
+      <c r="I74" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="693"/>
+      <c r="J74" s="722"/>
       <c r="K74" s="479">
         <v>28.88</v>
       </c>
@@ -49445,10 +49445,10 @@
         <f t="shared" ref="H75:H84" si="6">IF(K75="","не нужно","оплачено")</f>
         <v>не нужно</v>
       </c>
-      <c r="I75" s="678" t="s">
+      <c r="I75" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J75" s="678"/>
+      <c r="J75" s="680"/>
       <c r="K75" s="53"/>
       <c r="L75" s="288">
         <v>43814</v>
@@ -49479,10 +49479,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I76" s="678" t="s">
+      <c r="I76" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J76" s="678"/>
+      <c r="J76" s="680"/>
       <c r="K76" s="53">
         <v>0.5</v>
       </c>
@@ -49515,10 +49515,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I77" s="678" t="s">
+      <c r="I77" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J77" s="678"/>
+      <c r="J77" s="680"/>
       <c r="K77" s="53">
         <v>66.75</v>
       </c>
@@ -49551,10 +49551,10 @@
         <f t="shared" si="6"/>
         <v>не нужно</v>
       </c>
-      <c r="I78" s="675" t="s">
+      <c r="I78" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J78" s="675"/>
+      <c r="J78" s="677"/>
       <c r="K78" s="480"/>
       <c r="L78" s="308" t="s">
         <v>177</v>
@@ -49585,10 +49585,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I79" s="679" t="s">
+      <c r="I79" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J79" s="680"/>
+      <c r="J79" s="679"/>
       <c r="K79" s="53">
         <v>7.75</v>
       </c>
@@ -49691,10 +49691,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I82" s="679" t="s">
+      <c r="I82" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="680"/>
+      <c r="J82" s="679"/>
       <c r="K82" s="53">
         <v>386.79</v>
       </c>
@@ -49727,10 +49727,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I83" s="679" t="s">
+      <c r="I83" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J83" s="680"/>
+      <c r="J83" s="679"/>
       <c r="K83" s="477">
         <v>10</v>
       </c>
@@ -49761,10 +49761,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I84" s="675" t="s">
+      <c r="I84" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J84" s="675"/>
+      <c r="J84" s="677"/>
       <c r="K84" s="53">
         <v>199.36</v>
       </c>
@@ -49801,10 +49801,10 @@
         <f>SUM(K74:K84)</f>
         <v>987.00000000000011</v>
       </c>
-      <c r="K85" s="676" t="s">
+      <c r="K85" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L85" s="676"/>
+      <c r="L85" s="730"/>
       <c r="M85" s="367">
         <v>0</v>
       </c>
@@ -49820,10 +49820,10 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="737" t="s">
+      <c r="C86" s="738" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="737"/>
+      <c r="D86" s="738"/>
       <c r="P86" s="369">
         <v>274</v>
       </c>
@@ -50146,16 +50146,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:K73"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H28:H29"/>
@@ -50172,27 +50183,16 @@
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="I76:J76"/>
     <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:K73"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
@@ -52219,28 +52219,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="732" t="s">
+      <c r="A1" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="696"/>
-      <c r="H1" s="741" t="s">
+      <c r="B1" s="682"/>
+      <c r="C1" s="682"/>
+      <c r="D1" s="682"/>
+      <c r="E1" s="682"/>
+      <c r="F1" s="682"/>
+      <c r="G1" s="683"/>
+      <c r="H1" s="734" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="743"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="736"/>
       <c r="N1" s="509"/>
-      <c r="O1" s="722" t="s">
+      <c r="O1" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="722"/>
+      <c r="P1" s="694"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -52264,8 +52264,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="739"/>
-      <c r="I2" s="740"/>
+      <c r="H2" s="732"/>
+      <c r="I2" s="733"/>
       <c r="J2" s="504" t="s">
         <v>35</v>
       </c>
@@ -52318,10 +52318,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="737" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="713"/>
+      <c r="I3" s="676"/>
       <c r="J3" s="510">
         <v>2039.02</v>
       </c>
@@ -52373,10 +52373,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="761" t="s">
+      <c r="H4" s="755" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="762"/>
+      <c r="I4" s="756"/>
       <c r="J4" s="531">
         <v>918.57</v>
       </c>
@@ -52887,20 +52887,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="697" t="s">
+      <c r="H20" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="699" t="s">
+      <c r="I20" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="699" t="s">
+      <c r="J20" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="699"/>
-      <c r="L20" s="701" t="s">
+      <c r="K20" s="725"/>
+      <c r="L20" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="703" t="s">
+      <c r="M20" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -52920,16 +52920,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="698"/>
-      <c r="I21" s="700"/>
+      <c r="H21" s="724"/>
+      <c r="I21" s="685"/>
       <c r="J21" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="702"/>
-      <c r="M21" s="704"/>
+      <c r="L21" s="686"/>
+      <c r="M21" s="687"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -53228,18 +53228,18 @@
       <c r="E30" s="85"/>
       <c r="F30" s="373"/>
       <c r="G30" s="373"/>
-      <c r="H30" s="681" t="s">
+      <c r="H30" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="683" t="s">
+      <c r="I30" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="684"/>
-      <c r="K30" s="685"/>
-      <c r="L30" s="689" t="s">
+      <c r="J30" s="713"/>
+      <c r="K30" s="714"/>
+      <c r="L30" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M30" s="690"/>
+      <c r="M30" s="719"/>
       <c r="N30" s="1"/>
       <c r="P30" s="373"/>
       <c r="Q30" s="373"/>
@@ -53256,12 +53256,12 @@
       <c r="E31" s="290"/>
       <c r="F31" s="373"/>
       <c r="G31" s="394"/>
-      <c r="H31" s="682"/>
-      <c r="I31" s="686"/>
-      <c r="J31" s="687"/>
-      <c r="K31" s="688"/>
-      <c r="L31" s="691"/>
-      <c r="M31" s="692"/>
+      <c r="H31" s="711"/>
+      <c r="I31" s="715"/>
+      <c r="J31" s="716"/>
+      <c r="K31" s="717"/>
+      <c r="L31" s="720"/>
+      <c r="M31" s="721"/>
       <c r="N31" s="1"/>
       <c r="P31" s="373"/>
       <c r="Q31" s="373"/>
@@ -53281,10 +53281,10 @@
       <c r="H32" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="756" t="s">
+      <c r="I32" s="757" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="756"/>
+      <c r="J32" s="757"/>
       <c r="K32" s="479">
         <v>288.75</v>
       </c>
@@ -53313,10 +53313,10 @@
       <c r="H33" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="757" t="s">
+      <c r="I33" s="758" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="757"/>
+      <c r="J33" s="758"/>
       <c r="K33" s="53">
         <v>60.19</v>
       </c>
@@ -53345,10 +53345,10 @@
       <c r="H34" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="757" t="s">
+      <c r="I34" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="757"/>
+      <c r="J34" s="758"/>
       <c r="K34" s="53">
         <v>4.95</v>
       </c>
@@ -53377,10 +53377,10 @@
       <c r="H35" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="757" t="s">
+      <c r="I35" s="758" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="757"/>
+      <c r="J35" s="758"/>
       <c r="K35" s="53">
         <v>257</v>
       </c>
@@ -53409,10 +53409,10 @@
       <c r="H36" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="758" t="s">
+      <c r="I36" s="759" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="758"/>
+      <c r="J36" s="759"/>
       <c r="K36" s="480">
         <v>1101.6300000000001</v>
       </c>
@@ -53441,10 +53441,10 @@
       <c r="H37" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="759" t="s">
+      <c r="I37" s="760" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="760"/>
+      <c r="J37" s="761"/>
       <c r="K37" s="53">
         <v>338.19</v>
       </c>
@@ -53538,10 +53538,10 @@
       <c r="H40" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="759" t="s">
+      <c r="I40" s="760" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="760"/>
+      <c r="J40" s="761"/>
       <c r="K40" s="53">
         <v>1496.82</v>
       </c>
@@ -53570,10 +53570,10 @@
       <c r="H41" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="759" t="s">
+      <c r="I41" s="760" t="s">
         <v>181</v>
       </c>
-      <c r="J41" s="760"/>
+      <c r="J41" s="761"/>
       <c r="K41" s="53">
         <v>10</v>
       </c>
@@ -53602,10 +53602,10 @@
       <c r="H42" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="675" t="s">
+      <c r="I42" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="675"/>
+      <c r="J42" s="677"/>
       <c r="K42" s="53">
         <f>J5</f>
         <v>2957.59</v>
@@ -53640,10 +53640,10 @@
         <f>SUM(K32:K42)</f>
         <v>7448.04</v>
       </c>
-      <c r="K43" s="676" t="s">
+      <c r="K43" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="676"/>
+      <c r="L43" s="730"/>
       <c r="M43" s="542">
         <v>0</v>
       </c>
@@ -53663,10 +53663,10 @@
       <c r="E44" s="373"/>
       <c r="F44" s="373"/>
       <c r="G44" s="373"/>
-      <c r="H44" s="735"/>
-      <c r="I44" s="735"/>
-      <c r="J44" s="735"/>
-      <c r="K44" s="735"/>
+      <c r="H44" s="744"/>
+      <c r="I44" s="744"/>
+      <c r="J44" s="744"/>
+      <c r="K44" s="744"/>
       <c r="L44" s="373"/>
       <c r="M44" s="460"/>
       <c r="N44" s="1"/>
@@ -53679,18 +53679,18 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="373"/>
-      <c r="B45" s="733" t="s">
+      <c r="B45" s="742" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="733"/>
-      <c r="D45" s="733"/>
-      <c r="E45" s="733"/>
-      <c r="F45" s="733"/>
-      <c r="G45" s="733"/>
-      <c r="H45" s="733"/>
-      <c r="I45" s="733"/>
-      <c r="J45" s="733"/>
-      <c r="K45" s="733"/>
+      <c r="C45" s="742"/>
+      <c r="D45" s="742"/>
+      <c r="E45" s="742"/>
+      <c r="F45" s="742"/>
+      <c r="G45" s="742"/>
+      <c r="H45" s="742"/>
+      <c r="I45" s="742"/>
+      <c r="J45" s="742"/>
+      <c r="K45" s="742"/>
       <c r="L45" s="373"/>
       <c r="M45" s="460"/>
       <c r="N45" s="1"/>
@@ -53701,16 +53701,16 @@
       <c r="T45" s="373"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="734"/>
-      <c r="C46" s="734"/>
-      <c r="D46" s="734"/>
-      <c r="E46" s="734"/>
-      <c r="F46" s="734"/>
-      <c r="G46" s="734"/>
-      <c r="H46" s="734"/>
-      <c r="I46" s="734"/>
-      <c r="J46" s="734"/>
-      <c r="K46" s="734"/>
+      <c r="B46" s="743"/>
+      <c r="C46" s="743"/>
+      <c r="D46" s="743"/>
+      <c r="E46" s="743"/>
+      <c r="F46" s="743"/>
+      <c r="G46" s="743"/>
+      <c r="H46" s="743"/>
+      <c r="I46" s="743"/>
+      <c r="J46" s="743"/>
+      <c r="K46" s="743"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -53721,23 +53721,23 @@
       <c r="T46" s="373"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="732" t="s">
+      <c r="A47" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="695"/>
-      <c r="C47" s="695"/>
-      <c r="D47" s="695"/>
-      <c r="E47" s="695"/>
-      <c r="F47" s="695"/>
-      <c r="G47" s="696"/>
-      <c r="H47" s="736" t="s">
+      <c r="B47" s="682"/>
+      <c r="C47" s="682"/>
+      <c r="D47" s="682"/>
+      <c r="E47" s="682"/>
+      <c r="F47" s="682"/>
+      <c r="G47" s="683"/>
+      <c r="H47" s="740" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="737"/>
-      <c r="J47" s="737"/>
-      <c r="K47" s="737"/>
-      <c r="L47" s="737"/>
-      <c r="M47" s="738"/>
+      <c r="I47" s="738"/>
+      <c r="J47" s="738"/>
+      <c r="K47" s="738"/>
+      <c r="L47" s="738"/>
+      <c r="M47" s="741"/>
       <c r="N47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="459"/>
@@ -54210,25 +54210,25 @@
       <c r="E66" s="361"/>
       <c r="F66" s="359"/>
       <c r="G66" s="392"/>
-      <c r="H66" s="697" t="s">
+      <c r="H66" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="699" t="s">
+      <c r="I66" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="699" t="s">
+      <c r="J66" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="699"/>
-      <c r="L66" s="701" t="s">
+      <c r="K66" s="725"/>
+      <c r="L66" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M66" s="703" t="s">
+      <c r="M66" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="373"/>
-      <c r="P66" s="755"/>
+      <c r="P66" s="762"/>
     </row>
     <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="362"/>
@@ -54238,19 +54238,19 @@
       <c r="E67" s="222"/>
       <c r="F67" s="207"/>
       <c r="G67" s="207"/>
-      <c r="H67" s="698"/>
-      <c r="I67" s="700"/>
+      <c r="H67" s="724"/>
+      <c r="I67" s="685"/>
       <c r="J67" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K67" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="702"/>
-      <c r="M67" s="704"/>
+      <c r="L67" s="686"/>
+      <c r="M67" s="687"/>
       <c r="N67" s="1"/>
       <c r="O67" s="373"/>
-      <c r="P67" s="755"/>
+      <c r="P67" s="762"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="345"/>
@@ -54425,18 +54425,18 @@
       <c r="E74" s="85"/>
       <c r="F74" s="373"/>
       <c r="G74" s="373"/>
-      <c r="H74" s="681" t="s">
+      <c r="H74" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="683" t="s">
+      <c r="I74" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J74" s="684"/>
-      <c r="K74" s="685"/>
-      <c r="L74" s="689" t="s">
+      <c r="J74" s="713"/>
+      <c r="K74" s="714"/>
+      <c r="L74" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M74" s="690"/>
+      <c r="M74" s="719"/>
       <c r="N74" s="1"/>
       <c r="O74" s="373"/>
       <c r="P74" s="455"/>
@@ -54451,12 +54451,12 @@
       <c r="E75" s="290"/>
       <c r="F75" s="373"/>
       <c r="G75" s="394"/>
-      <c r="H75" s="682"/>
-      <c r="I75" s="686"/>
-      <c r="J75" s="687"/>
-      <c r="K75" s="688"/>
-      <c r="L75" s="691"/>
-      <c r="M75" s="692"/>
+      <c r="H75" s="711"/>
+      <c r="I75" s="715"/>
+      <c r="J75" s="716"/>
+      <c r="K75" s="717"/>
+      <c r="L75" s="720"/>
+      <c r="M75" s="721"/>
       <c r="N75" s="1"/>
       <c r="O75" s="373"/>
       <c r="P75" s="455"/>
@@ -54479,10 +54479,10 @@
       <c r="H76" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="693" t="s">
+      <c r="I76" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="693"/>
+      <c r="J76" s="722"/>
       <c r="K76" s="479">
         <v>28.88</v>
       </c>
@@ -54512,10 +54512,10 @@
       <c r="H77" s="357" t="s">
         <v>250</v>
       </c>
-      <c r="I77" s="678" t="s">
+      <c r="I77" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J77" s="678"/>
+      <c r="J77" s="680"/>
       <c r="K77" s="53">
         <v>0</v>
       </c>
@@ -54545,10 +54545,10 @@
       <c r="H78" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I78" s="678" t="s">
+      <c r="I78" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J78" s="678"/>
+      <c r="J78" s="680"/>
       <c r="K78" s="53">
         <v>0.5</v>
       </c>
@@ -54578,10 +54578,10 @@
       <c r="H79" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I79" s="678" t="s">
+      <c r="I79" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J79" s="678"/>
+      <c r="J79" s="680"/>
       <c r="K79" s="53">
         <v>89</v>
       </c>
@@ -54611,10 +54611,10 @@
       <c r="H80" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I80" s="675" t="s">
+      <c r="I80" s="677" t="s">
         <v>59</v>
       </c>
-      <c r="J80" s="675"/>
+      <c r="J80" s="677"/>
       <c r="K80" s="480">
         <v>247.96</v>
       </c>
@@ -54644,10 +54644,10 @@
       <c r="H81" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="679" t="s">
+      <c r="I81" s="678" t="s">
         <v>68</v>
       </c>
-      <c r="J81" s="680"/>
+      <c r="J81" s="679"/>
       <c r="K81" s="53">
         <v>69.5</v>
       </c>
@@ -54742,10 +54742,10 @@
       <c r="H84" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I84" s="679" t="s">
+      <c r="I84" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J84" s="680"/>
+      <c r="J84" s="679"/>
       <c r="K84" s="53">
         <v>588.1</v>
       </c>
@@ -54779,10 +54779,10 @@
       <c r="H85" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="679" t="s">
+      <c r="I85" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J85" s="680"/>
+      <c r="J85" s="679"/>
       <c r="K85" s="477">
         <v>10</v>
       </c>
@@ -54812,10 +54812,10 @@
       <c r="H86" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I86" s="675" t="s">
+      <c r="I86" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="675"/>
+      <c r="J86" s="677"/>
       <c r="K86" s="53">
         <v>703.01</v>
       </c>
@@ -54850,10 +54850,10 @@
         <f>SUM(K76:K86)</f>
         <v>1736.95</v>
       </c>
-      <c r="K87" s="676" t="s">
+      <c r="K87" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L87" s="676"/>
+      <c r="L87" s="730"/>
       <c r="M87" s="367">
         <v>0</v>
       </c>
@@ -55020,20 +55020,27 @@
     <sortCondition ref="P30"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
     <mergeCell ref="B45:K46"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -55046,27 +55053,20 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="L74:M75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="L30:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -56912,60 +56912,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="733" t="s">
+      <c r="A1" s="742" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="733"/>
-      <c r="C1" s="733"/>
-      <c r="D1" s="733"/>
-      <c r="E1" s="733"/>
-      <c r="F1" s="733"/>
-      <c r="G1" s="733"/>
-      <c r="H1" s="733"/>
-      <c r="I1" s="733"/>
-      <c r="J1" s="733"/>
-      <c r="K1" s="733"/>
-      <c r="L1" s="733"/>
-      <c r="M1" s="733"/>
+      <c r="B1" s="742"/>
+      <c r="C1" s="742"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="734"/>
-      <c r="B2" s="734"/>
-      <c r="C2" s="734"/>
-      <c r="D2" s="734"/>
-      <c r="E2" s="734"/>
-      <c r="F2" s="734"/>
-      <c r="G2" s="734"/>
-      <c r="H2" s="734"/>
-      <c r="I2" s="734"/>
-      <c r="J2" s="734"/>
-      <c r="K2" s="734"/>
-      <c r="L2" s="734"/>
-      <c r="M2" s="734"/>
+      <c r="A2" s="743"/>
+      <c r="B2" s="743"/>
+      <c r="C2" s="743"/>
+      <c r="D2" s="743"/>
+      <c r="E2" s="743"/>
+      <c r="F2" s="743"/>
+      <c r="G2" s="743"/>
+      <c r="H2" s="743"/>
+      <c r="I2" s="743"/>
+      <c r="J2" s="743"/>
+      <c r="K2" s="743"/>
+      <c r="L2" s="743"/>
+      <c r="M2" s="743"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="732" t="s">
+      <c r="A3" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="695"/>
-      <c r="C3" s="695"/>
-      <c r="D3" s="695"/>
-      <c r="E3" s="695"/>
-      <c r="F3" s="695"/>
-      <c r="G3" s="696"/>
-      <c r="H3" s="741" t="s">
+      <c r="B3" s="682"/>
+      <c r="C3" s="682"/>
+      <c r="D3" s="682"/>
+      <c r="E3" s="682"/>
+      <c r="F3" s="682"/>
+      <c r="G3" s="683"/>
+      <c r="H3" s="734" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="742"/>
-      <c r="J3" s="742"/>
-      <c r="K3" s="742"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="743"/>
+      <c r="I3" s="735"/>
+      <c r="J3" s="735"/>
+      <c r="K3" s="735"/>
+      <c r="L3" s="735"/>
+      <c r="M3" s="736"/>
       <c r="N3" s="555"/>
-      <c r="O3" s="722" t="s">
+      <c r="O3" s="694" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="722"/>
+      <c r="P3" s="694"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="330" t="s">
@@ -56989,8 +56989,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="739"/>
-      <c r="I4" s="740"/>
+      <c r="H4" s="732"/>
+      <c r="I4" s="733"/>
       <c r="J4" s="550" t="s">
         <v>35</v>
       </c>
@@ -57043,10 +57043,10 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="469"/>
-      <c r="H5" s="744" t="s">
+      <c r="H5" s="737" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="713"/>
+      <c r="I5" s="676"/>
       <c r="J5" s="601">
         <v>1633.61</v>
       </c>
@@ -57090,10 +57090,10 @@
         <v>оплачено</v>
       </c>
       <c r="G6" s="469"/>
-      <c r="H6" s="761" t="s">
+      <c r="H6" s="755" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="762"/>
+      <c r="I6" s="756"/>
       <c r="J6" s="531">
         <v>899.78</v>
       </c>
@@ -57437,8 +57437,8 @@
       <c r="M16" s="44"/>
       <c r="N16" s="301"/>
       <c r="O16" s="467"/>
-      <c r="P16" s="767"/>
-      <c r="Q16" s="767"/>
+      <c r="P16" s="765"/>
+      <c r="Q16" s="765"/>
       <c r="R16" s="373"/>
       <c r="S16" s="87"/>
       <c r="T16" s="87"/>
@@ -57556,10 +57556,10 @@
       <c r="T20" s="87"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="765" t="s">
+      <c r="A21" s="763" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="766"/>
+      <c r="B21" s="764"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
         <v>2084.6699999999996</v>
@@ -57593,20 +57593,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="697" t="s">
+      <c r="H22" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="699" t="s">
+      <c r="I22" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="699" t="s">
+      <c r="J22" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="699"/>
-      <c r="L22" s="701" t="s">
+      <c r="K22" s="725"/>
+      <c r="L22" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="703" t="s">
+      <c r="M22" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -57626,16 +57626,16 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="698"/>
-      <c r="I23" s="700"/>
+      <c r="H23" s="724"/>
+      <c r="I23" s="685"/>
       <c r="J23" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="702"/>
-      <c r="M23" s="704"/>
+      <c r="L23" s="686"/>
+      <c r="M23" s="687"/>
       <c r="N23" s="1"/>
       <c r="P23" s="373"/>
       <c r="Q23" s="373"/>
@@ -57969,18 +57969,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="681" t="s">
+      <c r="H33" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="683" t="s">
+      <c r="I33" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="684"/>
-      <c r="K33" s="685"/>
-      <c r="L33" s="689" t="s">
+      <c r="J33" s="713"/>
+      <c r="K33" s="714"/>
+      <c r="L33" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="690"/>
+      <c r="M33" s="719"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -57997,12 +57997,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="682"/>
-      <c r="I34" s="686"/>
-      <c r="J34" s="687"/>
-      <c r="K34" s="688"/>
-      <c r="L34" s="691"/>
-      <c r="M34" s="692"/>
+      <c r="H34" s="711"/>
+      <c r="I34" s="715"/>
+      <c r="J34" s="716"/>
+      <c r="K34" s="717"/>
+      <c r="L34" s="720"/>
+      <c r="M34" s="721"/>
       <c r="N34" s="1"/>
       <c r="P34" s="373"/>
       <c r="Q34" s="373"/>
@@ -58022,10 +58022,10 @@
       <c r="H35" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="756" t="s">
+      <c r="I35" s="757" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="756"/>
+      <c r="J35" s="757"/>
       <c r="K35" s="560">
         <v>328.13</v>
       </c>
@@ -58054,10 +58054,10 @@
       <c r="H36" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="757" t="s">
+      <c r="I36" s="758" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="757"/>
+      <c r="J36" s="758"/>
       <c r="K36" s="561">
         <v>71.83</v>
       </c>
@@ -58086,10 +58086,10 @@
       <c r="H37" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="757" t="s">
+      <c r="I37" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="757"/>
+      <c r="J37" s="758"/>
       <c r="K37" s="561">
         <v>5.63</v>
       </c>
@@ -58118,10 +58118,10 @@
       <c r="H38" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="757" t="s">
+      <c r="I38" s="758" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="757"/>
+      <c r="J38" s="758"/>
       <c r="K38" s="561">
         <v>257</v>
       </c>
@@ -58150,10 +58150,10 @@
       <c r="H39" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="758" t="s">
+      <c r="I39" s="759" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="758"/>
+      <c r="J39" s="759"/>
       <c r="K39" s="480">
         <v>846.17</v>
       </c>
@@ -58182,10 +58182,10 @@
       <c r="H40" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="759" t="s">
+      <c r="I40" s="760" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="760"/>
+      <c r="J40" s="761"/>
       <c r="K40" s="561">
         <v>333.58</v>
       </c>
@@ -58278,10 +58278,10 @@
       <c r="H43" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="759" t="s">
+      <c r="I43" s="760" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="760"/>
+      <c r="J43" s="761"/>
       <c r="K43" s="561">
         <v>1542</v>
       </c>
@@ -58313,10 +58313,10 @@
       <c r="H44" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="759" t="s">
+      <c r="I44" s="760" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="760"/>
+      <c r="J44" s="761"/>
       <c r="K44" s="561">
         <v>10</v>
       </c>
@@ -58347,10 +58347,10 @@
       <c r="H45" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I45" s="675" t="s">
+      <c r="I45" s="677" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="675"/>
+      <c r="J45" s="677"/>
       <c r="K45" s="561">
         <f>J7</f>
         <v>2533.39</v>
@@ -58385,10 +58385,10 @@
         <f>SUM(K35:K45)</f>
         <v>6446.32</v>
       </c>
-      <c r="K46" s="676" t="s">
+      <c r="K46" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="676"/>
+      <c r="L46" s="730"/>
       <c r="M46" s="542">
         <v>0</v>
       </c>
@@ -58408,10 +58408,10 @@
       <c r="E47" s="373"/>
       <c r="F47" s="373"/>
       <c r="G47" s="373"/>
-      <c r="H47" s="735"/>
-      <c r="I47" s="735"/>
-      <c r="J47" s="735"/>
-      <c r="K47" s="735"/>
+      <c r="H47" s="744"/>
+      <c r="I47" s="744"/>
+      <c r="J47" s="744"/>
+      <c r="K47" s="744"/>
       <c r="L47" s="373"/>
       <c r="M47" s="460"/>
       <c r="N47" s="1"/>
@@ -58423,21 +58423,21 @@
       <c r="U47" s="373"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="733" t="s">
+      <c r="A48" s="742" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="733"/>
-      <c r="C48" s="733"/>
-      <c r="D48" s="733"/>
-      <c r="E48" s="733"/>
-      <c r="F48" s="733"/>
-      <c r="G48" s="733"/>
-      <c r="H48" s="733"/>
-      <c r="I48" s="733"/>
-      <c r="J48" s="733"/>
-      <c r="K48" s="733"/>
-      <c r="L48" s="733"/>
-      <c r="M48" s="733"/>
+      <c r="B48" s="742"/>
+      <c r="C48" s="742"/>
+      <c r="D48" s="742"/>
+      <c r="E48" s="742"/>
+      <c r="F48" s="742"/>
+      <c r="G48" s="742"/>
+      <c r="H48" s="742"/>
+      <c r="I48" s="742"/>
+      <c r="J48" s="742"/>
+      <c r="K48" s="742"/>
+      <c r="L48" s="742"/>
+      <c r="M48" s="742"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="373"/>
@@ -58446,19 +58446,19 @@
       <c r="T48" s="373"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="734"/>
-      <c r="B49" s="734"/>
-      <c r="C49" s="734"/>
-      <c r="D49" s="734"/>
-      <c r="E49" s="734"/>
-      <c r="F49" s="734"/>
-      <c r="G49" s="734"/>
-      <c r="H49" s="734"/>
-      <c r="I49" s="734"/>
-      <c r="J49" s="734"/>
-      <c r="K49" s="734"/>
-      <c r="L49" s="734"/>
-      <c r="M49" s="734"/>
+      <c r="A49" s="743"/>
+      <c r="B49" s="743"/>
+      <c r="C49" s="743"/>
+      <c r="D49" s="743"/>
+      <c r="E49" s="743"/>
+      <c r="F49" s="743"/>
+      <c r="G49" s="743"/>
+      <c r="H49" s="743"/>
+      <c r="I49" s="743"/>
+      <c r="J49" s="743"/>
+      <c r="K49" s="743"/>
+      <c r="L49" s="743"/>
+      <c r="M49" s="743"/>
       <c r="N49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="373"/>
@@ -58467,23 +58467,23 @@
       <c r="T49" s="373"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="732" t="s">
+      <c r="A50" s="739" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="695"/>
-      <c r="C50" s="695"/>
-      <c r="D50" s="695"/>
-      <c r="E50" s="695"/>
-      <c r="F50" s="695"/>
-      <c r="G50" s="696"/>
-      <c r="H50" s="736" t="s">
+      <c r="B50" s="682"/>
+      <c r="C50" s="682"/>
+      <c r="D50" s="682"/>
+      <c r="E50" s="682"/>
+      <c r="F50" s="682"/>
+      <c r="G50" s="683"/>
+      <c r="H50" s="740" t="s">
         <v>279</v>
       </c>
-      <c r="I50" s="737"/>
-      <c r="J50" s="737"/>
-      <c r="K50" s="737"/>
-      <c r="L50" s="737"/>
-      <c r="M50" s="738"/>
+      <c r="I50" s="738"/>
+      <c r="J50" s="738"/>
+      <c r="K50" s="738"/>
+      <c r="L50" s="738"/>
+      <c r="M50" s="741"/>
       <c r="N50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="459"/>
@@ -59012,10 +59012,10 @@
       <c r="P67" s="373"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="765" t="s">
+      <c r="A68" s="763" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="766"/>
+      <c r="B68" s="764"/>
       <c r="C68" s="365">
         <f>SUM(C53:C67)</f>
         <v>1757.9200000000003</v>
@@ -59045,20 +59045,20 @@
       <c r="E69" s="361"/>
       <c r="F69" s="359"/>
       <c r="G69" s="392"/>
-      <c r="H69" s="697" t="s">
+      <c r="H69" s="723" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="699" t="s">
+      <c r="I69" s="725" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="699" t="s">
+      <c r="J69" s="725" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="699"/>
-      <c r="L69" s="701" t="s">
+      <c r="K69" s="725"/>
+      <c r="L69" s="726" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="703" t="s">
+      <c r="M69" s="727" t="s">
         <v>95</v>
       </c>
       <c r="N69" s="1"/>
@@ -59073,16 +59073,16 @@
       <c r="E70" s="222"/>
       <c r="F70" s="207"/>
       <c r="G70" s="207"/>
-      <c r="H70" s="698"/>
-      <c r="I70" s="700"/>
+      <c r="H70" s="724"/>
+      <c r="I70" s="685"/>
       <c r="J70" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="702"/>
-      <c r="M70" s="704"/>
+      <c r="L70" s="686"/>
+      <c r="M70" s="687"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
       <c r="P70" s="457"/>
@@ -59270,18 +59270,18 @@
       <c r="E77" s="85"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="681" t="s">
+      <c r="H77" s="710" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="683" t="s">
+      <c r="I77" s="712" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="684"/>
-      <c r="K77" s="685"/>
-      <c r="L77" s="689" t="s">
+      <c r="J77" s="713"/>
+      <c r="K77" s="714"/>
+      <c r="L77" s="718" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="690"/>
+      <c r="M77" s="719"/>
       <c r="N77" s="1"/>
       <c r="O77" s="373"/>
       <c r="P77" s="455"/>
@@ -59296,12 +59296,12 @@
       <c r="E78" s="290"/>
       <c r="F78" s="373"/>
       <c r="G78" s="394"/>
-      <c r="H78" s="682"/>
-      <c r="I78" s="686"/>
-      <c r="J78" s="687"/>
-      <c r="K78" s="688"/>
-      <c r="L78" s="691"/>
-      <c r="M78" s="692"/>
+      <c r="H78" s="711"/>
+      <c r="I78" s="715"/>
+      <c r="J78" s="716"/>
+      <c r="K78" s="717"/>
+      <c r="L78" s="720"/>
+      <c r="M78" s="721"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
@@ -59324,10 +59324,10 @@
       <c r="H79" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I79" s="693" t="s">
+      <c r="I79" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="693"/>
+      <c r="J79" s="722"/>
       <c r="K79" s="603">
         <v>131.25</v>
       </c>
@@ -59357,10 +59357,10 @@
       <c r="H80" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I80" s="678" t="s">
+      <c r="I80" s="680" t="s">
         <v>51</v>
       </c>
-      <c r="J80" s="678"/>
+      <c r="J80" s="680"/>
       <c r="K80" s="604">
         <v>21.35</v>
       </c>
@@ -59390,10 +59390,10 @@
       <c r="H81" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I81" s="678" t="s">
+      <c r="I81" s="680" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="678"/>
+      <c r="J81" s="680"/>
       <c r="K81" s="604">
         <v>2.25</v>
       </c>
@@ -59421,10 +59421,10 @@
       <c r="H82" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I82" s="678" t="s">
+      <c r="I82" s="680" t="s">
         <v>49</v>
       </c>
-      <c r="J82" s="678"/>
+      <c r="J82" s="680"/>
       <c r="K82" s="604">
         <v>89</v>
       </c>
@@ -59451,10 +59451,10 @@
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="764" t="s">
+      <c r="I83" s="767" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="764"/>
+      <c r="J83" s="767"/>
       <c r="K83" s="480">
         <v>234.83</v>
       </c>
@@ -59484,10 +59484,10 @@
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="759" t="s">
+      <c r="I84" s="760" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="760"/>
+      <c r="J84" s="761"/>
       <c r="K84" s="604">
         <v>56.96</v>
       </c>
@@ -59517,10 +59517,10 @@
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="679" t="s">
+      <c r="I85" s="678" t="s">
         <v>174</v>
       </c>
-      <c r="J85" s="680"/>
+      <c r="J85" s="679"/>
       <c r="K85" s="604">
         <v>257.08999999999997</v>
       </c>
@@ -59581,10 +59581,10 @@
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="679" t="s">
+      <c r="I87" s="678" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="680"/>
+      <c r="J87" s="679"/>
       <c r="K87" s="604">
         <v>588.48</v>
       </c>
@@ -59614,10 +59614,10 @@
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="679" t="s">
+      <c r="I88" s="678" t="s">
         <v>53</v>
       </c>
-      <c r="J88" s="680"/>
+      <c r="J88" s="679"/>
       <c r="K88" s="477">
         <v>10</v>
       </c>
@@ -59647,10 +59647,10 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="763" t="s">
+      <c r="I89" s="766" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="763"/>
+      <c r="J89" s="766"/>
       <c r="K89" s="598">
         <v>529.24</v>
       </c>
@@ -59682,10 +59682,10 @@
         <f>SUM(K79:K89)</f>
         <v>1920.45</v>
       </c>
-      <c r="K90" s="676" t="s">
+      <c r="K90" s="730" t="s">
         <v>180</v>
       </c>
-      <c r="L90" s="676"/>
+      <c r="L90" s="730"/>
       <c r="M90" s="605">
         <v>0</v>
       </c>
@@ -59879,14 +59879,35 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:M49"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
@@ -59901,35 +59922,14 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -61819,10 +61819,10 @@
       <c r="A4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="726" t="s">
+      <c r="B4" s="693" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="726"/>
+      <c r="C4" s="693"/>
       <c r="D4" s="597" t="s">
         <v>271</v>
       </c>
@@ -61835,10 +61835,10 @@
       <c r="G4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="726" t="s">
+      <c r="H4" s="693" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="726"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="597" t="s">
         <v>273</v>
       </c>

--- a/LUCKY LADY.xlsx
+++ b/LUCKY LADY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" tabRatio="959" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" tabRatio="959" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ОБЩЕЕ" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'ЗП МАРТ'!$B$1:$G$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'ЗП ФЕВРАЛЬ'!$B$1:$G$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">МАРТ!$A$48:$M$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">МАРТ!$A$50:$M$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ОБЩАЯ СВЕРКА'!$A$1:$Q$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'сверка ДЕКАБРЬ'!$A$1:$M$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'сверка ЯНВАРЬ'!$A$45:$M$87</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="321">
   <si>
     <t>ира</t>
   </si>
@@ -1046,7 +1046,16 @@
     <t>Химмедсинтез</t>
   </si>
   <si>
-    <t>ВОЗВРАТ</t>
+    <t xml:space="preserve">ПЕРЧАТКИ </t>
+  </si>
+  <si>
+    <t>ЭЛТПАЗА</t>
+  </si>
+  <si>
+    <t>UDS</t>
+  </si>
+  <si>
+    <t>Страховые взносы</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2390,11 +2399,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="771">
+  <cellXfs count="786">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3546,12 +3588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3623,6 +3659,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3664,111 +3708,27 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3807,6 +3767,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3817,22 +3786,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3851,25 +3914,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3903,8 +3947,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3916,8 +3961,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3928,12 +3978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3943,6 +3987,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4898,6 +4977,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5368,6 +5448,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5415,7 +5496,7 @@
                   <c:v>2936.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1625.2</c:v>
+                  <c:v>3113.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6515,6 +6596,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7546,7 +7628,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C2F7-488E-B2F3-FC674E131526}"/>
                 </c:ext>
@@ -7568,7 +7652,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-C2F7-488E-B2F3-FC674E131526}"/>
                 </c:ext>
@@ -7610,6 +7696,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8700,7 +8787,7 @@
                   <c:v>28339,37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22742,85</c:v>
+                  <c:v>27825,35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8862,7 +8949,7 @@
                   <c:v>28339.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22742.850000000002</c:v>
+                  <c:v>27825.350000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9324,6 +9411,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9383,7 +9471,7 @@
                   <c:v>8639.7199999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9915.6</c:v>
+                  <c:v>12185.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,7 +9578,7 @@
         <c:axId val="1088270175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="15000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9786,7 +9874,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-53D1-46CB-BCC8-DB89C7908558}"/>
                 </c:ext>
@@ -9808,7 +9898,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-53D1-46CB-BCC8-DB89C7908558}"/>
                 </c:ext>
@@ -9850,6 +9942,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12323,6 +12416,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12883,6 +12977,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13353,6 +13448,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13400,7 +13496,7 @@
                   <c:v>2936.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1625.2</c:v>
+                  <c:v>3113.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13854,7 +13950,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-44C0-47D1-965E-34013BFAE24D}"/>
                 </c:ext>
@@ -13898,6 +13996,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14050,7 +14149,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-44C0-47D1-965E-34013BFAE24D}"/>
                 </c:ext>
@@ -14092,6 +14193,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14628,6 +14730,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -27580,7 +27683,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>930088</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27612,13 +27715,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22859</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1008530</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>178929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27650,13 +27753,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>186465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>896470</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>171225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27973,19 +28076,19 @@
       <c r="A1" s="108"/>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
-      <c r="D1" s="660" t="s">
+      <c r="D1" s="662" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="660"/>
+      <c r="E1" s="662"/>
       <c r="F1" s="109"/>
       <c r="G1" s="109"/>
       <c r="H1" s="108"/>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
-      <c r="K1" s="660" t="s">
+      <c r="K1" s="662" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="660"/>
+      <c r="L1" s="662"/>
       <c r="M1" s="109"/>
       <c r="N1" s="109"/>
       <c r="O1" s="110"/>
@@ -27993,11 +28096,11 @@
       <c r="Q1" s="109"/>
       <c r="R1" s="109"/>
       <c r="S1" s="109"/>
-      <c r="T1" s="660" t="s">
+      <c r="T1" s="662" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="660"/>
-      <c r="V1" s="660"/>
+      <c r="U1" s="662"/>
+      <c r="V1" s="662"/>
       <c r="W1" s="109"/>
       <c r="X1" s="109"/>
       <c r="Y1" s="109"/>
@@ -28008,37 +28111,37 @@
       <c r="AD1" s="109"/>
       <c r="AE1" s="109"/>
       <c r="AF1" s="109"/>
-      <c r="AG1" s="660" t="s">
+      <c r="AG1" s="662" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="660"/>
-      <c r="AI1" s="661"/>
+      <c r="AH1" s="662"/>
+      <c r="AI1" s="663"/>
       <c r="AJ1" s="108"/>
       <c r="AK1" s="109"/>
-      <c r="AL1" s="660" t="s">
+      <c r="AL1" s="662" t="s">
         <v>194</v>
       </c>
-      <c r="AM1" s="660"/>
-      <c r="AN1" s="661"/>
+      <c r="AM1" s="662"/>
+      <c r="AN1" s="663"/>
       <c r="AO1" s="109" t="s">
         <v>21</v>
       </c>
       <c r="AP1" s="110"/>
       <c r="AQ1" s="108"/>
-      <c r="AR1" s="660" t="s">
+      <c r="AR1" s="662" t="s">
         <v>162</v>
       </c>
-      <c r="AS1" s="660"/>
-      <c r="AT1" s="661"/>
+      <c r="AS1" s="662"/>
+      <c r="AT1" s="663"/>
       <c r="AU1" s="109"/>
       <c r="AV1" s="109"/>
       <c r="AW1" s="108"/>
       <c r="AX1" s="109"/>
-      <c r="AY1" s="660" t="s">
+      <c r="AY1" s="662" t="s">
         <v>283</v>
       </c>
-      <c r="AZ1" s="660"/>
-      <c r="BA1" s="661"/>
+      <c r="AZ1" s="662"/>
+      <c r="BA1" s="663"/>
       <c r="BB1" s="109"/>
       <c r="BC1" s="109"/>
       <c r="BD1" s="110"/>
@@ -28373,7 +28476,7 @@
       <c r="BA4" s="232"/>
       <c r="BB4" s="232"/>
       <c r="BC4" s="232"/>
-      <c r="BD4" s="629"/>
+      <c r="BD4" s="627"/>
     </row>
     <row r="5" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
@@ -28913,7 +29016,7 @@
       </c>
       <c r="AT9" s="22"/>
       <c r="AU9" s="232"/>
-      <c r="AV9" s="627" t="s">
+      <c r="AV9" s="625" t="s">
         <v>147</v>
       </c>
       <c r="AW9" s="115">
@@ -28930,7 +29033,7 @@
       <c r="BA9" s="232"/>
       <c r="BB9" s="232"/>
       <c r="BC9" s="86"/>
-      <c r="BD9" s="630"/>
+      <c r="BD9" s="628"/>
     </row>
     <row r="10" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111"/>
@@ -29026,7 +29129,7 @@
         <v>598.9</v>
       </c>
       <c r="AU10" s="232"/>
-      <c r="AV10" s="669" t="s">
+      <c r="AV10" s="671" t="s">
         <v>140</v>
       </c>
       <c r="AW10" s="115">
@@ -29120,7 +29223,7 @@
       <c r="AK11" s="17">
         <v>43717</v>
       </c>
-      <c r="AL11" s="671" t="s">
+      <c r="AL11" s="673" t="s">
         <v>135</v>
       </c>
       <c r="AM11" s="22">
@@ -29141,7 +29244,7 @@
         <v>468.8</v>
       </c>
       <c r="AU11" s="233"/>
-      <c r="AV11" s="669"/>
+      <c r="AV11" s="671"/>
       <c r="AW11" s="115">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -29156,7 +29259,7 @@
       <c r="BA11" s="232"/>
       <c r="BB11" s="232"/>
       <c r="BC11" s="448"/>
-      <c r="BD11" s="631"/>
+      <c r="BD11" s="629"/>
     </row>
     <row r="12" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="111"/>
@@ -29232,7 +29335,7 @@
       <c r="AK12" s="17">
         <v>43718</v>
       </c>
-      <c r="AL12" s="672"/>
+      <c r="AL12" s="674"/>
       <c r="AM12" s="23">
         <v>487.05</v>
       </c>
@@ -29242,7 +29345,7 @@
       <c r="AO12" s="406" t="s">
         <v>147</v>
       </c>
-      <c r="AP12" s="668" t="s">
+      <c r="AP12" s="670" t="s">
         <v>140</v>
       </c>
       <c r="AQ12" s="115">
@@ -29257,7 +29360,7 @@
       </c>
       <c r="AT12" s="22"/>
       <c r="AU12" s="232"/>
-      <c r="AV12" s="669"/>
+      <c r="AV12" s="671"/>
       <c r="AW12" s="115">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -29349,13 +29452,13 @@
       <c r="AK13" s="17">
         <v>43719</v>
       </c>
-      <c r="AL13" s="672"/>
+      <c r="AL13" s="674"/>
       <c r="AM13" s="22"/>
       <c r="AN13" s="232">
         <v>659.8</v>
       </c>
       <c r="AO13" s="117"/>
-      <c r="AP13" s="668"/>
+      <c r="AP13" s="670"/>
       <c r="AQ13" s="115">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -29387,7 +29490,7 @@
       <c r="BA13" s="232"/>
       <c r="BB13" s="232"/>
       <c r="BC13" s="232"/>
-      <c r="BD13" s="632"/>
+      <c r="BD13" s="630"/>
     </row>
     <row r="14" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
@@ -29463,7 +29566,7 @@
       <c r="AK14" s="17">
         <v>43720</v>
       </c>
-      <c r="AL14" s="672"/>
+      <c r="AL14" s="674"/>
       <c r="AM14" s="22">
         <v>1118.5999999999999</v>
       </c>
@@ -29497,7 +29600,7 @@
       <c r="BA14" s="232"/>
       <c r="BB14" s="232"/>
       <c r="BC14" s="232"/>
-      <c r="BD14" s="632"/>
+      <c r="BD14" s="630"/>
     </row>
     <row r="15" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
@@ -29573,7 +29676,7 @@
       <c r="AK15" s="17">
         <v>43721</v>
       </c>
-      <c r="AL15" s="672"/>
+      <c r="AL15" s="674"/>
       <c r="AM15" s="22">
         <v>1249.4000000000001</v>
       </c>
@@ -29607,7 +29710,7 @@
       </c>
       <c r="BB15" s="232"/>
       <c r="BC15" s="232"/>
-      <c r="BD15" s="632"/>
+      <c r="BD15" s="630"/>
     </row>
     <row r="16" spans="1:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
@@ -29683,7 +29786,7 @@
       <c r="AK16" s="17">
         <v>43722</v>
       </c>
-      <c r="AL16" s="672"/>
+      <c r="AL16" s="674"/>
       <c r="AM16" s="22"/>
       <c r="AN16" s="232">
         <v>1926.62</v>
@@ -29795,7 +29898,7 @@
       <c r="AK17" s="17">
         <v>43723</v>
       </c>
-      <c r="AL17" s="672"/>
+      <c r="AL17" s="674"/>
       <c r="AM17" s="22">
         <v>1746.15</v>
       </c>
@@ -29910,7 +30013,7 @@
       <c r="AK18" s="17">
         <v>43724</v>
       </c>
-      <c r="AL18" s="672"/>
+      <c r="AL18" s="674"/>
       <c r="AM18" s="22">
         <v>1271.2</v>
       </c>
@@ -30024,7 +30127,7 @@
       <c r="AK19" s="17">
         <v>43725</v>
       </c>
-      <c r="AL19" s="672"/>
+      <c r="AL19" s="674"/>
       <c r="AM19" s="22">
         <v>1298.31</v>
       </c>
@@ -30046,7 +30149,7 @@
         <v>1366.5</v>
       </c>
       <c r="AU19" s="232"/>
-      <c r="AV19" s="670" t="s">
+      <c r="AV19" s="672" t="s">
         <v>145</v>
       </c>
       <c r="AW19" s="115">
@@ -30139,7 +30242,7 @@
       <c r="AK20" s="17">
         <v>43726</v>
       </c>
-      <c r="AL20" s="672"/>
+      <c r="AL20" s="674"/>
       <c r="AM20" s="22"/>
       <c r="AN20" s="22">
         <v>1026.1400000000001</v>
@@ -30158,7 +30261,7 @@
       <c r="AU20" s="22">
         <v>1412.13</v>
       </c>
-      <c r="AV20" s="670"/>
+      <c r="AV20" s="672"/>
       <c r="AW20" s="115">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -30250,7 +30353,7 @@
       <c r="AK21" s="17">
         <v>43727</v>
       </c>
-      <c r="AL21" s="672"/>
+      <c r="AL21" s="674"/>
       <c r="AM21" s="22"/>
       <c r="AN21" s="232">
         <v>543.4</v>
@@ -30269,7 +30372,7 @@
         <v>983.85</v>
       </c>
       <c r="AU21" s="232"/>
-      <c r="AV21" s="670"/>
+      <c r="AV21" s="672"/>
       <c r="AW21" s="115">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -30362,7 +30465,7 @@
       <c r="AK22" s="17">
         <v>43728</v>
       </c>
-      <c r="AL22" s="672"/>
+      <c r="AL22" s="674"/>
       <c r="AM22" s="22">
         <v>1251.95</v>
       </c>
@@ -30382,7 +30485,7 @@
       </c>
       <c r="AT22" s="22"/>
       <c r="AU22" s="232"/>
-      <c r="AV22" s="670"/>
+      <c r="AV22" s="672"/>
       <c r="AW22" s="115">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -30473,7 +30576,7 @@
       <c r="AK23" s="17">
         <v>43729</v>
       </c>
-      <c r="AL23" s="672"/>
+      <c r="AL23" s="674"/>
       <c r="AM23" s="22">
         <v>1206.8</v>
       </c>
@@ -30492,7 +30595,7 @@
       </c>
       <c r="AT23" s="22"/>
       <c r="AU23" s="232"/>
-      <c r="AV23" s="670"/>
+      <c r="AV23" s="672"/>
       <c r="AW23" s="115">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -30586,7 +30689,7 @@
       <c r="AK24" s="17">
         <v>43730</v>
       </c>
-      <c r="AL24" s="672"/>
+      <c r="AL24" s="674"/>
       <c r="AM24" s="234">
         <v>1555.3</v>
       </c>
@@ -30605,7 +30708,7 @@
         <v>1620.9</v>
       </c>
       <c r="AU24" s="235"/>
-      <c r="AV24" s="670"/>
+      <c r="AV24" s="672"/>
       <c r="AW24" s="118">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -30717,7 +30820,7 @@
         <v>1090</v>
       </c>
       <c r="AU25" s="232"/>
-      <c r="AV25" s="670"/>
+      <c r="AV25" s="672"/>
       <c r="AW25" s="115">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -31161,7 +31264,7 @@
       <c r="AO29" s="409" t="s">
         <v>142</v>
       </c>
-      <c r="AP29" s="667" t="s">
+      <c r="AP29" s="669" t="s">
         <v>145</v>
       </c>
       <c r="AQ29" s="115">
@@ -31278,7 +31381,7 @@
       <c r="AM30" s="276"/>
       <c r="AN30" s="232"/>
       <c r="AO30" s="117"/>
-      <c r="AP30" s="667"/>
+      <c r="AP30" s="669"/>
       <c r="AQ30" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -31390,7 +31493,7 @@
       </c>
       <c r="AN31" s="232"/>
       <c r="AO31" s="117"/>
-      <c r="AP31" s="667"/>
+      <c r="AP31" s="669"/>
       <c r="AQ31" s="115">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -31501,7 +31604,7 @@
       </c>
       <c r="AN32" s="235"/>
       <c r="AO32" s="117"/>
-      <c r="AP32" s="667"/>
+      <c r="AP32" s="669"/>
       <c r="AQ32" s="115">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -31619,7 +31722,7 @@
       <c r="AM33" s="255"/>
       <c r="AN33" s="256"/>
       <c r="AO33" s="1"/>
-      <c r="AP33" s="667"/>
+      <c r="AP33" s="669"/>
       <c r="AQ33" s="115">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -31633,7 +31736,7 @@
       </c>
       <c r="AU33" s="232"/>
       <c r="AV33" s="1"/>
-      <c r="AW33" s="633"/>
+      <c r="AW33" s="631"/>
       <c r="AX33" s="310"/>
       <c r="AY33" s="242"/>
       <c r="AZ33" s="242"/>
@@ -31719,7 +31822,7 @@
         <v>5</v>
       </c>
       <c r="AO34" s="1"/>
-      <c r="AP34" s="667"/>
+      <c r="AP34" s="669"/>
       <c r="AQ34" s="119"/>
       <c r="AR34" s="254" t="s">
         <v>3</v>
@@ -32050,7 +32153,7 @@
         <f>SUM(AU3:AU33)</f>
         <v>3372.99</v>
       </c>
-      <c r="AV36" s="628">
+      <c r="AV36" s="626">
         <f>SUM(AS3:AU33)</f>
         <v>31239.439999999995</v>
       </c>
@@ -32933,10 +33036,10 @@
     </row>
     <row r="43" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="111"/>
-      <c r="B43" s="663" t="s">
+      <c r="B43" s="665" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="664"/>
+      <c r="C43" s="666"/>
       <c r="D43" s="6">
         <f>D41+D40+D39+D42</f>
         <v>848.85509999999999</v>
@@ -33077,10 +33180,10 @@
       </c>
       <c r="O44" s="141"/>
       <c r="P44" s="124"/>
-      <c r="Q44" s="665" t="s">
+      <c r="Q44" s="667" t="s">
         <v>79</v>
       </c>
-      <c r="R44" s="666"/>
+      <c r="R44" s="668"/>
       <c r="S44" s="78">
         <v>140</v>
       </c>
@@ -33448,7 +33551,7 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="111"/>
       <c r="AX47" s="204"/>
-      <c r="AY47" s="634"/>
+      <c r="AY47" s="632"/>
       <c r="AZ47" s="238"/>
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
@@ -33518,20 +33621,20 @@
       <c r="BD48" s="112"/>
     </row>
     <row r="49" spans="3:56" x14ac:dyDescent="0.25">
-      <c r="C49" s="662" t="s">
+      <c r="C49" s="664" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="662"/>
+      <c r="D49" s="664"/>
       <c r="E49" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="464" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="638"/>
-      <c r="H49" s="638"/>
-      <c r="I49" s="638"/>
-      <c r="J49" s="639"/>
+      <c r="G49" s="636"/>
+      <c r="H49" s="636"/>
+      <c r="I49" s="636"/>
+      <c r="J49" s="637"/>
       <c r="K49" s="373" t="s">
         <v>198</v>
       </c>
@@ -33756,7 +33859,7 @@
       <c r="N52" s="580" t="s">
         <v>209</v>
       </c>
-      <c r="O52" s="646">
+      <c r="O52" s="644">
         <v>2936.18</v>
       </c>
       <c r="P52" s="1"/>
@@ -33833,7 +33936,7 @@
       </c>
       <c r="O53" s="583">
         <f>'ЗП МАРТ'!K35</f>
-        <v>1625.2</v>
+        <v>3113.05</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -34037,15 +34140,15 @@
       <c r="I56" s="572">
         <v>1458.67</v>
       </c>
-      <c r="J56" s="637">
+      <c r="J56" s="635">
         <v>199.36</v>
       </c>
-      <c r="K56" s="645" t="s">
+      <c r="K56" s="643" t="s">
         <v>210</v>
       </c>
       <c r="L56" s="466">
         <f>'ЗП МАРТ'!J35</f>
-        <v>9915.6</v>
+        <v>12185.56</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="35"/>
@@ -34120,7 +34223,7 @@
         <v>529.24</v>
       </c>
       <c r="N58" s="128"/>
-      <c r="O58" s="647"/>
+      <c r="O58" s="645"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -34167,17 +34270,17 @@
       <c r="C60" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D60" s="644">
+      <c r="D60" s="642">
         <v>28339.37</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="640" t="s">
+      <c r="F60" s="638" t="s">
         <v>210</v>
       </c>
-      <c r="G60" s="641"/>
-      <c r="H60" s="642"/>
-      <c r="I60" s="641"/>
-      <c r="J60" s="643"/>
+      <c r="G60" s="639"/>
+      <c r="H60" s="640"/>
+      <c r="I60" s="639"/>
+      <c r="J60" s="641"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -34194,7 +34297,7 @@
       </c>
       <c r="D61" s="567">
         <f>'ЗП МАРТ'!I35</f>
-        <v>22742.850000000002</v>
+        <v>27825.350000000002</v>
       </c>
       <c r="E61" s="2"/>
       <c r="N61" s="1"/>
@@ -34579,10 +34682,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG120"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34619,74 +34722,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="735" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="742"/>
-      <c r="C1" s="742"/>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="B1" s="735"/>
+      <c r="C1" s="735"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="743"/>
-      <c r="B2" s="743"/>
-      <c r="C2" s="743"/>
-      <c r="D2" s="743"/>
-      <c r="E2" s="743"/>
-      <c r="F2" s="743"/>
-      <c r="G2" s="743"/>
-      <c r="H2" s="743"/>
-      <c r="I2" s="743"/>
-      <c r="J2" s="743"/>
-      <c r="K2" s="743"/>
-      <c r="L2" s="743"/>
-      <c r="M2" s="743"/>
+      <c r="A2" s="736"/>
+      <c r="B2" s="736"/>
+      <c r="C2" s="736"/>
+      <c r="D2" s="736"/>
+      <c r="E2" s="736"/>
+      <c r="F2" s="736"/>
+      <c r="G2" s="736"/>
+      <c r="H2" s="736"/>
+      <c r="I2" s="736"/>
+      <c r="J2" s="736"/>
+      <c r="K2" s="736"/>
+      <c r="L2" s="736"/>
+      <c r="M2" s="736"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="739" t="s">
+      <c r="A3" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="682"/>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="683"/>
-      <c r="H3" s="734" t="s">
+      <c r="B3" s="697"/>
+      <c r="C3" s="697"/>
+      <c r="D3" s="697"/>
+      <c r="E3" s="697"/>
+      <c r="F3" s="697"/>
+      <c r="G3" s="698"/>
+      <c r="H3" s="743" t="s">
         <v>286</v>
       </c>
-      <c r="I3" s="735"/>
-      <c r="J3" s="735"/>
-      <c r="K3" s="735"/>
-      <c r="L3" s="735"/>
-      <c r="M3" s="736"/>
+      <c r="I3" s="744"/>
+      <c r="J3" s="744"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="744"/>
+      <c r="M3" s="745"/>
       <c r="N3" s="612"/>
-      <c r="O3" s="694" t="s">
+      <c r="O3" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="694"/>
-      <c r="U3" s="768" t="s">
+      <c r="P3" s="724"/>
+      <c r="U3" s="770" t="s">
         <v>168</v>
       </c>
-      <c r="V3" s="768"/>
+      <c r="V3" s="770"/>
       <c r="Y3" s="240" t="s">
         <v>303</v>
       </c>
-      <c r="Z3" s="655" t="s">
+      <c r="Z3" s="653" t="s">
         <v>307</v>
       </c>
       <c r="AD3" s="240" t="s">
         <v>303</v>
       </c>
-      <c r="AE3" s="655" t="s">
+      <c r="AE3" s="653" t="s">
         <v>308</v>
       </c>
     </row>
@@ -34712,8 +34815,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="732"/>
-      <c r="I4" s="733"/>
+      <c r="H4" s="741"/>
+      <c r="I4" s="742"/>
       <c r="J4" s="606" t="s">
         <v>35</v>
       </c>
@@ -34743,38 +34846,38 @@
         <v>100</v>
       </c>
       <c r="T4" s="373"/>
-      <c r="U4" s="653" t="s">
+      <c r="U4" s="651" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="653" t="s">
+      <c r="V4" s="651" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="653" t="s">
+      <c r="W4" s="651" t="s">
         <v>302</v>
       </c>
       <c r="X4" s="373"/>
-      <c r="Y4" s="653" t="s">
+      <c r="Y4" s="651" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="653" t="s">
+      <c r="Z4" s="651" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="653" t="s">
+      <c r="AA4" s="651" t="s">
         <v>302</v>
       </c>
-      <c r="AB4" s="653" t="s">
+      <c r="AB4" s="651" t="s">
         <v>301</v>
       </c>
-      <c r="AD4" s="653" t="s">
+      <c r="AD4" s="651" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="653" t="s">
+      <c r="AE4" s="651" t="s">
         <v>34</v>
       </c>
-      <c r="AF4" s="653" t="s">
+      <c r="AF4" s="651" t="s">
         <v>302</v>
       </c>
-      <c r="AG4" s="653" t="s">
+      <c r="AG4" s="651" t="s">
         <v>301</v>
       </c>
     </row>
@@ -34800,14 +34903,14 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="165"/>
-      <c r="H5" s="737" t="s">
+      <c r="H5" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="676"/>
+      <c r="I5" s="715"/>
       <c r="J5" s="601">
         <v>1564.38</v>
       </c>
-      <c r="K5" s="657">
+      <c r="K5" s="655">
         <v>1564.38</v>
       </c>
       <c r="L5" s="163">
@@ -34833,7 +34936,7 @@
       <c r="U5" s="154">
         <v>43895</v>
       </c>
-      <c r="V5" s="653" t="s">
+      <c r="V5" s="651" t="s">
         <v>294</v>
       </c>
       <c r="W5" s="164">
@@ -34844,26 +34947,26 @@
       <c r="Y5" s="154">
         <v>43895</v>
       </c>
-      <c r="Z5" s="653" t="s">
+      <c r="Z5" s="651" t="s">
         <v>294</v>
       </c>
       <c r="AA5" s="164">
         <v>60</v>
       </c>
-      <c r="AB5" s="652">
+      <c r="AB5" s="650">
         <v>116</v>
       </c>
       <c r="AD5" s="154">
         <v>43895</v>
       </c>
-      <c r="AE5" s="653" t="s">
+      <c r="AE5" s="651" t="s">
         <v>295</v>
       </c>
       <c r="AF5" s="164">
         <f>AG5/2</f>
         <v>160</v>
       </c>
-      <c r="AG5" s="652">
+      <c r="AG5" s="650">
         <v>320</v>
       </c>
     </row>
@@ -34891,10 +34994,10 @@
       <c r="G6" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="755" t="s">
+      <c r="H6" s="763" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="756"/>
+      <c r="I6" s="764"/>
       <c r="J6" s="531">
         <v>815.26</v>
       </c>
@@ -34924,34 +35027,34 @@
       <c r="U6" s="154">
         <v>43895</v>
       </c>
-      <c r="V6" s="653" t="s">
+      <c r="V6" s="651" t="s">
         <v>295</v>
       </c>
-      <c r="W6" s="653">
+      <c r="W6" s="651">
         <v>850</v>
       </c>
       <c r="Y6" s="154">
         <v>43895</v>
       </c>
-      <c r="Z6" s="653" t="s">
+      <c r="Z6" s="651" t="s">
         <v>295</v>
       </c>
-      <c r="AA6" s="653">
+      <c r="AA6" s="651">
         <v>850</v>
       </c>
-      <c r="AB6" s="653">
+      <c r="AB6" s="651">
         <v>1576</v>
       </c>
       <c r="AD6" s="154">
         <v>43898</v>
       </c>
-      <c r="AE6" s="653" t="s">
+      <c r="AE6" s="651" t="s">
         <v>304</v>
       </c>
-      <c r="AF6" s="653">
+      <c r="AF6" s="651">
         <v>692</v>
       </c>
-      <c r="AG6" s="653">
+      <c r="AG6" s="651">
         <v>1998</v>
       </c>
     </row>
@@ -34999,33 +35102,33 @@
       <c r="U7" s="154">
         <v>43898</v>
       </c>
-      <c r="V7" s="653" t="s">
+      <c r="V7" s="651" t="s">
         <v>296</v>
       </c>
-      <c r="W7" s="653">
+      <c r="W7" s="651">
         <v>1200</v>
       </c>
       <c r="Y7" s="154">
         <v>43898</v>
       </c>
-      <c r="Z7" s="653" t="s">
+      <c r="Z7" s="651" t="s">
         <v>296</v>
       </c>
-      <c r="AA7" s="653">
+      <c r="AA7" s="651">
         <v>325</v>
       </c>
-      <c r="AB7" s="653">
+      <c r="AB7" s="651">
         <v>580.5</v>
       </c>
       <c r="AD7" s="154"/>
-      <c r="AE7" s="653" t="s">
+      <c r="AE7" s="651" t="s">
         <v>298</v>
       </c>
-      <c r="AF7" s="769">
+      <c r="AF7" s="771">
         <f>AG7/2</f>
         <v>289.5</v>
       </c>
-      <c r="AG7" s="769">
+      <c r="AG7" s="771">
         <v>579</v>
       </c>
     </row>
@@ -35070,31 +35173,31 @@
       <c r="U8" s="154">
         <v>43898</v>
       </c>
-      <c r="V8" s="653" t="s">
+      <c r="V8" s="651" t="s">
         <v>298</v>
       </c>
-      <c r="W8" s="653">
+      <c r="W8" s="651">
         <v>1200</v>
       </c>
       <c r="Y8" s="154">
         <v>43898</v>
       </c>
-      <c r="Z8" s="653" t="s">
+      <c r="Z8" s="651" t="s">
         <v>297</v>
       </c>
-      <c r="AA8" s="653">
+      <c r="AA8" s="651">
         <f>AB8/2</f>
         <v>48.5</v>
       </c>
-      <c r="AB8" s="653">
+      <c r="AB8" s="651">
         <v>97</v>
       </c>
       <c r="AD8" s="154"/>
-      <c r="AE8" s="653" t="s">
+      <c r="AE8" s="651" t="s">
         <v>305</v>
       </c>
-      <c r="AF8" s="770"/>
-      <c r="AG8" s="770"/>
+      <c r="AF8" s="772"/>
+      <c r="AG8" s="772"/>
     </row>
     <row r="9" spans="1:33" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="331">
@@ -35117,9 +35220,7 @@
         <f t="shared" si="4"/>
         <v>оплачено</v>
       </c>
-      <c r="G9" s="165" t="s">
-        <v>317</v>
-      </c>
+      <c r="G9" s="165"/>
       <c r="H9" s="347"/>
       <c r="I9" s="373"/>
       <c r="J9" s="373"/>
@@ -35139,7 +35240,7 @@
       <c r="U9" s="154">
         <v>43901</v>
       </c>
-      <c r="V9" s="653" t="s">
+      <c r="V9" s="651" t="s">
         <v>299</v>
       </c>
       <c r="W9" s="59">
@@ -35148,44 +35249,51 @@
       <c r="Y9" s="154">
         <v>43898</v>
       </c>
-      <c r="Z9" s="653" t="s">
+      <c r="Z9" s="651" t="s">
         <v>298</v>
       </c>
-      <c r="AA9" s="653">
+      <c r="AA9" s="651">
         <f>AB9/2</f>
         <v>102</v>
       </c>
-      <c r="AB9" s="653">
+      <c r="AB9" s="651">
         <v>204</v>
       </c>
       <c r="AD9" s="154"/>
-      <c r="AE9" s="653" t="s">
+      <c r="AE9" s="651" t="s">
         <v>306</v>
       </c>
-      <c r="AF9" s="653">
+      <c r="AF9" s="651">
         <f>AG9/2</f>
         <v>59</v>
       </c>
-      <c r="AG9" s="653">
+      <c r="AG9" s="651">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="331"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
+      <c r="A10" s="331">
+        <v>43920</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="281">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D10" s="281">
+        <v>66.099999999999994</v>
+      </c>
       <c r="E10" s="163" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" s="165" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G10" s="165" t="str">
-        <f t="shared" ref="G10:G20" si="5">IF(C10=0,"",IF(C10-D10=0,"","нет накладной"))</f>
-        <v/>
+        <v>оплачено</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>131</v>
       </c>
       <c r="H10" s="347"/>
       <c r="I10" s="373"/>
@@ -35195,19 +35303,19 @@
       <c r="M10" s="320"/>
       <c r="N10" s="617"/>
       <c r="O10" s="274"/>
-      <c r="P10" s="659" t="s">
+      <c r="P10" s="657" t="s">
         <v>133</v>
       </c>
-      <c r="Q10" s="659">
+      <c r="Q10" s="657">
         <f>810+561</f>
         <v>1371</v>
       </c>
-      <c r="R10" s="659"/>
-      <c r="S10" s="659"/>
+      <c r="R10" s="657"/>
+      <c r="S10" s="657"/>
       <c r="U10" s="154">
         <v>43901</v>
       </c>
-      <c r="V10" s="653" t="s">
+      <c r="V10" s="651" t="s">
         <v>300</v>
       </c>
       <c r="W10" s="59">
@@ -35216,41 +35324,46 @@
       <c r="Y10" s="154">
         <v>43901</v>
       </c>
-      <c r="Z10" s="653" t="s">
+      <c r="Z10" s="651" t="s">
         <v>299</v>
       </c>
-      <c r="AA10" s="653">
+      <c r="AA10" s="651">
         <v>956.8</v>
       </c>
-      <c r="AB10" s="653">
+      <c r="AB10" s="651">
         <v>1475</v>
       </c>
       <c r="AD10" s="154"/>
-      <c r="AE10" s="653" t="s">
+      <c r="AE10" s="651" t="s">
         <v>315</v>
       </c>
-      <c r="AF10" s="653">
+      <c r="AF10" s="651">
         <v>718</v>
       </c>
-      <c r="AG10" s="653"/>
+      <c r="AG10" s="651"/>
     </row>
     <row r="11" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="331"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
+      <c r="A11" s="331">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="164" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="281">
+        <v>261.36</v>
+      </c>
+      <c r="D11" s="281">
+        <v>261.36</v>
+      </c>
       <c r="E11" s="163" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F11" s="165" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G11" s="165" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+        <v>оплачено</v>
+      </c>
+      <c r="G11" s="165"/>
       <c r="H11" s="43"/>
       <c r="I11" s="1"/>
       <c r="J11" s="373"/>
@@ -35259,17 +35372,17 @@
       <c r="M11" s="44"/>
       <c r="N11" s="617"/>
       <c r="O11" s="274"/>
-      <c r="P11" s="659" t="s">
+      <c r="P11" s="657" t="s">
         <v>123</v>
       </c>
-      <c r="Q11" s="659">
+      <c r="Q11" s="657">
         <v>750</v>
       </c>
-      <c r="R11" s="659"/>
-      <c r="S11" s="659"/>
+      <c r="R11" s="657"/>
+      <c r="S11" s="657"/>
       <c r="T11" s="373"/>
       <c r="U11" s="373"/>
-      <c r="V11" s="654" t="s">
+      <c r="V11" s="652" t="s">
         <v>315</v>
       </c>
       <c r="W11" s="93">
@@ -35279,20 +35392,20 @@
       <c r="Y11" s="154">
         <v>43901</v>
       </c>
-      <c r="Z11" s="653" t="s">
+      <c r="Z11" s="651" t="s">
         <v>300</v>
       </c>
-      <c r="AA11" s="652">
+      <c r="AA11" s="650">
         <f>AB11/2</f>
         <v>769</v>
       </c>
-      <c r="AB11" s="653">
+      <c r="AB11" s="651">
         <v>1538</v>
       </c>
       <c r="AD11" s="154"/>
-      <c r="AE11" s="653"/>
-      <c r="AF11" s="652"/>
-      <c r="AG11" s="653"/>
+      <c r="AE11" s="651"/>
+      <c r="AF11" s="650"/>
+      <c r="AG11" s="651"/>
     </row>
     <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="331"/>
@@ -35308,7 +35421,7 @@
         <v/>
       </c>
       <c r="G12" s="165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G10:G20" si="5">IF(C12=0,"",IF(C12-D12=0,"","нет накладной"))</f>
         <v/>
       </c>
       <c r="H12" s="43"/>
@@ -35319,13 +35432,17 @@
       <c r="M12" s="44"/>
       <c r="N12" s="617"/>
       <c r="O12" s="467"/>
-      <c r="P12" s="468"/>
-      <c r="Q12" s="373"/>
+      <c r="P12" s="659" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="652">
+        <v>472.5</v>
+      </c>
       <c r="R12" s="373"/>
       <c r="S12" s="373"/>
       <c r="T12" s="373"/>
       <c r="U12" s="373"/>
-      <c r="V12" s="654" t="s">
+      <c r="V12" s="652" t="s">
         <v>132</v>
       </c>
       <c r="W12" s="93">
@@ -35335,19 +35452,19 @@
       <c r="Y12" s="154">
         <v>43902</v>
       </c>
-      <c r="Z12" s="653" t="s">
+      <c r="Z12" s="651" t="s">
         <v>297</v>
       </c>
-      <c r="AA12" s="652">
+      <c r="AA12" s="650">
         <v>250</v>
       </c>
-      <c r="AB12" s="653">
+      <c r="AB12" s="651">
         <v>505.5</v>
       </c>
       <c r="AD12" s="154"/>
-      <c r="AE12" s="653"/>
-      <c r="AF12" s="652"/>
-      <c r="AG12" s="653"/>
+      <c r="AE12" s="651"/>
+      <c r="AF12" s="650"/>
+      <c r="AG12" s="651"/>
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="331"/>
@@ -35374,8 +35491,12 @@
       <c r="M13" s="44"/>
       <c r="N13" s="617"/>
       <c r="O13" s="128"/>
-      <c r="P13" s="468"/>
-      <c r="Q13" s="373"/>
+      <c r="P13" s="652" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="373">
+        <v>1219</v>
+      </c>
       <c r="R13" s="373"/>
       <c r="S13" s="373"/>
       <c r="T13" s="373"/>
@@ -35386,13 +35507,13 @@
         <v>10001.5</v>
       </c>
       <c r="X13" s="373"/>
-      <c r="Z13" s="654" t="s">
+      <c r="Z13" s="652" t="s">
         <v>314</v>
       </c>
       <c r="AA13" s="1">
         <v>435</v>
       </c>
-      <c r="AE13" s="654" t="s">
+      <c r="AE13" s="652" t="s">
         <v>309</v>
       </c>
       <c r="AF13" s="35">
@@ -35425,8 +35546,12 @@
       <c r="M14" s="44"/>
       <c r="N14" s="617"/>
       <c r="O14" s="373"/>
-      <c r="P14" s="373"/>
-      <c r="Q14" s="373"/>
+      <c r="P14" s="652" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q14" s="373">
+        <v>1700</v>
+      </c>
       <c r="R14" s="373"/>
       <c r="S14" s="373"/>
       <c r="T14" s="373"/>
@@ -35434,7 +35559,7 @@
       <c r="V14" s="87"/>
       <c r="W14" s="373"/>
       <c r="X14" s="373"/>
-      <c r="Z14" s="654" t="s">
+      <c r="Z14" s="652" t="s">
         <v>132</v>
       </c>
       <c r="AA14" s="373">
@@ -35466,8 +35591,12 @@
       <c r="M15" s="44"/>
       <c r="N15" s="617"/>
       <c r="O15" s="373"/>
-      <c r="P15" s="468"/>
-      <c r="Q15" s="373"/>
+      <c r="P15" s="659" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q15" s="164">
+        <v>60</v>
+      </c>
       <c r="R15" s="373"/>
       <c r="S15" s="373"/>
       <c r="T15" s="373"/>
@@ -35475,7 +35604,7 @@
       <c r="V15" s="87"/>
       <c r="W15" s="373"/>
       <c r="X15" s="373"/>
-      <c r="Z15" s="654" t="s">
+      <c r="Z15" s="652" t="s">
         <v>315</v>
       </c>
       <c r="AA15" s="373">
@@ -35511,8 +35640,12 @@
       <c r="M16" s="44"/>
       <c r="N16" s="301"/>
       <c r="O16" s="373"/>
-      <c r="P16" s="647"/>
-      <c r="Q16" s="647"/>
+      <c r="P16" s="659" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q16" s="659">
+        <v>850</v>
+      </c>
       <c r="R16" s="373"/>
       <c r="S16" s="87"/>
       <c r="T16" s="87"/>
@@ -35520,7 +35653,7 @@
       <c r="V16" s="87"/>
       <c r="W16" s="87"/>
       <c r="X16" s="87"/>
-      <c r="Z16" s="654" t="s">
+      <c r="Z16" s="652" t="s">
         <v>309</v>
       </c>
       <c r="AA16" s="35">
@@ -35553,8 +35686,12 @@
       <c r="M17" s="44"/>
       <c r="N17" s="301"/>
       <c r="O17" s="373"/>
-      <c r="P17" s="468"/>
-      <c r="Q17" s="373"/>
+      <c r="P17" s="652" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q17" s="589">
+        <v>800</v>
+      </c>
       <c r="R17" s="373"/>
       <c r="S17" s="87"/>
       <c r="T17" s="87"/>
@@ -35588,8 +35725,12 @@
       <c r="M18" s="44"/>
       <c r="N18" s="301"/>
       <c r="O18" s="153"/>
-      <c r="P18" s="468"/>
-      <c r="Q18" s="373"/>
+      <c r="P18" s="652" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q18" s="589">
+        <v>1100</v>
+      </c>
       <c r="R18" s="373"/>
       <c r="S18" s="87"/>
       <c r="T18" s="87"/>
@@ -35624,11 +35765,17 @@
       <c r="N19" s="301"/>
       <c r="O19" s="128"/>
       <c r="P19" s="468"/>
-      <c r="Q19" s="373"/>
+      <c r="Q19" s="373">
+        <f>SUM(Q5:Q18)</f>
+        <v>14704.5</v>
+      </c>
       <c r="R19" s="373"/>
       <c r="S19" s="87"/>
       <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
+      <c r="U19" s="87">
+        <f>16000+8500+1000+2500</f>
+        <v>28000</v>
+      </c>
       <c r="V19" s="87"/>
       <c r="W19" s="87"/>
       <c r="X19" s="87"/>
@@ -35669,13 +35816,13 @@
       <c r="X20" s="87"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="763" t="s">
+      <c r="A21" s="767" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="764"/>
+      <c r="B21" s="768"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
-        <v>2047.0299999999997</v>
+        <v>2374.4899999999998</v>
       </c>
       <c r="D21" s="365"/>
       <c r="E21" s="163">
@@ -35692,7 +35839,7 @@
       <c r="M21" s="44"/>
       <c r="N21" s="1"/>
       <c r="O21" s="128"/>
-      <c r="P21" s="468"/>
+      <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
       <c r="R21" s="373"/>
       <c r="S21" s="87"/>
@@ -35710,20 +35857,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="723" t="s">
+      <c r="H22" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="725" t="s">
+      <c r="I22" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="725" t="s">
+      <c r="J22" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="725"/>
-      <c r="L22" s="726" t="s">
+      <c r="K22" s="701"/>
+      <c r="L22" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="727" t="s">
+      <c r="M22" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -35746,21 +35893,21 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="724"/>
-      <c r="I23" s="685"/>
+      <c r="H23" s="700"/>
+      <c r="I23" s="702"/>
       <c r="J23" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="686"/>
-      <c r="M23" s="687"/>
+      <c r="L23" s="704"/>
+      <c r="M23" s="706"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="650" t="s">
+      <c r="P23" s="648" t="s">
         <v>290</v>
       </c>
       <c r="Q23" s="373" t="s">
@@ -35861,7 +36008,7 @@
         <v>35259.58</v>
       </c>
       <c r="P25" s="85">
-        <f t="shared" ref="P25:P32" si="6">L25/1.8</f>
+        <f>L25/1.8</f>
         <v>22481.083333333336</v>
       </c>
       <c r="Q25" s="148">
@@ -35872,7 +36019,7 @@
         <f>3748.79+2500</f>
         <v>6248.79</v>
       </c>
-      <c r="S25" s="651">
+      <c r="S25" s="649">
         <f>O25-P25-Q25-R25</f>
         <v>4804.9094666666651</v>
       </c>
@@ -35907,7 +36054,7 @@
         <v>19306</v>
       </c>
       <c r="M26" s="105">
-        <f t="shared" ref="M26:M28" si="7">M25-I26-J26-K26+L26</f>
+        <f t="shared" ref="M26:M28" si="6">M25-I26-J26-K26+L26</f>
         <v>83639.329999999987</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -35917,7 +36064,7 @@
         <v>34690.219999999994</v>
       </c>
       <c r="P26" s="85">
-        <f t="shared" si="6"/>
+        <f>L26/1.8</f>
         <v>10725.555555555555</v>
       </c>
       <c r="Q26" s="148">
@@ -35928,8 +36075,8 @@
         <f>'ОБЩАЯ СВЕРКА'!K65-'ОБЩАЯ СВЕРКА'!K61-'ОБЩАЯ СВЕРКА'!K60+2100+1000</f>
         <v>6848.79</v>
       </c>
-      <c r="S26" s="651">
-        <f t="shared" ref="S26:S32" si="8">O26-P26-Q26-R26</f>
+      <c r="S26" s="649">
+        <f>O26-P26-Q26-R26</f>
         <v>15349.727844444438</v>
       </c>
       <c r="T26" s="87"/>
@@ -35963,7 +36110,7 @@
         <v>59195.5</v>
       </c>
       <c r="M27" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>107659.22999999998</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -35973,7 +36120,7 @@
         <v>30955.479999999996</v>
       </c>
       <c r="P27" s="85">
-        <f t="shared" si="6"/>
+        <f>L27/1.8</f>
         <v>32886.388888888891</v>
       </c>
       <c r="Q27" s="148">
@@ -35984,8 +36131,8 @@
         <f>'ОБЩАЯ СВЕРКА'!K100-'ОБЩАЯ СВЕРКА'!K96-'ОБЩАЯ СВЕРКА'!K95+1300</f>
         <v>4951.2699999999995</v>
       </c>
-      <c r="S27" s="651">
-        <f t="shared" si="8"/>
+      <c r="S27" s="649">
+        <f>O27-P27-Q27-R27</f>
         <v>-8208.9174888888938</v>
       </c>
       <c r="T27" s="87"/>
@@ -36019,7 +36166,7 @@
         <v>40132</v>
       </c>
       <c r="M28" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>112611.86999999998</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -36029,7 +36176,7 @@
         <v>31239.439999999995</v>
       </c>
       <c r="P28" s="85">
-        <f t="shared" si="6"/>
+        <f>L28/1.8</f>
         <v>22295.555555555555</v>
       </c>
       <c r="Q28" s="148">
@@ -36040,8 +36187,8 @@
         <f>'ОБЩАЯ СВЕРКА'!K138+1900</f>
         <v>5448.89</v>
       </c>
-      <c r="S28" s="651">
-        <f t="shared" si="8"/>
+      <c r="S28" s="649">
+        <f>O28-P28-Q28-R28</f>
         <v>2302.4410444444402</v>
       </c>
       <c r="T28" s="87"/>
@@ -36085,7 +36232,7 @@
         <v>28986.99</v>
       </c>
       <c r="P29" s="85">
-        <f t="shared" si="6"/>
+        <f>L29/1.8</f>
         <v>12598.944444444443</v>
       </c>
       <c r="Q29" s="148">
@@ -36096,8 +36243,8 @@
         <f>'ОБЩАЯ СВЕРКА'!J188-'ОБЩАЯ СВЕРКА'!K183</f>
         <v>6400.4000000000005</v>
       </c>
-      <c r="S29" s="651">
-        <f t="shared" si="8"/>
+      <c r="S29" s="649">
+        <f>O29-P29-Q29-R29</f>
         <v>8206.5159555555583</v>
       </c>
       <c r="T29" s="87"/>
@@ -36141,7 +36288,7 @@
         <v>31654.69</v>
       </c>
       <c r="P30" s="85">
-        <f t="shared" si="6"/>
+        <f>L30/1.8</f>
         <v>18271.111111111109</v>
       </c>
       <c r="Q30" s="148">
@@ -36152,8 +36299,8 @@
         <f>'сверка ДЕКАБРЬ'!J41-'сверка ДЕКАБРЬ'!K36</f>
         <v>5836.0700000000006</v>
       </c>
-      <c r="S30" s="651">
-        <f t="shared" si="8"/>
+      <c r="S30" s="649">
+        <f>O30-P30-Q30-R30</f>
         <v>5782.6388888888896</v>
       </c>
       <c r="T30" s="87"/>
@@ -36197,7 +36344,7 @@
         <v>28891.4</v>
       </c>
       <c r="P31" s="85">
-        <f t="shared" si="6"/>
+        <f>L31/1.8</f>
         <v>20232.777777777777</v>
       </c>
       <c r="Q31" s="148">
@@ -36208,8 +36355,8 @@
         <f>'сверка ЯНВАРЬ'!J43-'сверка ЯНВАРЬ'!K38</f>
         <v>6989.58</v>
       </c>
-      <c r="S31" s="651">
-        <f t="shared" si="8"/>
+      <c r="S31" s="649">
+        <f>O31-P31-Q31-R31</f>
         <v>50.362222222223863</v>
       </c>
       <c r="T31" s="87"/>
@@ -36242,7 +36389,7 @@
       <c r="L32" s="450">
         <v>35862.5</v>
       </c>
-      <c r="M32" s="105">
+      <c r="M32" s="398">
         <f>M31-I32-J32-K32+L32</f>
         <v>94325.64999999998</v>
       </c>
@@ -36253,7 +36400,7 @@
         <v>28339.37</v>
       </c>
       <c r="P32" s="85">
-        <f t="shared" si="6"/>
+        <f>L32/1.8</f>
         <v>19923.611111111109</v>
       </c>
       <c r="Q32" s="148">
@@ -36264,8 +36411,8 @@
         <f>ФЕВРАЛЬ!J46-ФЕВРАЛЬ!K41</f>
         <v>5927.73</v>
       </c>
-      <c r="S32" s="651">
-        <f t="shared" si="8"/>
+      <c r="S32" s="649">
+        <f>O32-P32-Q32-R32</f>
         <v>964.72888888888974</v>
       </c>
       <c r="T32" s="87"/>
@@ -36276,7 +36423,7 @@
       <c r="Y32" s="373"/>
       <c r="Z32" s="373"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="346"/>
       <c r="B33" s="205"/>
       <c r="C33" s="1"/>
@@ -36284,18 +36431,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="710" t="s">
+      <c r="H33" s="773" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="712" t="s">
+      <c r="I33" s="774" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="713"/>
-      <c r="K33" s="714"/>
-      <c r="L33" s="718" t="s">
+      <c r="J33" s="775"/>
+      <c r="K33" s="776"/>
+      <c r="L33" s="777" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="719"/>
+      <c r="M33" s="778"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -36317,12 +36464,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="711"/>
-      <c r="I34" s="715"/>
-      <c r="J34" s="716"/>
-      <c r="K34" s="717"/>
-      <c r="L34" s="720"/>
-      <c r="M34" s="721"/>
+      <c r="H34" s="779"/>
+      <c r="I34" s="688"/>
+      <c r="J34" s="689"/>
+      <c r="K34" s="690"/>
+      <c r="L34" s="693"/>
+      <c r="M34" s="780"/>
       <c r="N34" s="1"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="373"/>
@@ -36344,20 +36491,20 @@
       <c r="E35" s="205"/>
       <c r="F35" s="373"/>
       <c r="G35" s="394"/>
-      <c r="H35" s="596" t="s">
+      <c r="H35" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="757" t="s">
+      <c r="I35" s="758" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="757"/>
-      <c r="K35" s="618">
+      <c r="J35" s="758"/>
+      <c r="K35" s="658">
         <v>328.13</v>
       </c>
       <c r="L35" s="288">
         <v>43905</v>
       </c>
-      <c r="M35" s="44" t="s">
+      <c r="M35" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N35" s="153"/>
@@ -36381,20 +36528,20 @@
       <c r="E36" s="280"/>
       <c r="F36" s="373"/>
       <c r="G36" s="373"/>
-      <c r="H36" s="596" t="s">
+      <c r="H36" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="758" t="s">
+      <c r="I36" s="759" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="758"/>
-      <c r="K36" s="619">
+      <c r="J36" s="759"/>
+      <c r="K36" s="659">
         <v>71.83</v>
       </c>
       <c r="L36" s="288">
         <v>43905</v>
       </c>
-      <c r="M36" s="44" t="s">
+      <c r="M36" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N36" s="1"/>
@@ -36417,20 +36564,20 @@
       <c r="E37" s="205"/>
       <c r="F37" s="373"/>
       <c r="G37" s="373"/>
-      <c r="H37" s="596" t="s">
+      <c r="H37" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="758" t="s">
+      <c r="I37" s="759" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="758"/>
-      <c r="K37" s="619">
+      <c r="J37" s="759"/>
+      <c r="K37" s="659">
         <v>5.63</v>
       </c>
       <c r="L37" s="288">
         <v>43905</v>
       </c>
-      <c r="M37" s="44" t="s">
+      <c r="M37" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N37" s="1"/>
@@ -36453,20 +36600,20 @@
       <c r="E38" s="373"/>
       <c r="F38" s="373"/>
       <c r="G38" s="373"/>
-      <c r="H38" s="596" t="s">
+      <c r="H38" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="758" t="s">
+      <c r="I38" s="759" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="758"/>
-      <c r="K38" s="619">
+      <c r="J38" s="759"/>
+      <c r="K38" s="659">
         <v>257</v>
       </c>
       <c r="L38" s="288">
         <v>43910</v>
       </c>
-      <c r="M38" s="44" t="s">
+      <c r="M38" s="112" t="s">
         <v>288</v>
       </c>
       <c r="N38" s="153"/>
@@ -36489,20 +36636,20 @@
       <c r="E39" s="373"/>
       <c r="F39" s="373"/>
       <c r="G39" s="373"/>
-      <c r="H39" s="596" t="s">
+      <c r="H39" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="759" t="s">
+      <c r="I39" s="760" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="759"/>
+      <c r="J39" s="760"/>
       <c r="K39" s="480">
         <v>654.32000000000005</v>
       </c>
       <c r="L39" s="308" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N39" s="1"/>
@@ -36525,20 +36672,20 @@
       <c r="E40" s="205"/>
       <c r="F40" s="373"/>
       <c r="G40" s="373"/>
-      <c r="H40" s="596" t="s">
+      <c r="H40" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="761" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="761"/>
-      <c r="K40" s="619">
+      <c r="J40" s="762"/>
+      <c r="K40" s="659">
         <v>324.85000000000002</v>
       </c>
       <c r="L40" s="288">
         <v>43910</v>
       </c>
-      <c r="M40" s="44" t="s">
+      <c r="M40" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N40" s="1"/>
@@ -36561,20 +36708,20 @@
       <c r="E41" s="205"/>
       <c r="F41" s="373"/>
       <c r="G41" s="373"/>
-      <c r="H41" s="596" t="s">
+      <c r="H41" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I41" s="620" t="s">
+      <c r="I41" s="660" t="s">
         <v>174</v>
       </c>
-      <c r="J41" s="621"/>
+      <c r="J41" s="661"/>
       <c r="K41" s="5">
         <v>518.58999999999992</v>
       </c>
       <c r="L41" s="288">
         <v>43905</v>
       </c>
-      <c r="M41" s="44" t="s">
+      <c r="M41" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N41" s="12"/>
@@ -36597,18 +36744,18 @@
       <c r="E42" s="205"/>
       <c r="F42" s="373"/>
       <c r="G42" s="373"/>
-      <c r="H42" s="357" t="s">
+      <c r="H42" s="782" t="s">
         <v>267</v>
       </c>
-      <c r="I42" s="620" t="s">
+      <c r="I42" s="660" t="s">
         <v>176</v>
       </c>
-      <c r="J42" s="621"/>
-      <c r="K42" s="619"/>
+      <c r="J42" s="661"/>
+      <c r="K42" s="659"/>
       <c r="L42" s="288">
         <v>43910</v>
       </c>
-      <c r="M42" s="44" t="s">
+      <c r="M42" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N42" s="1"/>
@@ -36632,20 +36779,20 @@
       <c r="E43" s="238"/>
       <c r="F43" s="373"/>
       <c r="G43" s="373"/>
-      <c r="H43" s="596" t="s">
+      <c r="H43" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="760" t="s">
+      <c r="I43" s="761" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="761"/>
-      <c r="K43" s="619">
+      <c r="J43" s="762"/>
+      <c r="K43" s="659">
         <v>1575.56</v>
       </c>
       <c r="L43" s="288">
         <v>43905</v>
       </c>
-      <c r="M43" s="44" t="s">
+      <c r="M43" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N43" s="1"/>
@@ -36668,20 +36815,20 @@
       <c r="E44" s="238"/>
       <c r="F44" s="373"/>
       <c r="G44" s="373"/>
-      <c r="H44" s="596" t="s">
+      <c r="H44" s="781" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="760" t="s">
+      <c r="I44" s="761" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="761"/>
-      <c r="K44" s="619">
+      <c r="J44" s="762"/>
+      <c r="K44" s="659">
         <v>10</v>
       </c>
       <c r="L44" s="288">
         <v>43905</v>
       </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N44" s="1"/>
@@ -36704,7 +36851,7 @@
       <c r="E45" s="238"/>
       <c r="F45" s="373"/>
       <c r="G45" s="373"/>
-      <c r="H45" s="596" t="s">
+      <c r="H45" s="782" t="s">
         <v>259</v>
       </c>
       <c r="I45" s="677" t="s">
@@ -36718,7 +36865,7 @@
       <c r="L45" s="288">
         <v>43910</v>
       </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="112" t="s">
         <v>246</v>
       </c>
       <c r="N45" s="1"/>
@@ -36733,83 +36880,101 @@
       <c r="X45" s="300"/>
       <c r="Y45" s="373"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="348"/>
-      <c r="B46" s="337"/>
-      <c r="C46" s="338"/>
-      <c r="D46" s="349"/>
-      <c r="E46" s="337"/>
-      <c r="F46" s="338"/>
-      <c r="G46" s="338"/>
-      <c r="H46" s="353"/>
-      <c r="I46" s="368" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="347"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="279"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="373"/>
+      <c r="G46" s="373"/>
+      <c r="H46" s="782" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46" s="677" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" s="677"/>
+      <c r="K46" s="94">
+        <v>72</v>
+      </c>
+      <c r="L46" s="288">
+        <v>43900</v>
+      </c>
+      <c r="M46" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="P46" s="373"/>
+      <c r="Q46" s="372"/>
+      <c r="R46" s="372"/>
+      <c r="S46" s="373"/>
+      <c r="T46" s="300"/>
+      <c r="U46" s="373"/>
+      <c r="V46" s="373"/>
+      <c r="W46" s="300"/>
+      <c r="X46" s="300"/>
+      <c r="Y46" s="373"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="347"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="373"/>
+      <c r="D47" s="279"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="373"/>
+      <c r="G47" s="373"/>
+      <c r="H47" s="782" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" s="677" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" s="677"/>
+      <c r="K47" s="94">
+        <v>50</v>
+      </c>
+      <c r="L47" s="288">
+        <v>43905</v>
+      </c>
+      <c r="M47" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="P47" s="373"/>
+      <c r="Q47" s="372"/>
+      <c r="R47" s="372"/>
+      <c r="S47" s="373"/>
+      <c r="T47" s="300"/>
+      <c r="U47" s="373"/>
+      <c r="V47" s="373"/>
+      <c r="W47" s="300"/>
+      <c r="X47" s="300"/>
+      <c r="Y47" s="373"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="348"/>
+      <c r="B48" s="337"/>
+      <c r="C48" s="338"/>
+      <c r="D48" s="349"/>
+      <c r="E48" s="337"/>
+      <c r="F48" s="338"/>
+      <c r="G48" s="338"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="783" t="s">
         <v>179</v>
       </c>
-      <c r="J46" s="368">
+      <c r="J48" s="783">
         <f>SUM(K35:K45)</f>
         <v>6125.5499999999993</v>
       </c>
-      <c r="K46" s="730" t="s">
+      <c r="K48" s="784" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="730"/>
-      <c r="M46" s="542"/>
-      <c r="N46" s="1"/>
-      <c r="P46" s="373"/>
-      <c r="Q46" s="373"/>
-      <c r="R46" s="373"/>
-      <c r="S46" s="373"/>
-      <c r="T46" s="373"/>
-      <c r="U46" s="373"/>
-      <c r="V46" s="373"/>
-      <c r="W46" s="373"/>
-      <c r="X46" s="373"/>
-      <c r="Y46" s="373"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="373"/>
-      <c r="B47" s="373"/>
-      <c r="C47" s="373"/>
-      <c r="D47" s="373"/>
-      <c r="E47" s="373"/>
-      <c r="F47" s="373"/>
-      <c r="G47" s="373"/>
-      <c r="H47" s="744"/>
-      <c r="I47" s="744"/>
-      <c r="J47" s="744"/>
-      <c r="K47" s="744"/>
-      <c r="L47" s="373"/>
-      <c r="M47" s="460"/>
-      <c r="N47" s="1"/>
-      <c r="P47" s="373"/>
-      <c r="Q47" s="373"/>
-      <c r="R47" s="373"/>
-      <c r="S47" s="373"/>
-      <c r="T47" s="373"/>
-      <c r="U47" s="373"/>
-      <c r="V47" s="373"/>
-      <c r="W47" s="373"/>
-      <c r="X47" s="373"/>
-      <c r="Y47" s="373"/>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="742" t="s">
-        <v>285</v>
-      </c>
-      <c r="B48" s="742"/>
-      <c r="C48" s="742"/>
-      <c r="D48" s="742"/>
-      <c r="E48" s="742"/>
-      <c r="F48" s="742"/>
-      <c r="G48" s="742"/>
-      <c r="H48" s="742"/>
-      <c r="I48" s="742"/>
-      <c r="J48" s="742"/>
-      <c r="K48" s="742"/>
-      <c r="L48" s="742"/>
-      <c r="M48" s="742"/>
+      <c r="L48" s="784"/>
+      <c r="M48" s="785"/>
       <c r="N48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="373"/>
       <c r="Q48" s="373"/>
       <c r="R48" s="373"/>
       <c r="S48" s="373"/>
@@ -36818,257 +36983,253 @@
       <c r="V48" s="373"/>
       <c r="W48" s="373"/>
       <c r="X48" s="373"/>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="743"/>
-      <c r="B49" s="743"/>
-      <c r="C49" s="743"/>
-      <c r="D49" s="743"/>
-      <c r="E49" s="743"/>
-      <c r="F49" s="743"/>
-      <c r="G49" s="743"/>
-      <c r="H49" s="743"/>
-      <c r="I49" s="743"/>
-      <c r="J49" s="743"/>
-      <c r="K49" s="743"/>
-      <c r="L49" s="743"/>
-      <c r="M49" s="743"/>
+      <c r="Y48" s="373"/>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="373"/>
+      <c r="B49" s="373"/>
+      <c r="C49" s="373"/>
+      <c r="D49" s="373"/>
+      <c r="E49" s="373"/>
+      <c r="F49" s="373"/>
+      <c r="G49" s="373"/>
+      <c r="H49" s="737"/>
+      <c r="I49" s="737"/>
+      <c r="J49" s="737"/>
+      <c r="K49" s="737"/>
+      <c r="L49" s="373"/>
+      <c r="M49" s="460"/>
       <c r="N49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="373"/>
       <c r="Q49" s="373"/>
-      <c r="R49" s="372"/>
-      <c r="S49" s="614"/>
+      <c r="R49" s="373"/>
+      <c r="S49" s="373"/>
       <c r="T49" s="373"/>
       <c r="U49" s="373"/>
       <c r="V49" s="373"/>
       <c r="W49" s="373"/>
       <c r="X49" s="373"/>
-    </row>
-    <row r="50" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="739" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="682"/>
-      <c r="C50" s="682"/>
-      <c r="D50" s="682"/>
-      <c r="E50" s="682"/>
-      <c r="F50" s="682"/>
-      <c r="G50" s="683"/>
-      <c r="H50" s="740" t="s">
-        <v>287</v>
-      </c>
-      <c r="I50" s="738"/>
-      <c r="J50" s="738"/>
-      <c r="K50" s="738"/>
-      <c r="L50" s="738"/>
-      <c r="M50" s="741"/>
+      <c r="Y49" s="373"/>
+    </row>
+    <row r="50" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="735" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="735"/>
+      <c r="C50" s="735"/>
+      <c r="D50" s="735"/>
+      <c r="E50" s="735"/>
+      <c r="F50" s="735"/>
+      <c r="G50" s="735"/>
+      <c r="H50" s="735"/>
+      <c r="I50" s="735"/>
+      <c r="J50" s="735"/>
+      <c r="K50" s="735"/>
+      <c r="L50" s="735"/>
+      <c r="M50" s="735"/>
       <c r="N50" s="1"/>
-      <c r="S50" s="280"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="373"/>
+      <c r="R50" s="373"/>
+      <c r="S50" s="373"/>
       <c r="T50" s="373"/>
       <c r="U50" s="373"/>
       <c r="V50" s="373"/>
       <c r="W50" s="373"/>
       <c r="X50" s="373"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="330" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="611" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="611" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="606" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="606" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51" s="606" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" s="269" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="461"/>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="736"/>
+      <c r="B51" s="736"/>
+      <c r="C51" s="736"/>
+      <c r="D51" s="736"/>
+      <c r="E51" s="736"/>
+      <c r="F51" s="736"/>
+      <c r="G51" s="736"/>
+      <c r="H51" s="736"/>
+      <c r="I51" s="736"/>
+      <c r="J51" s="736"/>
+      <c r="K51" s="736"/>
+      <c r="L51" s="736"/>
+      <c r="M51" s="736"/>
       <c r="N51" s="1"/>
-      <c r="S51" s="280"/>
-      <c r="T51" s="85"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="373"/>
+      <c r="R51" s="372"/>
+      <c r="S51" s="614"/>
+      <c r="T51" s="373"/>
       <c r="U51" s="373"/>
       <c r="V51" s="373"/>
       <c r="W51" s="373"/>
       <c r="X51" s="373"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="331">
+    <row r="52" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="734" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="697"/>
+      <c r="C52" s="697"/>
+      <c r="D52" s="697"/>
+      <c r="E52" s="697"/>
+      <c r="F52" s="697"/>
+      <c r="G52" s="698"/>
+      <c r="H52" s="738" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" s="739"/>
+      <c r="J52" s="739"/>
+      <c r="K52" s="739"/>
+      <c r="L52" s="739"/>
+      <c r="M52" s="740"/>
+      <c r="N52" s="1"/>
+      <c r="S52" s="280"/>
+      <c r="T52" s="373"/>
+      <c r="U52" s="373"/>
+      <c r="V52" s="373"/>
+      <c r="W52" s="373"/>
+      <c r="X52" s="373"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="330" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="611" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="611" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="43"/>
+      <c r="I53" s="606" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="606" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="606" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="269" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="461"/>
+      <c r="N53" s="1"/>
+      <c r="S53" s="280"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="373"/>
+      <c r="V53" s="373"/>
+      <c r="W53" s="373"/>
+      <c r="X53" s="373"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="331">
         <v>43888</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B54" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="C52" s="281">
+      <c r="C54" s="281">
         <v>1008.8</v>
       </c>
-      <c r="D52" s="281"/>
-      <c r="E52" s="656">
-        <f t="shared" ref="E52" si="9">IF(C52-D52=0,"",C52-D52)</f>
-        <v>1008.8</v>
-      </c>
-      <c r="F52" s="165" t="str">
-        <f t="shared" ref="F52" si="10">IF(C52=0,"",IF(C52-D52=0,"оплачено","ОЖИДАЕТСЯ оплата"))</f>
+      <c r="D54" s="281">
+        <v>508.79999999999995</v>
+      </c>
+      <c r="E54" s="654">
+        <f t="shared" ref="E54" si="7">IF(C54-D54=0,"",C54-D54)</f>
+        <v>500</v>
+      </c>
+      <c r="F54" s="165" t="str">
+        <f t="shared" ref="F54" si="8">IF(C54=0,"",IF(C54-D54=0,"оплачено","ОЖИДАЕТСЯ оплата"))</f>
         <v>ОЖИДАЕТСЯ оплата</v>
       </c>
-      <c r="G52" s="165"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="613">
+      <c r="G54" s="165"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="613">
         <v>500.24</v>
       </c>
-      <c r="J52" s="613">
+      <c r="J54" s="613">
         <f>150+350.24</f>
         <v>500.24</v>
       </c>
-      <c r="K52" s="163">
-        <f t="shared" ref="K52" si="11">I52-J52</f>
+      <c r="K54" s="163">
+        <f t="shared" ref="K54" si="9">I54-J54</f>
         <v>0</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L54" s="3">
         <v>43914</v>
       </c>
-      <c r="M52" s="451"/>
-      <c r="N52" s="1"/>
-      <c r="S52" s="373"/>
-      <c r="T52" s="373"/>
-      <c r="W52" s="373"/>
-      <c r="X52" s="373"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="331">
+      <c r="M54" s="451"/>
+      <c r="N54" s="1"/>
+      <c r="S54" s="373"/>
+      <c r="T54" s="373"/>
+      <c r="W54" s="373"/>
+      <c r="X54" s="373"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="331">
         <v>43894</v>
       </c>
-      <c r="B53" s="164" t="s">
+      <c r="B55" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="281">
+      <c r="C55" s="281">
         <v>236.18</v>
       </c>
-      <c r="D53" s="281">
+      <c r="D55" s="281">
         <v>236.18</v>
       </c>
-      <c r="E53" s="656" t="str">
-        <f t="shared" ref="E53:E67" si="12">IF(C53-D53=0,"",C53-D53)</f>
+      <c r="E55" s="654" t="str">
+        <f t="shared" ref="E55:E69" si="10">IF(C55-D55=0,"",C55-D55)</f>
         <v/>
       </c>
-      <c r="F53" s="165" t="str">
-        <f t="shared" ref="F53:F67" si="13">IF(C53=0,"",IF(C53-D53=0,"оплачено","ОЖИДАЕТСЯ оплата"))</f>
-        <v>оплачено</v>
-      </c>
-      <c r="G53" s="165"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="299"/>
-      <c r="J53" s="299"/>
-      <c r="K53" s="462"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="451"/>
-      <c r="N53" s="1"/>
-      <c r="S53" s="373"/>
-      <c r="T53" s="373"/>
-      <c r="W53" s="373"/>
-      <c r="X53" s="373"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="331">
-        <v>43894</v>
-      </c>
-      <c r="B54" s="164" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="281">
-        <v>232.91</v>
-      </c>
-      <c r="D54" s="281">
-        <v>232.91</v>
-      </c>
-      <c r="E54" s="656" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F54" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v>оплачено</v>
-      </c>
-      <c r="G54" s="165"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="373"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="331">
-        <v>43895</v>
-      </c>
-      <c r="B55" s="164" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="281">
-        <v>343.62</v>
-      </c>
-      <c r="D55" s="281">
-        <v>343.62</v>
-      </c>
-      <c r="E55" s="656" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
       <c r="F55" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F55:F69" si="11">IF(C55=0,"",IF(C55-D55=0,"оплачено","ОЖИДАЕТСЯ оплата"))</f>
         <v>оплачено</v>
       </c>
       <c r="G55" s="165"/>
       <c r="H55" s="43"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="373"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="44"/>
+      <c r="I55" s="299"/>
+      <c r="J55" s="299"/>
+      <c r="K55" s="462"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="451"/>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S55" s="373"/>
+      <c r="T55" s="373"/>
+      <c r="W55" s="373"/>
+      <c r="X55" s="373"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="331">
-        <v>43901</v>
+        <v>43894</v>
       </c>
       <c r="B56" s="164" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C56" s="281">
-        <v>428.25</v>
+        <v>232.91</v>
       </c>
       <c r="D56" s="281">
-        <v>428.25</v>
-      </c>
-      <c r="E56" s="656" t="str">
-        <f t="shared" si="12"/>
+        <v>232.91</v>
+      </c>
+      <c r="E56" s="654" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F56" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>оплачено</v>
       </c>
       <c r="G56" s="165"/>
@@ -37080,25 +37241,25 @@
       <c r="M56" s="44"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="331">
-        <v>43908</v>
+        <v>43895</v>
       </c>
       <c r="B57" s="164" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="C57" s="281">
-        <v>241</v>
+        <v>343.62</v>
       </c>
       <c r="D57" s="281">
-        <v>241</v>
-      </c>
-      <c r="E57" s="656" t="str">
-        <f t="shared" si="12"/>
+        <v>343.62</v>
+      </c>
+      <c r="E57" s="654" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F57" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>оплачено</v>
       </c>
       <c r="G57" s="165"/>
@@ -37110,25 +37271,25 @@
       <c r="M57" s="44"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="331">
-        <v>43913</v>
+        <v>43901</v>
       </c>
       <c r="B58" s="164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" s="281">
-        <v>233.61</v>
+        <v>428.25</v>
       </c>
       <c r="D58" s="281">
-        <v>233.61</v>
-      </c>
-      <c r="E58" s="656" t="str">
-        <f t="shared" si="12"/>
+        <v>428.25</v>
+      </c>
+      <c r="E58" s="654" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F58" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>оплачено</v>
       </c>
       <c r="G58" s="165"/>
@@ -37140,30 +37301,28 @@
       <c r="M58" s="44"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="331">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B59" s="164" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C59" s="281">
-        <v>332.52</v>
+        <v>241</v>
       </c>
       <c r="D59" s="281">
-        <v>332.52</v>
-      </c>
-      <c r="E59" s="656" t="str">
-        <f t="shared" si="12"/>
+        <v>241</v>
+      </c>
+      <c r="E59" s="654" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F59" s="165" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>оплачено</v>
       </c>
-      <c r="G59" s="165" t="s">
-        <v>131</v>
-      </c>
+      <c r="G59" s="165"/>
       <c r="H59" s="43"/>
       <c r="I59" s="1"/>
       <c r="J59" s="373"/>
@@ -37172,29 +37331,28 @@
       <c r="M59" s="44"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="331">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="C60" s="281">
-        <v>328.15</v>
-      </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="656">
-        <f t="shared" si="12"/>
-        <v>328.15</v>
+        <v>233.61</v>
+      </c>
+      <c r="D60" s="281">
+        <v>233.61</v>
+      </c>
+      <c r="E60" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="F60" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v>ОЖИДАЕТСЯ оплата</v>
-      </c>
-      <c r="G60" s="165" t="str">
-        <f t="shared" ref="G60:G67" si="14">IF(C60=0,"",IF(C60-D60=0,"","нет накладной"))</f>
-        <v>нет накладной</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>оплачено</v>
+      </c>
+      <c r="G60" s="165"/>
       <c r="H60" s="43"/>
       <c r="I60" s="1"/>
       <c r="J60" s="373"/>
@@ -37202,24 +37360,30 @@
       <c r="L60" s="1"/>
       <c r="M60" s="44"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="373"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="331"/>
-      <c r="B61" s="164"/>
-      <c r="C61" s="281"/>
-      <c r="D61" s="281"/>
-      <c r="E61" s="656" t="s">
-        <v>310</v>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="331">
+        <v>43909</v>
+      </c>
+      <c r="B61" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="281">
+        <v>332.52</v>
+      </c>
+      <c r="D61" s="281">
+        <v>332.52</v>
+      </c>
+      <c r="E61" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="F61" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G61" s="165" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>оплачено</v>
+      </c>
+      <c r="G61" s="165" t="s">
+        <v>131</v>
       </c>
       <c r="H61" s="43"/>
       <c r="I61" s="1"/>
@@ -37228,25 +37392,30 @@
       <c r="L61" s="1"/>
       <c r="M61" s="44"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="373"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="331"/>
-      <c r="B62" s="164"/>
-      <c r="C62" s="281"/>
-      <c r="D62" s="281"/>
-      <c r="E62" s="656" t="str">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="331">
+        <v>43916</v>
+      </c>
+      <c r="B62" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="281">
+        <v>328.15</v>
+      </c>
+      <c r="D62" s="281">
+        <v>328.15</v>
+      </c>
+      <c r="E62" s="654" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F62" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G62" s="165" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>оплачено</v>
+      </c>
+      <c r="G62" s="165" t="s">
+        <v>131</v>
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="1"/>
@@ -37258,21 +37427,20 @@
       <c r="O62" s="373"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="331"/>
       <c r="B63" s="164"/>
       <c r="C63" s="281"/>
       <c r="D63" s="281"/>
-      <c r="E63" s="656" t="str">
-        <f t="shared" si="12"/>
+      <c r="E63" s="654" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="165" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F63" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="G63" s="165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G63:G69" si="12">IF(C63=0,"",IF(C63-D63=0,"","нет накладной"))</f>
         <v/>
       </c>
       <c r="H63" s="43"/>
@@ -37283,23 +37451,23 @@
       <c r="M63" s="44"/>
       <c r="N63" s="1"/>
       <c r="O63" s="373"/>
-      <c r="P63" s="153"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="331"/>
       <c r="B64" s="164"/>
       <c r="C64" s="281"/>
       <c r="D64" s="281"/>
-      <c r="E64" s="656" t="str">
+      <c r="E64" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F64" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G64" s="165" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F64" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G64" s="165" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H64" s="43"/>
@@ -37317,16 +37485,16 @@
       <c r="B65" s="164"/>
       <c r="C65" s="281"/>
       <c r="D65" s="281"/>
-      <c r="E65" s="656" t="str">
+      <c r="E65" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F65" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G65" s="165" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F65" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G65" s="165" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H65" s="43"/>
@@ -37337,23 +37505,23 @@
       <c r="M65" s="44"/>
       <c r="N65" s="1"/>
       <c r="O65" s="373"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="153"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="331"/>
       <c r="B66" s="164"/>
       <c r="C66" s="281"/>
       <c r="D66" s="281"/>
-      <c r="E66" s="656" t="str">
+      <c r="E66" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F66" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G66" s="165" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F66" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G66" s="165" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H66" s="43"/>
@@ -37364,23 +37532,23 @@
       <c r="M66" s="44"/>
       <c r="N66" s="1"/>
       <c r="O66" s="373"/>
-      <c r="P66" s="85"/>
+      <c r="P66" s="1"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="331"/>
       <c r="B67" s="164"/>
       <c r="C67" s="281"/>
       <c r="D67" s="281"/>
-      <c r="E67" s="656" t="str">
+      <c r="E67" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F67" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G67" s="165" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F67" s="165" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G67" s="165" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H67" s="43"/>
@@ -37391,24 +37559,25 @@
       <c r="M67" s="44"/>
       <c r="N67" s="1"/>
       <c r="O67" s="373"/>
-      <c r="P67" s="373"/>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="763" t="s">
-        <v>278</v>
-      </c>
-      <c r="B68" s="764"/>
-      <c r="C68" s="365">
-        <f>SUM(C53:C67)</f>
-        <v>2376.2400000000002</v>
-      </c>
-      <c r="D68" s="365"/>
-      <c r="E68" s="656">
-        <f>SUM(E53:E67)</f>
-        <v>328.15</v>
-      </c>
-      <c r="F68" s="165"/>
-      <c r="G68" s="470"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="331"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="281"/>
+      <c r="D68" s="281"/>
+      <c r="E68" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F68" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G68" s="165" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="H68" s="43"/>
       <c r="I68" s="1"/>
       <c r="J68" s="373"/>
@@ -37417,377 +37586,360 @@
       <c r="M68" s="44"/>
       <c r="N68" s="1"/>
       <c r="O68" s="373"/>
-      <c r="P68" s="373"/>
-    </row>
-    <row r="69" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="358"/>
-      <c r="B69" s="359"/>
-      <c r="C69" s="360"/>
-      <c r="D69" s="360"/>
-      <c r="E69" s="361"/>
-      <c r="F69" s="359"/>
-      <c r="G69" s="392"/>
-      <c r="H69" s="723" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="725" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="725" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="725"/>
-      <c r="L69" s="726" t="s">
-        <v>93</v>
-      </c>
-      <c r="M69" s="727" t="s">
-        <v>95</v>
-      </c>
+      <c r="P68" s="85"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="331"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="281"/>
+      <c r="D69" s="281"/>
+      <c r="E69" s="654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F69" s="165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G69" s="165" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H69" s="43"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="373"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="44"/>
       <c r="N69" s="1"/>
       <c r="O69" s="373"/>
-      <c r="P69" s="457"/>
-    </row>
-    <row r="70" spans="1:25" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="362"/>
-      <c r="B70" s="207"/>
-      <c r="C70" s="207"/>
-      <c r="D70" s="207"/>
-      <c r="E70" s="222"/>
-      <c r="F70" s="207"/>
-      <c r="G70" s="207"/>
-      <c r="H70" s="724"/>
-      <c r="I70" s="685"/>
-      <c r="J70" s="607" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="607" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="686"/>
-      <c r="M70" s="687"/>
+      <c r="P69" s="373"/>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="767" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="768"/>
+      <c r="C70" s="365">
+        <f>SUM(C55:C69)</f>
+        <v>2376.2400000000002</v>
+      </c>
+      <c r="D70" s="365"/>
+      <c r="E70" s="654">
+        <f>SUM(E55:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="165"/>
+      <c r="G70" s="470"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="373"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="44"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
-      <c r="P70" s="457"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="345"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="294"/>
-      <c r="D71" s="238"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="205"/>
-      <c r="G71" s="205"/>
-      <c r="H71" s="354" t="s">
+      <c r="P70" s="373"/>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="358"/>
+      <c r="B71" s="359"/>
+      <c r="C71" s="360"/>
+      <c r="D71" s="360"/>
+      <c r="E71" s="361"/>
+      <c r="F71" s="359"/>
+      <c r="G71" s="392"/>
+      <c r="H71" s="699" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="701" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="701" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="701"/>
+      <c r="L71" s="703" t="s">
+        <v>93</v>
+      </c>
+      <c r="M71" s="705" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="373"/>
+      <c r="P71" s="457"/>
+    </row>
+    <row r="72" spans="1:25" ht="24" x14ac:dyDescent="0.25">
+      <c r="A72" s="362"/>
+      <c r="B72" s="207"/>
+      <c r="C72" s="207"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="222"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="207"/>
+      <c r="H72" s="700"/>
+      <c r="I72" s="702"/>
+      <c r="J72" s="607" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="607" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="704"/>
+      <c r="M72" s="706"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="373"/>
+      <c r="P72" s="457"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" s="345"/>
+      <c r="B73" s="205"/>
+      <c r="C73" s="294"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="354" t="s">
         <v>163</v>
       </c>
-      <c r="I71" s="95">
+      <c r="I73" s="95">
         <v>2420.3999999999996</v>
       </c>
-      <c r="J71" s="95">
+      <c r="J73" s="95">
         <v>115.5</v>
       </c>
-      <c r="K71" s="612">
+      <c r="K73" s="612">
         <v>132.61000000000001</v>
       </c>
-      <c r="L71" s="97">
+      <c r="L73" s="97">
         <v>22665.5</v>
       </c>
-      <c r="M71" s="105">
-        <f>L71-I71-J71-K71</f>
+      <c r="M73" s="105">
+        <f>L73-I73-J73-K73</f>
         <v>19996.989999999998</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="468"/>
-      <c r="P71" s="454"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="346"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="279"/>
-      <c r="E72" s="373"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="373"/>
-      <c r="H72" s="354" t="s">
-        <v>192</v>
-      </c>
-      <c r="I72" s="95">
-        <v>7629.69</v>
-      </c>
-      <c r="J72" s="95">
-        <v>352.29</v>
-      </c>
-      <c r="K72" s="95">
-        <v>193.85000000000002</v>
-      </c>
-      <c r="L72" s="97">
-        <v>10342</v>
-      </c>
-      <c r="M72" s="105">
-        <f>M71-I72-J72-K72+L72</f>
-        <v>22163.159999999996</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="468"/>
-      <c r="P72" s="454"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="87"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="346"/>
-      <c r="B73" s="373"/>
-      <c r="C73" s="205"/>
-      <c r="D73" s="279"/>
-      <c r="E73" s="373"/>
-      <c r="F73" s="373"/>
-      <c r="G73" s="373"/>
-      <c r="H73" s="354" t="s">
-        <v>199</v>
-      </c>
-      <c r="I73" s="304">
-        <v>8423.6400000000012</v>
-      </c>
-      <c r="J73" s="95">
-        <v>921.3</v>
-      </c>
-      <c r="K73" s="305">
-        <v>312.46000000000004</v>
-      </c>
-      <c r="L73" s="305">
-        <v>16668</v>
-      </c>
-      <c r="M73" s="105">
-        <f>M72-I73-J73-K73+L73</f>
-        <v>29173.759999999995</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="468"/>
-      <c r="P73" s="455"/>
+      <c r="P73" s="454"/>
       <c r="Q73" s="87"/>
       <c r="R73" s="87"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="346"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="290"/>
+      <c r="B74" s="205"/>
+      <c r="C74" s="205"/>
       <c r="D74" s="279"/>
       <c r="E74" s="373"/>
-      <c r="F74" s="373"/>
-      <c r="G74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="373"/>
       <c r="H74" s="354" t="s">
-        <v>209</v>
-      </c>
-      <c r="I74" s="305">
-        <v>8639.7199999999993</v>
-      </c>
-      <c r="J74" s="306">
-        <v>749.49</v>
-      </c>
-      <c r="K74" s="624">
-        <v>435.1</v>
-      </c>
-      <c r="L74" s="305">
-        <v>17824.919999999998</v>
+        <v>192</v>
+      </c>
+      <c r="I74" s="95">
+        <v>7629.69</v>
+      </c>
+      <c r="J74" s="95">
+        <v>352.29</v>
+      </c>
+      <c r="K74" s="95">
+        <v>193.85000000000002</v>
+      </c>
+      <c r="L74" s="97">
+        <v>10342</v>
       </c>
       <c r="M74" s="105">
         <f>M73-I74-J74-K74+L74</f>
-        <v>37174.369999999995</v>
+        <v>22163.159999999996</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="468"/>
-      <c r="P74" s="455"/>
+      <c r="P74" s="454"/>
       <c r="Q74" s="87"/>
       <c r="R74" s="87"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="346"/>
-      <c r="B75" s="205"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="373"/>
+      <c r="C75" s="205"/>
       <c r="D75" s="279"/>
       <c r="E75" s="373"/>
       <c r="F75" s="373"/>
       <c r="G75" s="373"/>
-      <c r="H75" s="355" t="s">
-        <v>210</v>
-      </c>
-      <c r="I75" s="306"/>
-      <c r="J75" s="305"/>
-      <c r="K75" s="306"/>
-      <c r="L75" s="305"/>
-      <c r="M75" s="105"/>
+      <c r="H75" s="354" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="304">
+        <v>8423.6400000000012</v>
+      </c>
+      <c r="J75" s="95">
+        <v>921.3</v>
+      </c>
+      <c r="K75" s="305">
+        <v>312.46000000000004</v>
+      </c>
+      <c r="L75" s="305">
+        <v>16668</v>
+      </c>
+      <c r="M75" s="105">
+        <f>M74-I75-J75-K75+L75</f>
+        <v>29173.759999999995</v>
+      </c>
       <c r="N75" s="1"/>
-      <c r="O75" s="148"/>
+      <c r="O75" s="468"/>
       <c r="P75" s="455"/>
+      <c r="Q75" s="87"/>
       <c r="R75" s="87"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="346"/>
-      <c r="B76" s="205"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="290"/>
       <c r="D76" s="279"/>
       <c r="E76" s="373"/>
       <c r="F76" s="373"/>
-      <c r="G76" s="373"/>
-      <c r="H76" s="395" t="s">
-        <v>211</v>
-      </c>
-      <c r="I76" s="396"/>
-      <c r="J76" s="449"/>
-      <c r="K76" s="397"/>
-      <c r="L76" s="450"/>
-      <c r="M76" s="398"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="354" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" s="305">
+        <v>8639.7199999999993</v>
+      </c>
+      <c r="J76" s="306">
+        <v>749.49</v>
+      </c>
+      <c r="K76" s="622">
+        <v>435.1</v>
+      </c>
+      <c r="L76" s="305">
+        <v>17824.919999999998</v>
+      </c>
+      <c r="M76" s="105">
+        <f>M75-I76-J76-K76+L76</f>
+        <v>37174.369999999995</v>
+      </c>
       <c r="N76" s="1"/>
-      <c r="O76" s="373"/>
+      <c r="O76" s="468"/>
       <c r="P76" s="455"/>
       <c r="Q76" s="87"/>
       <c r="R76" s="87"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="346"/>
       <c r="B77" s="205"/>
       <c r="C77" s="1"/>
       <c r="D77" s="279"/>
-      <c r="E77" s="85"/>
+      <c r="E77" s="373"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="710" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="712" t="s">
-        <v>178</v>
-      </c>
-      <c r="J77" s="713"/>
-      <c r="K77" s="714"/>
-      <c r="L77" s="718" t="s">
-        <v>159</v>
-      </c>
-      <c r="M77" s="719"/>
+      <c r="H77" s="355" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" s="306"/>
+      <c r="J77" s="305"/>
+      <c r="K77" s="306"/>
+      <c r="L77" s="305"/>
+      <c r="M77" s="105"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="373"/>
+      <c r="O77" s="148"/>
       <c r="P77" s="455"/>
-      <c r="Q77" s="87"/>
       <c r="R77" s="87"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="346"/>
       <c r="B78" s="205"/>
-      <c r="C78" s="290"/>
+      <c r="C78" s="1"/>
       <c r="D78" s="279"/>
-      <c r="E78" s="290"/>
+      <c r="E78" s="373"/>
       <c r="F78" s="373"/>
-      <c r="G78" s="394"/>
-      <c r="H78" s="711"/>
-      <c r="I78" s="715"/>
-      <c r="J78" s="716"/>
-      <c r="K78" s="717"/>
-      <c r="L78" s="720"/>
-      <c r="M78" s="721"/>
+      <c r="G78" s="373"/>
+      <c r="H78" s="395" t="s">
+        <v>211</v>
+      </c>
+      <c r="I78" s="396"/>
+      <c r="J78" s="449"/>
+      <c r="K78" s="397"/>
+      <c r="L78" s="450"/>
+      <c r="M78" s="398"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
-      <c r="Q78" s="373"/>
-      <c r="R78" s="373"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
+      <c r="Q78" s="87"/>
+      <c r="R78" s="87"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="346"/>
       <c r="B79" s="205"/>
-      <c r="C79" s="205"/>
+      <c r="C79" s="1"/>
       <c r="D79" s="279"/>
-      <c r="E79" s="205"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="373"/>
-      <c r="G79" s="394"/>
-      <c r="H79" s="596" t="s">
-        <v>259</v>
-      </c>
-      <c r="I79" s="722" t="s">
-        <v>47</v>
-      </c>
-      <c r="J79" s="722"/>
-      <c r="K79" s="618">
-        <v>131.25</v>
-      </c>
-      <c r="L79" s="288">
-        <v>43905</v>
-      </c>
-      <c r="M79" s="44" t="s">
-        <v>246</v>
-      </c>
+      <c r="G79" s="373"/>
+      <c r="H79" s="683" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="685" t="s">
+        <v>178</v>
+      </c>
+      <c r="J79" s="686"/>
+      <c r="K79" s="687"/>
+      <c r="L79" s="691" t="s">
+        <v>159</v>
+      </c>
+      <c r="M79" s="692"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="373"/>
       <c r="P79" s="455"/>
-      <c r="Q79" s="529"/>
-      <c r="R79" s="373"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="288"/>
-      <c r="V79" s="288"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
+      <c r="Q79" s="87"/>
+      <c r="R79" s="87"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="346"/>
-      <c r="B80" s="373"/>
-      <c r="C80" s="280"/>
+      <c r="B80" s="205"/>
+      <c r="C80" s="290"/>
       <c r="D80" s="279"/>
-      <c r="E80" s="280"/>
+      <c r="E80" s="290"/>
       <c r="F80" s="373"/>
-      <c r="G80" s="373"/>
-      <c r="H80" s="596" t="s">
-        <v>259</v>
-      </c>
-      <c r="I80" s="680" t="s">
-        <v>51</v>
-      </c>
-      <c r="J80" s="680"/>
-      <c r="K80" s="619">
-        <v>21.35</v>
-      </c>
-      <c r="L80" s="288">
-        <v>43905</v>
-      </c>
-      <c r="M80" s="44" t="s">
-        <v>246</v>
-      </c>
+      <c r="G80" s="394"/>
+      <c r="H80" s="684"/>
+      <c r="I80" s="688"/>
+      <c r="J80" s="689"/>
+      <c r="K80" s="690"/>
+      <c r="L80" s="693"/>
+      <c r="M80" s="694"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="373"/>
       <c r="P80" s="455"/>
-      <c r="Q80" s="87"/>
-      <c r="R80" s="87"/>
+      <c r="Q80" s="373"/>
+      <c r="R80" s="373"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="288"/>
-      <c r="V80" s="288"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="347"/>
-      <c r="B81" s="373"/>
-      <c r="C81" s="373"/>
+      <c r="A81" s="346"/>
+      <c r="B81" s="205"/>
+      <c r="C81" s="205"/>
       <c r="D81" s="279"/>
       <c r="E81" s="205"/>
       <c r="F81" s="373"/>
-      <c r="G81" s="373"/>
+      <c r="G81" s="394"/>
       <c r="H81" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I81" s="680" t="s">
-        <v>52</v>
-      </c>
-      <c r="J81" s="680"/>
-      <c r="K81" s="619">
-        <v>2.25</v>
+      <c r="I81" s="695" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="695"/>
+      <c r="K81" s="618">
+        <v>131.25</v>
       </c>
       <c r="L81" s="288">
         <v>43905</v>
@@ -37795,82 +37947,81 @@
       <c r="M81" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="R81" s="614"/>
+      <c r="P81" s="455"/>
+      <c r="Q81" s="529"/>
+      <c r="R81" s="373"/>
       <c r="S81" s="1"/>
-      <c r="T81" s="288"/>
+      <c r="T81" s="1"/>
       <c r="U81" s="288"/>
       <c r="V81" s="288"/>
-      <c r="W81" s="288"/>
-      <c r="X81" s="288"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="347"/>
+      <c r="A82" s="346"/>
       <c r="B82" s="373"/>
-      <c r="C82" s="373"/>
+      <c r="C82" s="280"/>
       <c r="D82" s="279"/>
-      <c r="E82" s="373"/>
+      <c r="E82" s="280"/>
       <c r="F82" s="373"/>
       <c r="G82" s="373"/>
       <c r="H82" s="596" t="s">
         <v>259</v>
       </c>
       <c r="I82" s="680" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J82" s="680"/>
       <c r="K82" s="619">
-        <v>89</v>
+        <v>21.35</v>
       </c>
       <c r="L82" s="288">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="M82" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="O82" s="153"/>
+        <v>246</v>
+      </c>
+      <c r="P82" s="455"/>
+      <c r="Q82" s="87"/>
+      <c r="R82" s="87"/>
       <c r="S82" s="1"/>
-      <c r="T82" s="288"/>
+      <c r="T82" s="1"/>
       <c r="U82" s="288"/>
       <c r="V82" s="288"/>
-      <c r="W82" s="288"/>
-      <c r="X82" s="288"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="347"/>
       <c r="B83" s="373"/>
       <c r="C83" s="373"/>
       <c r="D83" s="279"/>
-      <c r="E83" s="373"/>
+      <c r="E83" s="205"/>
       <c r="F83" s="373"/>
       <c r="G83" s="373"/>
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="767" t="s">
-        <v>59</v>
-      </c>
-      <c r="J83" s="767"/>
-      <c r="K83" s="480">
-        <v>176.5</v>
-      </c>
-      <c r="L83" s="308" t="s">
-        <v>177</v>
+      <c r="I83" s="680" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="680"/>
+      <c r="K83" s="619">
+        <v>2.25</v>
+      </c>
+      <c r="L83" s="288">
+        <v>43905</v>
       </c>
       <c r="M83" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="O83" s="153"/>
-      <c r="P83" s="625"/>
-      <c r="Q83" s="540"/>
       <c r="R83" s="614"/>
       <c r="S83" s="1"/>
       <c r="T83" s="288"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
+      <c r="U83" s="288"/>
+      <c r="V83" s="288"/>
       <c r="W83" s="288"/>
       <c r="X83" s="288"/>
       <c r="Y83" s="1"/>
@@ -37878,31 +38029,29 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="347"/>
-      <c r="B84" s="205"/>
-      <c r="C84" s="205"/>
+      <c r="B84" s="373"/>
+      <c r="C84" s="373"/>
       <c r="D84" s="279"/>
-      <c r="E84" s="205"/>
+      <c r="E84" s="373"/>
       <c r="F84" s="373"/>
       <c r="G84" s="373"/>
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="760" t="s">
-        <v>68</v>
-      </c>
-      <c r="J84" s="761"/>
+      <c r="I84" s="680" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" s="680"/>
       <c r="K84" s="619">
-        <v>55.66</v>
+        <v>89</v>
       </c>
       <c r="L84" s="288">
         <v>43910</v>
       </c>
       <c r="M84" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="P84" s="369"/>
-      <c r="Q84" s="614"/>
-      <c r="R84" s="614"/>
+        <v>288</v>
+      </c>
+      <c r="O84" s="153"/>
       <c r="S84" s="1"/>
       <c r="T84" s="288"/>
       <c r="U84" s="288"/>
@@ -37914,45 +38063,45 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="347"/>
-      <c r="B85" s="205"/>
+      <c r="B85" s="373"/>
       <c r="C85" s="373"/>
       <c r="D85" s="279"/>
-      <c r="E85" s="205"/>
+      <c r="E85" s="373"/>
       <c r="F85" s="373"/>
       <c r="G85" s="373"/>
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="678" t="s">
-        <v>174</v>
-      </c>
-      <c r="J85" s="679"/>
-      <c r="K85" s="619">
-        <v>257.08999999999997</v>
-      </c>
-      <c r="L85" s="288">
-        <v>43905</v>
+      <c r="I85" s="766" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="766"/>
+      <c r="K85" s="480">
+        <v>176.5</v>
+      </c>
+      <c r="L85" s="308" t="s">
+        <v>177</v>
       </c>
       <c r="M85" s="44" t="s">
         <v>246</v>
       </c>
       <c r="O85" s="153"/>
-      <c r="P85" s="625"/>
-      <c r="Q85" s="614"/>
+      <c r="P85" s="623"/>
+      <c r="Q85" s="540"/>
       <c r="R85" s="614"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="288"/>
-      <c r="V85" s="288"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
+      <c r="T85" s="288"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="288"/>
+      <c r="X85" s="288"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="347"/>
       <c r="B86" s="205"/>
-      <c r="C86" s="373"/>
+      <c r="C86" s="205"/>
       <c r="D86" s="279"/>
       <c r="E86" s="205"/>
       <c r="F86" s="373"/>
@@ -37960,12 +38109,12 @@
       <c r="H86" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I86" s="608" t="s">
-        <v>176</v>
-      </c>
-      <c r="J86" s="609"/>
+      <c r="I86" s="761" t="s">
+        <v>68</v>
+      </c>
+      <c r="J86" s="762"/>
       <c r="K86" s="619">
-        <v>147.06</v>
+        <v>55.66</v>
       </c>
       <c r="L86" s="288">
         <v>43910</v>
@@ -37975,7 +38124,7 @@
       </c>
       <c r="P86" s="369"/>
       <c r="Q86" s="614"/>
-      <c r="R86" s="540"/>
+      <c r="R86" s="614"/>
       <c r="S86" s="1"/>
       <c r="T86" s="288"/>
       <c r="U86" s="288"/>
@@ -37990,35 +38139,36 @@
       <c r="B87" s="205"/>
       <c r="C87" s="373"/>
       <c r="D87" s="279"/>
-      <c r="E87" s="238"/>
+      <c r="E87" s="205"/>
       <c r="F87" s="373"/>
       <c r="G87" s="373"/>
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="678" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="679"/>
-      <c r="K87" s="648">
-        <v>616.88</v>
+      <c r="I87" s="681" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="682"/>
+      <c r="K87" s="619">
+        <v>257.08999999999997</v>
       </c>
       <c r="L87" s="288">
-        <v>43900</v>
+        <v>43905</v>
       </c>
       <c r="M87" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="P87" s="373"/>
-      <c r="Q87" s="373"/>
-      <c r="R87" s="372"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="623"/>
+      <c r="Q87" s="614"/>
+      <c r="R87" s="614"/>
       <c r="S87" s="1"/>
-      <c r="T87" s="288"/>
+      <c r="T87" s="1"/>
       <c r="U87" s="288"/>
       <c r="V87" s="288"/>
-      <c r="W87" s="288"/>
-      <c r="X87" s="288"/>
-      <c r="Y87" s="373"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
@@ -38026,35 +38176,35 @@
       <c r="B88" s="205"/>
       <c r="C88" s="373"/>
       <c r="D88" s="279"/>
-      <c r="E88" s="238"/>
+      <c r="E88" s="205"/>
       <c r="F88" s="373"/>
       <c r="G88" s="373"/>
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="678" t="s">
-        <v>53</v>
-      </c>
-      <c r="J88" s="679"/>
-      <c r="K88" s="477">
-        <v>10</v>
+      <c r="I88" s="608" t="s">
+        <v>176</v>
+      </c>
+      <c r="J88" s="609"/>
+      <c r="K88" s="619">
+        <v>147.06</v>
       </c>
       <c r="L88" s="288">
-        <v>43905</v>
+        <v>43910</v>
       </c>
       <c r="M88" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="P88" s="455"/>
-      <c r="Q88" s="87"/>
-      <c r="R88" s="87"/>
+      <c r="P88" s="369"/>
+      <c r="Q88" s="614"/>
+      <c r="R88" s="540"/>
       <c r="S88" s="1"/>
       <c r="T88" s="288"/>
       <c r="U88" s="288"/>
       <c r="V88" s="288"/>
       <c r="W88" s="288"/>
       <c r="X88" s="288"/>
-      <c r="Y88" s="373"/>
+      <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
@@ -38068,111 +38218,155 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="766" t="s">
-        <v>61</v>
-      </c>
-      <c r="J89" s="766"/>
-      <c r="K89" s="658">
-        <f>I52</f>
-        <v>500.24</v>
+      <c r="I89" s="681" t="s">
+        <v>81</v>
+      </c>
+      <c r="J89" s="682"/>
+      <c r="K89" s="646">
+        <v>616.88</v>
       </c>
       <c r="L89" s="288">
-        <v>43910</v>
+        <v>43900</v>
       </c>
       <c r="M89" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="S89" s="373"/>
+      <c r="P89" s="373"/>
+      <c r="Q89" s="373"/>
+      <c r="R89" s="372"/>
+      <c r="S89" s="1"/>
       <c r="T89" s="288"/>
       <c r="U89" s="288"/>
       <c r="V89" s="288"/>
       <c r="W89" s="288"/>
       <c r="X89" s="288"/>
-      <c r="Y89" s="1"/>
+      <c r="Y89" s="373"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="348"/>
-      <c r="B90" s="337"/>
-      <c r="C90" s="338"/>
-      <c r="D90" s="349"/>
-      <c r="E90" s="337"/>
-      <c r="F90" s="338"/>
-      <c r="G90" s="338"/>
-      <c r="H90" s="353"/>
-      <c r="I90" s="368" t="s">
-        <v>179</v>
-      </c>
-      <c r="J90" s="368">
-        <f>SUM(K79:K89)</f>
-        <v>2007.28</v>
-      </c>
-      <c r="K90" s="730" t="s">
-        <v>180</v>
-      </c>
-      <c r="L90" s="730"/>
-      <c r="M90" s="605">
-        <v>0</v>
-      </c>
-      <c r="P90" s="373"/>
-      <c r="Q90" s="372"/>
-      <c r="R90" s="372"/>
-      <c r="S90" s="373"/>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="347"/>
+      <c r="B90" s="205"/>
+      <c r="C90" s="373"/>
+      <c r="D90" s="279"/>
+      <c r="E90" s="238"/>
+      <c r="F90" s="373"/>
+      <c r="G90" s="373"/>
+      <c r="H90" s="596" t="s">
+        <v>259</v>
+      </c>
+      <c r="I90" s="681" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90" s="682"/>
+      <c r="K90" s="477">
+        <v>10</v>
+      </c>
+      <c r="L90" s="288">
+        <v>43905</v>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="P90" s="455"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="87"/>
+      <c r="S90" s="1"/>
       <c r="T90" s="288"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="U90" s="288"/>
+      <c r="V90" s="288"/>
       <c r="W90" s="288"/>
       <c r="X90" s="288"/>
-      <c r="Y90" s="1"/>
+      <c r="Y90" s="373"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="566"/>
-      <c r="D91" s="566"/>
-      <c r="P91" s="373"/>
-      <c r="Q91" s="564"/>
-      <c r="R91" s="372"/>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="347"/>
+      <c r="B91" s="205"/>
+      <c r="C91" s="373"/>
+      <c r="D91" s="279"/>
+      <c r="E91" s="238"/>
+      <c r="F91" s="373"/>
+      <c r="G91" s="373"/>
+      <c r="H91" s="596" t="s">
+        <v>259</v>
+      </c>
+      <c r="I91" s="765" t="s">
+        <v>61</v>
+      </c>
+      <c r="J91" s="765"/>
+      <c r="K91" s="656">
+        <f>I54</f>
+        <v>500.24</v>
+      </c>
+      <c r="L91" s="288">
+        <v>43910</v>
+      </c>
+      <c r="M91" s="44" t="s">
+        <v>246</v>
+      </c>
       <c r="S91" s="373"/>
       <c r="T91" s="288"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="U91" s="288"/>
+      <c r="V91" s="288"/>
       <c r="W91" s="288"/>
       <c r="X91" s="288"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C92" s="465"/>
-      <c r="P92" s="128"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
+    <row r="92" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="348"/>
+      <c r="B92" s="337"/>
+      <c r="C92" s="338"/>
+      <c r="D92" s="349"/>
+      <c r="E92" s="337"/>
+      <c r="F92" s="338"/>
+      <c r="G92" s="338"/>
+      <c r="H92" s="353"/>
+      <c r="I92" s="368" t="s">
+        <v>179</v>
+      </c>
+      <c r="J92" s="368">
+        <f>SUM(K81:K91)</f>
+        <v>2007.28</v>
+      </c>
+      <c r="K92" s="678" t="s">
+        <v>180</v>
+      </c>
+      <c r="L92" s="678"/>
+      <c r="M92" s="605">
+        <v>0</v>
+      </c>
+      <c r="P92" s="373"/>
+      <c r="Q92" s="372"/>
+      <c r="R92" s="372"/>
+      <c r="S92" s="373"/>
+      <c r="T92" s="288"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
+      <c r="W92" s="288"/>
+      <c r="X92" s="288"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C93" s="465"/>
-      <c r="P93" s="128"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
+    <row r="93" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="566"/>
+      <c r="D93" s="566"/>
+      <c r="P93" s="373"/>
+      <c r="Q93" s="564"/>
+      <c r="R93" s="372"/>
+      <c r="S93" s="373"/>
+      <c r="T93" s="288"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
+      <c r="W93" s="288"/>
+      <c r="X93" s="288"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C94" s="465"/>
-      <c r="E94" s="87"/>
-      <c r="P94" s="195"/>
+      <c r="P94" s="128"/>
+      <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -38199,12 +38393,13 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C96" s="465"/>
-      <c r="K96" s="565"/>
-      <c r="P96" s="468"/>
-      <c r="Q96" s="1"/>
+      <c r="E96" s="87"/>
+      <c r="P96" s="195"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
@@ -38212,11 +38407,13 @@
     </row>
     <row r="97" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C97" s="465"/>
-      <c r="P97" s="468"/>
+      <c r="P97" s="128"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
@@ -38224,49 +38421,64 @@
     </row>
     <row r="98" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C98" s="465"/>
-      <c r="M98" s="565"/>
+      <c r="K98" s="565"/>
       <c r="P98" s="468"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C99" s="465"/>
       <c r="P99" s="468"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C100" s="465"/>
-      <c r="M100" s="1"/>
+      <c r="M100" s="565"/>
       <c r="P100" s="468"/>
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C101" s="465"/>
-      <c r="M101" s="1"/>
       <c r="P101" s="468"/>
+      <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C102" s="465"/>
       <c r="M102" s="1"/>
       <c r="P102" s="468"/>
+      <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C103" s="465"/>
-      <c r="M103" s="373"/>
+      <c r="M103" s="1"/>
       <c r="P103" s="468"/>
     </row>
     <row r="104" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C104" s="465"/>
-      <c r="M104" s="373"/>
+      <c r="M104" s="1"/>
       <c r="P104" s="468"/>
     </row>
     <row r="105" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C105" s="465"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="373"/>
       <c r="P105" s="468"/>
     </row>
     <row r="106" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C106" s="465"/>
-      <c r="M106" s="1"/>
+      <c r="M106" s="373"/>
       <c r="P106" s="468"/>
     </row>
     <row r="107" spans="3:26" x14ac:dyDescent="0.25">
@@ -38281,10 +38493,12 @@
     </row>
     <row r="109" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C109" s="465"/>
+      <c r="M109" s="1"/>
       <c r="P109" s="468"/>
     </row>
     <row r="110" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C110" s="465"/>
+      <c r="M110" s="1"/>
       <c r="P110" s="468"/>
     </row>
     <row r="111" spans="3:26" x14ac:dyDescent="0.25">
@@ -38321,37 +38535,38 @@
     </row>
     <row r="119" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C119" s="465"/>
+      <c r="P119" s="468"/>
     </row>
     <row r="120" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C120" s="465"/>
+      <c r="P120" s="468"/>
+    </row>
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C121" s="465"/>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C122" s="465"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="A68:B68"/>
+  <mergeCells count="55">
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I33:K34"/>
@@ -38364,22 +38579,31 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:K80"/>
+    <mergeCell ref="L79:M80"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="A50:M51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K92:L92"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -38395,11 +38619,11 @@
   </sheetPr>
   <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38760,7 +38984,9 @@
         <v>424</v>
       </c>
       <c r="H14" s="232"/>
-      <c r="I14" s="491"/>
+      <c r="I14" s="491">
+        <v>134.19999999999999</v>
+      </c>
       <c r="J14" s="490"/>
       <c r="K14" s="492"/>
       <c r="L14" s="492"/>
@@ -38786,8 +39012,10 @@
         <v>392.5</v>
       </c>
       <c r="G15" s="232"/>
-      <c r="H15" s="649"/>
-      <c r="I15" s="117"/>
+      <c r="H15" s="647"/>
+      <c r="I15" s="117">
+        <v>226</v>
+      </c>
       <c r="J15" s="490"/>
       <c r="K15" s="492"/>
       <c r="L15" s="492"/>
@@ -38813,7 +39041,9 @@
       </c>
       <c r="G16" s="232"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="491"/>
+      <c r="I16" s="491">
+        <v>107.5</v>
+      </c>
       <c r="J16" s="490"/>
       <c r="K16" s="492"/>
       <c r="L16" s="492"/>
@@ -38865,7 +39095,9 @@
         <v>505.2</v>
       </c>
       <c r="H18" s="232"/>
-      <c r="I18" s="491"/>
+      <c r="I18" s="491">
+        <v>64.3</v>
+      </c>
       <c r="J18" s="490"/>
       <c r="K18" s="492"/>
       <c r="L18" s="492"/>
@@ -38891,7 +39123,9 @@
         <v>271.10000000000002</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="491"/>
+      <c r="I19" s="491">
+        <v>124.2</v>
+      </c>
       <c r="J19" s="490"/>
       <c r="K19" s="492"/>
       <c r="L19" s="492"/>
@@ -38918,7 +39152,9 @@
       </c>
       <c r="G20" s="232"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="497"/>
+      <c r="I20" s="497">
+        <v>126.3</v>
+      </c>
       <c r="J20" s="492"/>
       <c r="K20" s="492"/>
       <c r="L20" s="492"/>
@@ -38940,7 +39176,9 @@
       </c>
       <c r="G21" s="232"/>
       <c r="H21" s="232"/>
-      <c r="I21" s="497"/>
+      <c r="I21" s="497">
+        <v>71.75</v>
+      </c>
       <c r="J21" s="492"/>
       <c r="K21" s="492"/>
       <c r="L21" s="492"/>
@@ -38962,7 +39200,9 @@
         <v>630.20000000000005</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="497"/>
+      <c r="I22" s="497">
+        <v>83.5</v>
+      </c>
       <c r="J22" s="492"/>
       <c r="K22" s="492"/>
       <c r="L22" s="492"/>
@@ -38985,7 +39225,9 @@
         <v>429.5</v>
       </c>
       <c r="H23" s="520"/>
-      <c r="I23" s="497"/>
+      <c r="I23" s="497">
+        <v>102.2</v>
+      </c>
       <c r="J23" s="492"/>
       <c r="K23" s="492"/>
       <c r="L23" s="492"/>
@@ -39021,11 +39263,17 @@
         <v>43914</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="232"/>
+      <c r="E25" s="22">
+        <v>831.4</v>
+      </c>
+      <c r="F25" s="232">
+        <v>220.9</v>
+      </c>
       <c r="G25" s="232"/>
       <c r="H25" s="232"/>
-      <c r="I25" s="497"/>
+      <c r="I25" s="497">
+        <v>205.6</v>
+      </c>
       <c r="J25" s="492"/>
       <c r="K25" s="492"/>
       <c r="L25" s="521"/>
@@ -39038,12 +39286,18 @@
       <c r="C26" s="17">
         <v>43915</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22">
+        <v>698.2</v>
+      </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22">
+        <v>528</v>
+      </c>
       <c r="G26" s="578"/>
       <c r="H26" s="232"/>
-      <c r="I26" s="497"/>
+      <c r="I26" s="497">
+        <v>127.3</v>
+      </c>
       <c r="J26" s="492"/>
       <c r="K26" s="492"/>
       <c r="L26" s="521"/>
@@ -39056,12 +39310,18 @@
       <c r="C27" s="17">
         <v>43916</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="22">
+        <v>1128.5999999999999</v>
+      </c>
       <c r="E27" s="22"/>
       <c r="F27" s="232"/>
-      <c r="G27" s="619"/>
+      <c r="G27" s="232">
+        <v>509.81</v>
+      </c>
       <c r="H27" s="232"/>
-      <c r="I27" s="496"/>
+      <c r="I27" s="496">
+        <v>115</v>
+      </c>
       <c r="J27" s="500"/>
       <c r="K27" s="500"/>
       <c r="L27" s="500"/>
@@ -39080,9 +39340,13 @@
         <v>43917</v>
       </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="22">
+        <v>996</v>
+      </c>
       <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
+      <c r="G28" s="232">
+        <v>296.64999999999998</v>
+      </c>
       <c r="H28" s="232"/>
       <c r="I28" s="496"/>
       <c r="J28" s="500"/>
@@ -39102,9 +39366,13 @@
         <v>43918</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="22">
+        <v>932.5</v>
+      </c>
       <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
+      <c r="G29" s="232">
+        <v>351.5</v>
+      </c>
       <c r="H29" s="232"/>
       <c r="I29" s="496"/>
       <c r="J29" s="500"/>
@@ -39123,9 +39391,13 @@
       <c r="C30" s="17">
         <v>43919</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="22">
+        <v>495.8</v>
+      </c>
       <c r="E30" s="22"/>
-      <c r="F30" s="232"/>
+      <c r="F30" s="232">
+        <v>363.1</v>
+      </c>
       <c r="G30" s="232"/>
       <c r="H30" s="232"/>
       <c r="I30" s="496"/>
@@ -39185,24 +39457,24 @@
     </row>
     <row r="33" spans="1:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
-      <c r="C33" s="635" t="s">
+      <c r="C33" s="633" t="s">
         <v>229</v>
       </c>
       <c r="D33" s="254">
         <f>COUNT(D2:D32)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E33" s="254">
         <f>COUNT(E2:E32)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" s="254">
         <f>COUNT(F2:F32)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G33" s="254">
         <f>COUNT(G2:G32)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I33" s="501"/>
       <c r="J33" s="501"/>
@@ -39220,19 +39492,19 @@
       </c>
       <c r="D34" s="244">
         <f>SUM(D2:D32)</f>
-        <v>11278</v>
+        <v>13600.6</v>
       </c>
       <c r="E34" s="244">
         <f>SUM(E2:E32)</f>
-        <v>11464.85</v>
+        <v>14224.75</v>
       </c>
       <c r="F34" s="244">
         <f>SUM(F2:F32)</f>
-        <v>3524.6</v>
+        <v>4636.6000000000004</v>
       </c>
       <c r="G34" s="244">
         <f t="shared" ref="G34" si="1">SUM(G2:G32)</f>
-        <v>6391</v>
+        <v>7548.96</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="259" t="s">
@@ -39270,15 +39542,15 @@
       <c r="H35" s="1"/>
       <c r="I35" s="298">
         <f>SUM(D2:E32)</f>
-        <v>22742.850000000002</v>
+        <v>27825.350000000002</v>
       </c>
       <c r="J35" s="298">
         <f>SUM(F2:G32)</f>
-        <v>9915.6</v>
+        <v>12185.56</v>
       </c>
       <c r="K35" s="475">
         <f>SUM(I2:I32)</f>
-        <v>1625.2</v>
+        <v>3113.05</v>
       </c>
       <c r="L35" s="370"/>
       <c r="M35" s="373"/>
@@ -39293,19 +39565,19 @@
       </c>
       <c r="D36" s="89">
         <f>ABS(D34-D35)</f>
-        <v>460.09000000000015</v>
+        <v>1862.5100000000002</v>
       </c>
       <c r="E36" s="89">
         <f>ABS(E34-E35)</f>
-        <v>1185.4499999999989</v>
+        <v>1574.4500000000007</v>
       </c>
       <c r="F36" s="89">
         <f>ABS(F34-F35)</f>
-        <v>1093.0999999999999</v>
+        <v>2205.1000000000004</v>
       </c>
       <c r="G36" s="89">
         <f>ABS(G34-G35)</f>
-        <v>747.5</v>
+        <v>1905.46</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="370"/>
@@ -39324,19 +39596,19 @@
       </c>
       <c r="D37" s="90">
         <f>ROUND(D36*1%,2)</f>
-        <v>4.5999999999999996</v>
+        <v>18.63</v>
       </c>
       <c r="E37" s="90">
         <f>ROUND(E36*1%,2)</f>
-        <v>11.85</v>
+        <v>15.74</v>
       </c>
       <c r="F37" s="90">
         <f t="shared" ref="F37:G37" si="2">ROUND(F36*1%,2)</f>
-        <v>10.93</v>
+        <v>22.05</v>
       </c>
       <c r="G37" s="90">
         <f t="shared" si="2"/>
-        <v>7.48</v>
+        <v>19.05</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="370"/>
@@ -39409,19 +39681,19 @@
       </c>
       <c r="D40" s="88">
         <f>ROUND(20*D33,2)</f>
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E40" s="88">
         <f>ROUND(20*E33,2)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F40" s="549">
         <f>ROUND(23*F33,2)</f>
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G40" s="89">
         <f>ROUND(23*G33,2)</f>
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="129"/>
@@ -39484,19 +39756,19 @@
       </c>
       <c r="D43" s="478">
         <f>D37+D38+D39+D40-D41</f>
-        <v>389.03000000000003</v>
+        <v>463.06</v>
       </c>
       <c r="E43" s="478">
         <f>E37+E38+E39+E40-E41-E42</f>
-        <v>400.48</v>
+        <v>464.37</v>
       </c>
       <c r="F43" s="478">
         <f>F37+F38+F40</f>
-        <v>267.88</v>
+        <v>348</v>
       </c>
       <c r="G43" s="478">
         <f>G37+G38+G39+G40-G41-G42</f>
-        <v>264.7</v>
+        <v>345.27000000000004</v>
       </c>
       <c r="I43" s="373"/>
       <c r="J43" s="373"/>
@@ -39514,19 +39786,19 @@
       </c>
       <c r="D44" s="293">
         <f>D37+D38+D39+D40</f>
-        <v>726.74</v>
+        <v>800.77</v>
       </c>
       <c r="E44" s="293">
         <f>E37+E38+E39+E40</f>
-        <v>681.36</v>
+        <v>745.25</v>
       </c>
       <c r="F44" s="293">
         <f>F37+F38+F39+F40</f>
-        <v>267.88</v>
+        <v>348</v>
       </c>
       <c r="G44" s="293">
         <f>G37+G38+G39+G40</f>
-        <v>521.79</v>
+        <v>602.36</v>
       </c>
       <c r="I44" s="486"/>
       <c r="J44" s="373"/>
@@ -39623,7 +39895,7 @@
       <c r="F49" s="585"/>
       <c r="G49" s="585"/>
       <c r="H49" s="586"/>
-      <c r="I49" s="636"/>
+      <c r="I49" s="634"/>
       <c r="J49" s="373"/>
       <c r="K49" s="373"/>
       <c r="L49" s="373"/>
@@ -39638,11 +39910,11 @@
     <row r="50" spans="1:19" s="87" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="585"/>
       <c r="D50" s="585"/>
-      <c r="E50" s="622"/>
-      <c r="F50" s="622"/>
+      <c r="E50" s="620"/>
+      <c r="F50" s="620"/>
       <c r="G50" s="585"/>
       <c r="H50" s="171"/>
-      <c r="I50" s="623"/>
+      <c r="I50" s="621"/>
       <c r="J50" s="591"/>
       <c r="K50" s="585"/>
       <c r="L50" s="373"/>
@@ -39659,8 +39931,8 @@
       <c r="B51" s="373"/>
       <c r="C51" s="585"/>
       <c r="D51" s="585"/>
-      <c r="E51" s="622"/>
-      <c r="F51" s="622"/>
+      <c r="E51" s="620"/>
+      <c r="F51" s="620"/>
       <c r="G51" s="585"/>
       <c r="H51" s="586"/>
       <c r="I51" s="585"/>
@@ -39718,7 +39990,7 @@
       <c r="C54" s="373"/>
       <c r="D54" s="373"/>
       <c r="E54" s="147"/>
-      <c r="H54" s="622"/>
+      <c r="H54" s="620"/>
       <c r="I54" s="373"/>
       <c r="J54" s="589"/>
       <c r="K54" s="373"/>
@@ -39737,7 +40009,7 @@
       <c r="C55" s="373"/>
       <c r="D55" s="373"/>
       <c r="E55" s="147"/>
-      <c r="H55" s="622"/>
+      <c r="H55" s="620"/>
       <c r="I55" s="373"/>
       <c r="J55" s="589"/>
       <c r="K55" s="373"/>
@@ -39756,7 +40028,7 @@
       <c r="C56" s="373"/>
       <c r="D56" s="373"/>
       <c r="E56" s="147"/>
-      <c r="H56" s="622"/>
+      <c r="H56" s="620"/>
       <c r="I56" s="373"/>
       <c r="J56" s="589"/>
       <c r="K56" s="373"/>
@@ -40221,27 +40493,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="704" t="s">
+      <c r="A1" s="710" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="705"/>
-      <c r="C1" s="705"/>
-      <c r="D1" s="705"/>
-      <c r="E1" s="705"/>
-      <c r="F1" s="705"/>
-      <c r="G1" s="706"/>
+      <c r="B1" s="707"/>
+      <c r="C1" s="707"/>
+      <c r="D1" s="707"/>
+      <c r="E1" s="707"/>
+      <c r="F1" s="707"/>
+      <c r="G1" s="711"/>
       <c r="H1" s="411"/>
-      <c r="I1" s="701" t="s">
+      <c r="I1" s="708" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="701"/>
-      <c r="K1" s="701"/>
-      <c r="L1" s="701"/>
+      <c r="J1" s="708"/>
+      <c r="K1" s="708"/>
+      <c r="L1" s="708"/>
       <c r="M1" s="709"/>
-      <c r="N1" s="705" t="s">
+      <c r="N1" s="707" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="705"/>
+      <c r="O1" s="707"/>
       <c r="P1" s="109"/>
       <c r="Q1" s="110"/>
     </row>
@@ -40478,7 +40750,7 @@
       <c r="Q6" s="112"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="707">
+      <c r="A7" s="712">
         <v>43648</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -40498,20 +40770,20 @@
       <c r="G7" s="107">
         <v>1162</v>
       </c>
-      <c r="H7" s="684" t="s">
+      <c r="H7" s="716" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="685" t="s">
+      <c r="I7" s="702" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="685" t="s">
+      <c r="J7" s="702" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="685"/>
-      <c r="L7" s="686" t="s">
+      <c r="K7" s="702"/>
+      <c r="L7" s="704" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="687" t="s">
+      <c r="M7" s="706" t="s">
         <v>95</v>
       </c>
       <c r="N7" s="378"/>
@@ -40524,7 +40796,7 @@
       <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="708"/>
+      <c r="A8" s="713"/>
       <c r="B8" s="376" t="s">
         <v>32</v>
       </c>
@@ -40545,16 +40817,16 @@
       <c r="G8" s="107">
         <v>378</v>
       </c>
-      <c r="H8" s="684"/>
-      <c r="I8" s="685"/>
+      <c r="H8" s="716"/>
+      <c r="I8" s="702"/>
       <c r="J8" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="686"/>
-      <c r="M8" s="687"/>
+      <c r="L8" s="704"/>
+      <c r="M8" s="706"/>
       <c r="N8" s="378"/>
       <c r="O8" s="53" t="s">
         <v>67</v>
@@ -41170,10 +41442,10 @@
       <c r="H24" s="43">
         <v>7</v>
       </c>
-      <c r="I24" s="675" t="s">
+      <c r="I24" s="714" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="676"/>
+      <c r="J24" s="715"/>
       <c r="K24" s="376">
         <v>458.46</v>
       </c>
@@ -41196,10 +41468,10 @@
       <c r="H25" s="43">
         <v>8</v>
       </c>
-      <c r="I25" s="675" t="s">
+      <c r="I25" s="714" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="676"/>
+      <c r="J25" s="715"/>
       <c r="K25" s="376">
         <v>4.58</v>
       </c>
@@ -41251,10 +41523,10 @@
       <c r="H27" s="43">
         <v>10</v>
       </c>
-      <c r="I27" s="678" t="s">
+      <c r="I27" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="679"/>
+      <c r="J27" s="682"/>
       <c r="K27" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -41279,10 +41551,10 @@
       <c r="H28" s="43">
         <v>11</v>
       </c>
-      <c r="I28" s="678" t="s">
+      <c r="I28" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="679"/>
+      <c r="J28" s="682"/>
       <c r="K28" s="53">
         <v>1730.44</v>
       </c>
@@ -41399,11 +41671,11 @@
       <c r="F34" s="109"/>
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
-      <c r="I34" s="688" t="s">
+      <c r="I34" s="729" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="688"/>
-      <c r="K34" s="688"/>
+      <c r="J34" s="729"/>
+      <c r="K34" s="729"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109"/>
       <c r="N34" s="109"/>
@@ -41422,13 +41694,13 @@
       <c r="F35" s="382"/>
       <c r="G35" s="382"/>
       <c r="H35" s="373"/>
-      <c r="I35" s="689"/>
-      <c r="J35" s="689"/>
-      <c r="K35" s="689"/>
+      <c r="I35" s="730"/>
+      <c r="J35" s="730"/>
+      <c r="K35" s="730"/>
       <c r="L35" s="382"/>
       <c r="M35" s="382"/>
-      <c r="N35" s="699"/>
-      <c r="O35" s="699"/>
+      <c r="N35" s="722"/>
+      <c r="O35" s="722"/>
       <c r="P35" s="373"/>
       <c r="Q35" s="373"/>
       <c r="R35" s="373"/>
@@ -41458,27 +41730,27 @@
       <c r="T36" s="51"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="700" t="s">
+      <c r="A37" s="723" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="694"/>
-      <c r="C37" s="694"/>
-      <c r="D37" s="694"/>
-      <c r="E37" s="694"/>
-      <c r="F37" s="694"/>
-      <c r="G37" s="694"/>
+      <c r="B37" s="724"/>
+      <c r="C37" s="724"/>
+      <c r="D37" s="724"/>
+      <c r="E37" s="724"/>
+      <c r="F37" s="724"/>
+      <c r="G37" s="724"/>
       <c r="H37" s="108"/>
-      <c r="I37" s="701" t="s">
+      <c r="I37" s="708" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="701"/>
-      <c r="K37" s="701"/>
-      <c r="L37" s="701"/>
-      <c r="M37" s="702"/>
-      <c r="N37" s="694" t="s">
+      <c r="J37" s="708"/>
+      <c r="K37" s="708"/>
+      <c r="L37" s="708"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="O37" s="694"/>
+      <c r="O37" s="724"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -41772,20 +42044,20 @@
       <c r="G43" s="168">
         <v>1291</v>
       </c>
-      <c r="H43" s="703" t="s">
+      <c r="H43" s="726" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="685" t="s">
+      <c r="I43" s="702" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="685" t="s">
+      <c r="J43" s="702" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="685"/>
-      <c r="L43" s="686" t="s">
+      <c r="K43" s="702"/>
+      <c r="L43" s="704" t="s">
         <v>93</v>
       </c>
-      <c r="M43" s="695" t="s">
+      <c r="M43" s="717" t="s">
         <v>95</v>
       </c>
       <c r="N43" s="157">
@@ -41828,16 +42100,16 @@
       <c r="G44" s="165">
         <v>612</v>
       </c>
-      <c r="H44" s="684"/>
-      <c r="I44" s="685"/>
+      <c r="H44" s="716"/>
+      <c r="I44" s="702"/>
       <c r="J44" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="686"/>
-      <c r="M44" s="695"/>
+      <c r="L44" s="704"/>
+      <c r="M44" s="717"/>
       <c r="N44" s="52">
         <v>43694</v>
       </c>
@@ -41958,10 +42230,10 @@
         <f>M45-I46-J46-K46+L46</f>
         <v>101446.18</v>
       </c>
-      <c r="N46" s="696" t="s">
+      <c r="N46" s="718" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="697"/>
+      <c r="O46" s="719"/>
       <c r="P46" s="218">
         <f>SUM(P39:P45)</f>
         <v>5413.1299999999992</v>
@@ -42122,10 +42394,10 @@
       <c r="G50" s="166">
         <v>184</v>
       </c>
-      <c r="H50" s="698" t="s">
+      <c r="H50" s="720" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="691"/>
+      <c r="I50" s="721"/>
       <c r="J50" s="214" t="s">
         <v>121</v>
       </c>
@@ -42414,10 +42686,10 @@
       <c r="H60" s="1">
         <v>7</v>
       </c>
-      <c r="I60" s="675" t="s">
+      <c r="I60" s="714" t="s">
         <v>48</v>
       </c>
-      <c r="J60" s="676"/>
+      <c r="J60" s="715"/>
       <c r="K60" s="376">
         <v>458.46</v>
       </c>
@@ -42441,10 +42713,10 @@
       <c r="H61" s="1">
         <v>8</v>
       </c>
-      <c r="I61" s="675" t="s">
+      <c r="I61" s="714" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="676"/>
+      <c r="J61" s="715"/>
       <c r="K61" s="376">
         <v>4.58</v>
       </c>
@@ -42497,10 +42769,10 @@
       <c r="H63" s="1">
         <v>10</v>
       </c>
-      <c r="I63" s="678" t="s">
+      <c r="I63" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="679"/>
+      <c r="J63" s="682"/>
       <c r="K63" s="376">
         <f>83.73+187.98</f>
         <v>271.70999999999998</v>
@@ -42527,10 +42799,10 @@
       <c r="H64" s="1">
         <v>11</v>
       </c>
-      <c r="I64" s="678" t="s">
+      <c r="I64" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J64" s="679"/>
+      <c r="J64" s="682"/>
       <c r="K64" s="53">
         <v>1730.44</v>
       </c>
@@ -42594,27 +42866,27 @@
       <c r="S66" s="110"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="692" t="s">
+      <c r="A67" s="727" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="693"/>
-      <c r="C67" s="693"/>
-      <c r="D67" s="693"/>
-      <c r="E67" s="693"/>
-      <c r="F67" s="693"/>
-      <c r="G67" s="693"/>
+      <c r="B67" s="728"/>
+      <c r="C67" s="728"/>
+      <c r="D67" s="728"/>
+      <c r="E67" s="728"/>
+      <c r="F67" s="728"/>
+      <c r="G67" s="728"/>
       <c r="H67" s="109"/>
-      <c r="I67" s="693" t="s">
+      <c r="I67" s="728" t="s">
         <v>136</v>
       </c>
-      <c r="J67" s="693"/>
-      <c r="K67" s="693"/>
-      <c r="L67" s="693"/>
-      <c r="M67" s="693"/>
-      <c r="N67" s="694" t="s">
+      <c r="J67" s="728"/>
+      <c r="K67" s="728"/>
+      <c r="L67" s="728"/>
+      <c r="M67" s="728"/>
+      <c r="N67" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="694"/>
+      <c r="O67" s="724"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -42887,20 +43159,20 @@
       <c r="G73" s="261">
         <v>621</v>
       </c>
-      <c r="H73" s="684" t="s">
+      <c r="H73" s="716" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="685" t="s">
+      <c r="I73" s="702" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="685" t="s">
+      <c r="J73" s="702" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="685"/>
-      <c r="L73" s="686" t="s">
+      <c r="K73" s="702"/>
+      <c r="L73" s="704" t="s">
         <v>93</v>
       </c>
-      <c r="M73" s="686" t="s">
+      <c r="M73" s="704" t="s">
         <v>95</v>
       </c>
       <c r="N73" s="274"/>
@@ -42934,16 +43206,16 @@
         <v>оплачено</v>
       </c>
       <c r="G74" s="165"/>
-      <c r="H74" s="684"/>
-      <c r="I74" s="685"/>
+      <c r="H74" s="716"/>
+      <c r="I74" s="702"/>
       <c r="J74" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K74" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="686"/>
-      <c r="M74" s="686"/>
+      <c r="L74" s="704"/>
+      <c r="M74" s="704"/>
       <c r="N74" s="273"/>
       <c r="O74" s="373"/>
       <c r="P74" s="373"/>
@@ -42991,11 +43263,11 @@
         <v>98779.159999999989</v>
       </c>
       <c r="N75" s="273"/>
-      <c r="O75" s="673" t="s">
+      <c r="O75" s="732" t="s">
         <v>196</v>
       </c>
-      <c r="P75" s="673"/>
-      <c r="Q75" s="673"/>
+      <c r="P75" s="732"/>
+      <c r="Q75" s="732"/>
       <c r="R75" s="373"/>
       <c r="S75" s="422"/>
     </row>
@@ -43039,9 +43311,9 @@
         <v>101446.18</v>
       </c>
       <c r="N76" s="373"/>
-      <c r="O76" s="674"/>
-      <c r="P76" s="674"/>
-      <c r="Q76" s="674"/>
+      <c r="O76" s="733"/>
+      <c r="P76" s="733"/>
+      <c r="Q76" s="733"/>
       <c r="R76" s="373"/>
       <c r="S76" s="422"/>
     </row>
@@ -43188,10 +43460,10 @@
         <v>оплачено</v>
       </c>
       <c r="G80" s="165"/>
-      <c r="H80" s="690" t="s">
+      <c r="H80" s="731" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="691"/>
+      <c r="I80" s="721"/>
       <c r="J80" s="214" t="s">
         <v>121</v>
       </c>
@@ -43717,10 +43989,10 @@
       <c r="H95" s="1">
         <v>7</v>
       </c>
-      <c r="I95" s="675" t="s">
+      <c r="I95" s="714" t="s">
         <v>48</v>
       </c>
-      <c r="J95" s="676"/>
+      <c r="J95" s="715"/>
       <c r="K95" s="376">
         <v>458.46</v>
       </c>
@@ -43755,10 +44027,10 @@
       <c r="H96" s="1">
         <v>8</v>
       </c>
-      <c r="I96" s="675" t="s">
+      <c r="I96" s="714" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="676"/>
+      <c r="J96" s="715"/>
       <c r="K96" s="376">
         <v>4.58</v>
       </c>
@@ -43831,10 +44103,10 @@
       <c r="H98" s="1">
         <v>10</v>
       </c>
-      <c r="I98" s="678" t="s">
+      <c r="I98" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="679"/>
+      <c r="J98" s="682"/>
       <c r="K98" s="376">
         <v>276</v>
       </c>
@@ -43869,10 +44141,10 @@
       <c r="H99" s="1">
         <v>11</v>
       </c>
-      <c r="I99" s="678" t="s">
+      <c r="I99" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J99" s="679"/>
+      <c r="J99" s="682"/>
       <c r="K99" s="53">
         <v>1730.44</v>
       </c>
@@ -44252,23 +44524,23 @@
       <c r="S112" s="110"/>
     </row>
     <row r="113" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="681" t="s">
+      <c r="A113" s="696" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="682"/>
-      <c r="C113" s="682"/>
-      <c r="D113" s="682"/>
-      <c r="E113" s="682"/>
-      <c r="F113" s="682"/>
-      <c r="G113" s="683"/>
+      <c r="B113" s="697"/>
+      <c r="C113" s="697"/>
+      <c r="D113" s="697"/>
+      <c r="E113" s="697"/>
+      <c r="F113" s="697"/>
+      <c r="G113" s="698"/>
       <c r="H113" s="329"/>
-      <c r="I113" s="682" t="s">
+      <c r="I113" s="697" t="s">
         <v>158</v>
       </c>
-      <c r="J113" s="682"/>
-      <c r="K113" s="682"/>
-      <c r="L113" s="682"/>
-      <c r="M113" s="683"/>
+      <c r="J113" s="697"/>
+      <c r="K113" s="697"/>
+      <c r="L113" s="697"/>
+      <c r="M113" s="698"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -44498,27 +44770,27 @@
       <c r="G119" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="H119" s="684" t="s">
+      <c r="H119" s="716" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="685" t="s">
+      <c r="I119" s="702" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="685" t="s">
+      <c r="J119" s="702" t="s">
         <v>21</v>
       </c>
-      <c r="K119" s="685"/>
-      <c r="L119" s="686" t="s">
+      <c r="K119" s="702"/>
+      <c r="L119" s="704" t="s">
         <v>93</v>
       </c>
-      <c r="M119" s="687" t="s">
+      <c r="M119" s="706" t="s">
         <v>95</v>
       </c>
-      <c r="O119" s="673" t="s">
+      <c r="O119" s="732" t="s">
         <v>197</v>
       </c>
-      <c r="P119" s="673"/>
-      <c r="Q119" s="673"/>
+      <c r="P119" s="732"/>
+      <c r="Q119" s="732"/>
       <c r="R119" s="1"/>
       <c r="S119" s="112"/>
     </row>
@@ -44544,19 +44816,19 @@
         <v>оплачено</v>
       </c>
       <c r="G120" s="318"/>
-      <c r="H120" s="684"/>
-      <c r="I120" s="685"/>
+      <c r="H120" s="716"/>
+      <c r="I120" s="702"/>
       <c r="J120" s="380" t="s">
         <v>21</v>
       </c>
       <c r="K120" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="L120" s="686"/>
-      <c r="M120" s="687"/>
-      <c r="O120" s="674"/>
-      <c r="P120" s="674"/>
-      <c r="Q120" s="674"/>
+      <c r="L120" s="704"/>
+      <c r="M120" s="706"/>
+      <c r="O120" s="733"/>
+      <c r="P120" s="733"/>
+      <c r="Q120" s="733"/>
       <c r="R120" s="1"/>
       <c r="S120" s="112"/>
     </row>
@@ -44814,10 +45086,10 @@
         <v>оплачено</v>
       </c>
       <c r="G126" s="318"/>
-      <c r="H126" s="690" t="s">
+      <c r="H126" s="731" t="s">
         <v>122</v>
       </c>
-      <c r="I126" s="691"/>
+      <c r="I126" s="721"/>
       <c r="J126" s="312" t="s">
         <v>121</v>
       </c>
@@ -45061,10 +45333,10 @@
       <c r="H134" s="1">
         <v>8</v>
       </c>
-      <c r="I134" s="675" t="s">
+      <c r="I134" s="714" t="s">
         <v>53</v>
       </c>
-      <c r="J134" s="676"/>
+      <c r="J134" s="715"/>
       <c r="K134" s="376">
         <v>7.01</v>
       </c>
@@ -45121,10 +45393,10 @@
       <c r="H136" s="1">
         <v>10</v>
       </c>
-      <c r="I136" s="678" t="s">
+      <c r="I136" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J136" s="679"/>
+      <c r="J136" s="682"/>
       <c r="K136" s="376">
         <v>176.72</v>
       </c>
@@ -45151,10 +45423,10 @@
       <c r="H137" s="1">
         <v>11</v>
       </c>
-      <c r="I137" s="678" t="s">
+      <c r="I137" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J137" s="679"/>
+      <c r="J137" s="682"/>
       <c r="K137" s="53">
         <v>1730.7</v>
       </c>
@@ -45378,23 +45650,23 @@
       <c r="S147" s="110"/>
     </row>
     <row r="148" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="681" t="s">
+      <c r="A148" s="696" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="682"/>
-      <c r="C148" s="682"/>
-      <c r="D148" s="682"/>
-      <c r="E148" s="682"/>
-      <c r="F148" s="682"/>
-      <c r="G148" s="683"/>
+      <c r="B148" s="697"/>
+      <c r="C148" s="697"/>
+      <c r="D148" s="697"/>
+      <c r="E148" s="697"/>
+      <c r="F148" s="697"/>
+      <c r="G148" s="698"/>
       <c r="H148" s="352"/>
-      <c r="I148" s="682" t="s">
+      <c r="I148" s="697" t="s">
         <v>165</v>
       </c>
-      <c r="J148" s="682"/>
-      <c r="K148" s="682"/>
-      <c r="L148" s="682"/>
-      <c r="M148" s="683"/>
+      <c r="J148" s="697"/>
+      <c r="K148" s="697"/>
+      <c r="L148" s="697"/>
+      <c r="M148" s="698"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -45857,11 +46129,11 @@
       <c r="L163" s="1"/>
       <c r="M163" s="44"/>
       <c r="O163" s="1"/>
-      <c r="P163" s="731" t="s">
+      <c r="P163" s="679" t="s">
         <v>283</v>
       </c>
-      <c r="Q163" s="731"/>
-      <c r="R163" s="731"/>
+      <c r="Q163" s="679"/>
+      <c r="R163" s="679"/>
       <c r="S163" s="112"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -45885,9 +46157,9 @@
       <c r="L164" s="1"/>
       <c r="M164" s="44"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="731"/>
-      <c r="Q164" s="731"/>
-      <c r="R164" s="731"/>
+      <c r="P164" s="679"/>
+      <c r="Q164" s="679"/>
+      <c r="R164" s="679"/>
       <c r="S164" s="112"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -45911,9 +46183,9 @@
       <c r="L165" s="1"/>
       <c r="M165" s="44"/>
       <c r="O165" s="1"/>
-      <c r="P165" s="731"/>
-      <c r="Q165" s="731"/>
-      <c r="R165" s="731"/>
+      <c r="P165" s="679"/>
+      <c r="Q165" s="679"/>
+      <c r="R165" s="679"/>
       <c r="S165" s="112"/>
     </row>
     <row r="166" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45943,27 +46215,27 @@
       <c r="S166" s="112"/>
     </row>
     <row r="167" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="626"/>
+      <c r="A167" s="624"/>
       <c r="B167" s="359"/>
       <c r="C167" s="360"/>
       <c r="D167" s="360"/>
       <c r="E167" s="361"/>
       <c r="F167" s="359"/>
       <c r="G167" s="392"/>
-      <c r="H167" s="723" t="s">
+      <c r="H167" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I167" s="725" t="s">
+      <c r="I167" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J167" s="725" t="s">
+      <c r="J167" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K167" s="725"/>
-      <c r="L167" s="726" t="s">
+      <c r="K167" s="701"/>
+      <c r="L167" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M167" s="727" t="s">
+      <c r="M167" s="705" t="s">
         <v>95</v>
       </c>
       <c r="O167" s="1"/>
@@ -45980,16 +46252,16 @@
       <c r="E168" s="222"/>
       <c r="F168" s="207"/>
       <c r="G168" s="207"/>
-      <c r="H168" s="724"/>
-      <c r="I168" s="685"/>
+      <c r="H168" s="700"/>
+      <c r="I168" s="702"/>
       <c r="J168" s="607" t="s">
         <v>21</v>
       </c>
       <c r="K168" s="607" t="s">
         <v>25</v>
       </c>
-      <c r="L168" s="686"/>
-      <c r="M168" s="687"/>
+      <c r="L168" s="704"/>
+      <c r="M168" s="706"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -46200,18 +46472,18 @@
       <c r="E175" s="85"/>
       <c r="F175" s="373"/>
       <c r="G175" s="373"/>
-      <c r="H175" s="710" t="s">
+      <c r="H175" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I175" s="712" t="s">
+      <c r="I175" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J175" s="713"/>
-      <c r="K175" s="714"/>
-      <c r="L175" s="718" t="s">
+      <c r="J175" s="686"/>
+      <c r="K175" s="687"/>
+      <c r="L175" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M175" s="719"/>
+      <c r="M175" s="692"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -46226,12 +46498,12 @@
       <c r="E176" s="290"/>
       <c r="F176" s="373"/>
       <c r="G176" s="394"/>
-      <c r="H176" s="711"/>
-      <c r="I176" s="715"/>
-      <c r="J176" s="716"/>
-      <c r="K176" s="717"/>
-      <c r="L176" s="720"/>
-      <c r="M176" s="721"/>
+      <c r="H176" s="684"/>
+      <c r="I176" s="688"/>
+      <c r="J176" s="689"/>
+      <c r="K176" s="690"/>
+      <c r="L176" s="693"/>
+      <c r="M176" s="694"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -46249,10 +46521,10 @@
       <c r="H177" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I177" s="722" t="s">
+      <c r="I177" s="695" t="s">
         <v>47</v>
       </c>
-      <c r="J177" s="722"/>
+      <c r="J177" s="695"/>
       <c r="K177" s="616">
         <v>288.75</v>
       </c>
@@ -46441,10 +46713,10 @@
       <c r="H182" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="I182" s="678" t="s">
+      <c r="I182" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J182" s="679"/>
+      <c r="J182" s="682"/>
       <c r="K182" s="606">
         <v>176.72</v>
       </c>
@@ -46493,10 +46765,10 @@
         <v>170</v>
       </c>
       <c r="N183" s="351"/>
-      <c r="O183" s="678" t="s">
+      <c r="O183" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="P183" s="679"/>
+      <c r="P183" s="682"/>
       <c r="Q183" s="606"/>
       <c r="R183" s="288">
         <v>43790</v>
@@ -46552,10 +46824,10 @@
       <c r="H185" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="I185" s="678" t="s">
+      <c r="I185" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J185" s="679"/>
+      <c r="J185" s="682"/>
       <c r="K185" s="619">
         <v>1446.11</v>
       </c>
@@ -46588,20 +46860,20 @@
       <c r="H186" s="356" t="s">
         <v>193</v>
       </c>
-      <c r="I186" s="728" t="s">
+      <c r="I186" s="675" t="s">
         <v>181</v>
       </c>
-      <c r="J186" s="729"/>
+      <c r="J186" s="676"/>
       <c r="K186" s="619"/>
       <c r="L186" s="288" t="s">
         <v>182</v>
       </c>
       <c r="M186" s="44"/>
       <c r="N186" s="373"/>
-      <c r="O186" s="678" t="s">
+      <c r="O186" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="P186" s="679"/>
+      <c r="P186" s="682"/>
       <c r="Q186" s="619"/>
       <c r="R186" s="288">
         <v>43783</v>
@@ -46662,10 +46934,10 @@
         <f>SUM(K177:K187)</f>
         <v>6858.8600000000006</v>
       </c>
-      <c r="K188" s="730" t="s">
+      <c r="K188" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L188" s="730"/>
+      <c r="L188" s="678"/>
       <c r="M188" s="367">
         <v>0</v>
       </c>
@@ -46904,78 +47176,21 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="P163:R165"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="I175:K176"/>
-    <mergeCell ref="L175:M176"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="O75:Q76"/>
+    <mergeCell ref="O119:Q120"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
     <mergeCell ref="I137:J137"/>
     <mergeCell ref="I34:K35"/>
     <mergeCell ref="H126:I126"/>
@@ -46998,21 +47213,78 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="O75:Q76"/>
-    <mergeCell ref="O119:Q120"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:K176"/>
+    <mergeCell ref="L175:M176"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="P163:R165"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I185:J185"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -47059,28 +47331,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="739" t="s">
+      <c r="A1" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="734" t="s">
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
+      <c r="E1" s="697"/>
+      <c r="F1" s="697"/>
+      <c r="G1" s="698"/>
+      <c r="H1" s="743" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="736"/>
+      <c r="I1" s="744"/>
+      <c r="J1" s="744"/>
+      <c r="K1" s="744"/>
+      <c r="L1" s="744"/>
+      <c r="M1" s="745"/>
       <c r="N1" s="389"/>
-      <c r="O1" s="694" t="s">
+      <c r="O1" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="694"/>
+      <c r="P1" s="724"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -47104,8 +47376,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="732"/>
-      <c r="I2" s="733"/>
+      <c r="H2" s="741"/>
+      <c r="I2" s="742"/>
       <c r="J2" s="384" t="s">
         <v>35</v>
       </c>
@@ -47158,10 +47430,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="737" t="s">
+      <c r="H3" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="715"/>
       <c r="J3" s="390">
         <v>1458.67</v>
       </c>
@@ -47214,10 +47486,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="737" t="s">
+      <c r="H4" s="746" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="676"/>
+      <c r="I4" s="715"/>
       <c r="J4" s="287">
         <v>1035.6500000000001</v>
       </c>
@@ -47736,20 +48008,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="723" t="s">
+      <c r="H20" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="725" t="s">
+      <c r="I20" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="725" t="s">
+      <c r="J20" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="725"/>
-      <c r="L20" s="726" t="s">
+      <c r="K20" s="701"/>
+      <c r="L20" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="727" t="s">
+      <c r="M20" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -47769,16 +48041,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="724"/>
-      <c r="I21" s="685"/>
+      <c r="H21" s="700"/>
+      <c r="I21" s="702"/>
       <c r="J21" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="686"/>
-      <c r="M21" s="687"/>
+      <c r="L21" s="704"/>
+      <c r="M21" s="706"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -48005,18 +48277,18 @@
       <c r="E28" s="85"/>
       <c r="F28" s="373"/>
       <c r="G28" s="373"/>
-      <c r="H28" s="710" t="s">
+      <c r="H28" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="712" t="s">
+      <c r="I28" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="713"/>
-      <c r="K28" s="714"/>
-      <c r="L28" s="718" t="s">
+      <c r="J28" s="686"/>
+      <c r="K28" s="687"/>
+      <c r="L28" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M28" s="719"/>
+      <c r="M28" s="692"/>
       <c r="N28" s="1"/>
       <c r="P28" s="373"/>
       <c r="Q28" s="373"/>
@@ -48033,12 +48305,12 @@
       <c r="E29" s="290"/>
       <c r="F29" s="373"/>
       <c r="G29" s="394"/>
-      <c r="H29" s="711"/>
-      <c r="I29" s="715"/>
-      <c r="J29" s="716"/>
-      <c r="K29" s="717"/>
-      <c r="L29" s="720"/>
-      <c r="M29" s="721"/>
+      <c r="H29" s="684"/>
+      <c r="I29" s="688"/>
+      <c r="J29" s="689"/>
+      <c r="K29" s="690"/>
+      <c r="L29" s="693"/>
+      <c r="M29" s="694"/>
       <c r="N29" s="1"/>
       <c r="P29" s="373"/>
       <c r="Q29" s="373"/>
@@ -48058,10 +48330,10 @@
       <c r="H30" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="722" t="s">
+      <c r="I30" s="695" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="722"/>
+      <c r="J30" s="695"/>
       <c r="K30" s="479">
         <v>288.75</v>
       </c>
@@ -48218,10 +48490,10 @@
       <c r="H35" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="678" t="s">
+      <c r="I35" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="679"/>
+      <c r="J35" s="682"/>
       <c r="K35" s="53">
         <v>315.07</v>
       </c>
@@ -48310,10 +48582,10 @@
       <c r="H38" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="678" t="s">
+      <c r="I38" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="679"/>
+      <c r="J38" s="682"/>
       <c r="K38" s="53">
         <v>1483.76</v>
       </c>
@@ -48342,10 +48614,10 @@
       <c r="H39" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="678" t="s">
+      <c r="I39" s="681" t="s">
         <v>181</v>
       </c>
-      <c r="J39" s="679"/>
+      <c r="J39" s="682"/>
       <c r="K39" s="53">
         <v>10</v>
       </c>
@@ -48410,10 +48682,10 @@
         <f>SUM(K30:K40)</f>
         <v>6294.5300000000007</v>
       </c>
-      <c r="K41" s="730" t="s">
+      <c r="K41" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="730"/>
+      <c r="L41" s="678"/>
       <c r="M41" s="367">
         <v>0</v>
       </c>
@@ -48433,10 +48705,10 @@
       <c r="E42" s="373"/>
       <c r="F42" s="373"/>
       <c r="G42" s="373"/>
-      <c r="H42" s="744"/>
-      <c r="I42" s="744"/>
-      <c r="J42" s="744"/>
-      <c r="K42" s="744"/>
+      <c r="H42" s="737"/>
+      <c r="I42" s="737"/>
+      <c r="J42" s="737"/>
+      <c r="K42" s="737"/>
       <c r="L42" s="373"/>
       <c r="M42" s="460"/>
       <c r="N42" s="1"/>
@@ -48449,18 +48721,18 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="373"/>
-      <c r="B43" s="742" t="s">
+      <c r="B43" s="735" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="742"/>
-      <c r="D43" s="742"/>
-      <c r="E43" s="742"/>
-      <c r="F43" s="742"/>
-      <c r="G43" s="742"/>
-      <c r="H43" s="742"/>
-      <c r="I43" s="742"/>
-      <c r="J43" s="742"/>
-      <c r="K43" s="742"/>
+      <c r="C43" s="735"/>
+      <c r="D43" s="735"/>
+      <c r="E43" s="735"/>
+      <c r="F43" s="735"/>
+      <c r="G43" s="735"/>
+      <c r="H43" s="735"/>
+      <c r="I43" s="735"/>
+      <c r="J43" s="735"/>
+      <c r="K43" s="735"/>
       <c r="L43" s="373"/>
       <c r="M43" s="460"/>
       <c r="N43" s="1"/>
@@ -48471,16 +48743,16 @@
       <c r="T43" s="373"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="743"/>
-      <c r="C44" s="743"/>
-      <c r="D44" s="743"/>
-      <c r="E44" s="743"/>
-      <c r="F44" s="743"/>
-      <c r="G44" s="743"/>
-      <c r="H44" s="743"/>
-      <c r="I44" s="743"/>
-      <c r="J44" s="743"/>
-      <c r="K44" s="743"/>
+      <c r="B44" s="736"/>
+      <c r="C44" s="736"/>
+      <c r="D44" s="736"/>
+      <c r="E44" s="736"/>
+      <c r="F44" s="736"/>
+      <c r="G44" s="736"/>
+      <c r="H44" s="736"/>
+      <c r="I44" s="736"/>
+      <c r="J44" s="736"/>
+      <c r="K44" s="736"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -48491,23 +48763,23 @@
       <c r="T44" s="373"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="739" t="s">
+      <c r="A45" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="682"/>
-      <c r="C45" s="682"/>
-      <c r="D45" s="682"/>
-      <c r="E45" s="682"/>
-      <c r="F45" s="682"/>
-      <c r="G45" s="683"/>
-      <c r="H45" s="740" t="s">
+      <c r="B45" s="697"/>
+      <c r="C45" s="697"/>
+      <c r="D45" s="697"/>
+      <c r="E45" s="697"/>
+      <c r="F45" s="697"/>
+      <c r="G45" s="698"/>
+      <c r="H45" s="738" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="738"/>
-      <c r="J45" s="738"/>
-      <c r="K45" s="738"/>
-      <c r="L45" s="738"/>
-      <c r="M45" s="741"/>
+      <c r="I45" s="739"/>
+      <c r="J45" s="739"/>
+      <c r="K45" s="739"/>
+      <c r="L45" s="739"/>
+      <c r="M45" s="740"/>
       <c r="N45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="459"/>
@@ -49149,20 +49421,20 @@
       <c r="E64" s="361"/>
       <c r="F64" s="359"/>
       <c r="G64" s="392"/>
-      <c r="H64" s="723" t="s">
+      <c r="H64" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="725" t="s">
+      <c r="I64" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="725" t="s">
+      <c r="J64" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="725"/>
-      <c r="L64" s="726" t="s">
+      <c r="K64" s="701"/>
+      <c r="L64" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M64" s="727" t="s">
+      <c r="M64" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N64" s="1"/>
@@ -49182,16 +49454,16 @@
       <c r="E65" s="222"/>
       <c r="F65" s="207"/>
       <c r="G65" s="207"/>
-      <c r="H65" s="724"/>
-      <c r="I65" s="685"/>
+      <c r="H65" s="700"/>
+      <c r="I65" s="702"/>
       <c r="J65" s="385" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="L65" s="686"/>
-      <c r="M65" s="687"/>
+      <c r="L65" s="704"/>
+      <c r="M65" s="706"/>
       <c r="N65" s="1"/>
       <c r="O65" s="373"/>
       <c r="P65" s="535">
@@ -49352,18 +49624,18 @@
       <c r="E72" s="85"/>
       <c r="F72" s="373"/>
       <c r="G72" s="373"/>
-      <c r="H72" s="710" t="s">
+      <c r="H72" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="712" t="s">
+      <c r="I72" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="713"/>
-      <c r="K72" s="714"/>
-      <c r="L72" s="718" t="s">
+      <c r="J72" s="686"/>
+      <c r="K72" s="687"/>
+      <c r="L72" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M72" s="719"/>
+      <c r="M72" s="692"/>
       <c r="N72" s="1"/>
       <c r="O72" s="373"/>
       <c r="P72" s="534">
@@ -49378,12 +49650,12 @@
       <c r="E73" s="290"/>
       <c r="F73" s="373"/>
       <c r="G73" s="394"/>
-      <c r="H73" s="711"/>
-      <c r="I73" s="715"/>
-      <c r="J73" s="716"/>
-      <c r="K73" s="717"/>
-      <c r="L73" s="720"/>
-      <c r="M73" s="721"/>
+      <c r="H73" s="684"/>
+      <c r="I73" s="688"/>
+      <c r="J73" s="689"/>
+      <c r="K73" s="690"/>
+      <c r="L73" s="693"/>
+      <c r="M73" s="694"/>
       <c r="N73" s="1"/>
       <c r="O73" s="373"/>
       <c r="P73" s="534">
@@ -49409,10 +49681,10 @@
         <f>IF(K74="","не нужно","оплачено")</f>
         <v>оплачено</v>
       </c>
-      <c r="I74" s="722" t="s">
+      <c r="I74" s="695" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="722"/>
+      <c r="J74" s="695"/>
       <c r="K74" s="479">
         <v>28.88</v>
       </c>
@@ -49585,10 +49857,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I79" s="678" t="s">
+      <c r="I79" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J79" s="679"/>
+      <c r="J79" s="682"/>
       <c r="K79" s="53">
         <v>7.75</v>
       </c>
@@ -49691,10 +49963,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I82" s="678" t="s">
+      <c r="I82" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="679"/>
+      <c r="J82" s="682"/>
       <c r="K82" s="53">
         <v>386.79</v>
       </c>
@@ -49727,10 +49999,10 @@
         <f t="shared" si="6"/>
         <v>оплачено</v>
       </c>
-      <c r="I83" s="678" t="s">
+      <c r="I83" s="681" t="s">
         <v>53</v>
       </c>
-      <c r="J83" s="679"/>
+      <c r="J83" s="682"/>
       <c r="K83" s="477">
         <v>10</v>
       </c>
@@ -49801,10 +50073,10 @@
         <f>SUM(K74:K84)</f>
         <v>987.00000000000011</v>
       </c>
-      <c r="K85" s="730" t="s">
+      <c r="K85" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L85" s="730"/>
+      <c r="L85" s="678"/>
       <c r="M85" s="367">
         <v>0</v>
       </c>
@@ -49820,10 +50092,10 @@
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="738" t="s">
+      <c r="C86" s="739" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="738"/>
+      <c r="D86" s="739"/>
       <c r="P86" s="369">
         <v>274</v>
       </c>
@@ -50146,27 +50418,16 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:K73"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H28:H29"/>
@@ -50183,16 +50444,27 @@
     <mergeCell ref="I84:J84"/>
     <mergeCell ref="I76:J76"/>
     <mergeCell ref="L64:L65"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:K73"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B43:K44"/>
+    <mergeCell ref="H42:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
@@ -51198,13 +51470,13 @@
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
-      <c r="C36" s="749" t="s">
+      <c r="C36" s="751" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="750"/>
-      <c r="E36" s="750"/>
-      <c r="F36" s="750"/>
-      <c r="G36" s="751"/>
+      <c r="D36" s="752"/>
+      <c r="E36" s="752"/>
+      <c r="F36" s="752"/>
+      <c r="G36" s="753"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="12"/>
@@ -51220,13 +51492,13 @@
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
-      <c r="C37" s="752" t="s">
+      <c r="C37" s="754" t="s">
         <v>241</v>
       </c>
-      <c r="D37" s="753"/>
-      <c r="E37" s="753"/>
-      <c r="F37" s="753"/>
-      <c r="G37" s="754"/>
+      <c r="D37" s="755"/>
+      <c r="E37" s="755"/>
+      <c r="F37" s="755"/>
+      <c r="G37" s="756"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="12"/>
@@ -51242,13 +51514,13 @@
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21"/>
-      <c r="C38" s="746" t="s">
+      <c r="C38" s="748" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="747"/>
-      <c r="E38" s="747"/>
-      <c r="F38" s="747"/>
-      <c r="G38" s="748"/>
+      <c r="D38" s="749"/>
+      <c r="E38" s="749"/>
+      <c r="F38" s="749"/>
+      <c r="G38" s="750"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
         <f>3%*G31</f>
@@ -51690,20 +51962,20 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="745" t="s">
+      <c r="C54" s="747" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="745"/>
-      <c r="E54" s="745"/>
-      <c r="F54" s="745"/>
-      <c r="G54" s="745"/>
-      <c r="H54" s="745"/>
-      <c r="I54" s="745"/>
-      <c r="J54" s="745"/>
-      <c r="K54" s="745"/>
-      <c r="L54" s="745"/>
-      <c r="M54" s="745"/>
-      <c r="N54" s="745"/>
+      <c r="D54" s="747"/>
+      <c r="E54" s="747"/>
+      <c r="F54" s="747"/>
+      <c r="G54" s="747"/>
+      <c r="H54" s="747"/>
+      <c r="I54" s="747"/>
+      <c r="J54" s="747"/>
+      <c r="K54" s="747"/>
+      <c r="L54" s="747"/>
+      <c r="M54" s="747"/>
+      <c r="N54" s="747"/>
       <c r="O54" s="373"/>
       <c r="P54" s="373"/>
       <c r="Q54" s="373"/>
@@ -51713,18 +51985,18 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="745"/>
-      <c r="D55" s="745"/>
-      <c r="E55" s="745"/>
-      <c r="F55" s="745"/>
-      <c r="G55" s="745"/>
-      <c r="H55" s="745"/>
-      <c r="I55" s="745"/>
-      <c r="J55" s="745"/>
-      <c r="K55" s="745"/>
-      <c r="L55" s="745"/>
-      <c r="M55" s="745"/>
-      <c r="N55" s="745"/>
+      <c r="C55" s="747"/>
+      <c r="D55" s="747"/>
+      <c r="E55" s="747"/>
+      <c r="F55" s="747"/>
+      <c r="G55" s="747"/>
+      <c r="H55" s="747"/>
+      <c r="I55" s="747"/>
+      <c r="J55" s="747"/>
+      <c r="K55" s="747"/>
+      <c r="L55" s="747"/>
+      <c r="M55" s="747"/>
+      <c r="N55" s="747"/>
       <c r="O55" s="373"/>
       <c r="P55" s="373"/>
       <c r="Q55" s="373"/>
@@ -51734,18 +52006,18 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="745"/>
-      <c r="D56" s="745"/>
-      <c r="E56" s="745"/>
-      <c r="F56" s="745"/>
-      <c r="G56" s="745"/>
-      <c r="H56" s="745"/>
-      <c r="I56" s="745"/>
-      <c r="J56" s="745"/>
-      <c r="K56" s="745"/>
-      <c r="L56" s="745"/>
-      <c r="M56" s="745"/>
-      <c r="N56" s="745"/>
+      <c r="C56" s="747"/>
+      <c r="D56" s="747"/>
+      <c r="E56" s="747"/>
+      <c r="F56" s="747"/>
+      <c r="G56" s="747"/>
+      <c r="H56" s="747"/>
+      <c r="I56" s="747"/>
+      <c r="J56" s="747"/>
+      <c r="K56" s="747"/>
+      <c r="L56" s="747"/>
+      <c r="M56" s="747"/>
+      <c r="N56" s="747"/>
       <c r="O56" s="373"/>
       <c r="P56" s="373"/>
       <c r="Q56" s="373"/>
@@ -52190,8 +52462,8 @@
   </sheetPr>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52219,28 +52491,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="739" t="s">
+      <c r="A1" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="682"/>
-      <c r="C1" s="682"/>
-      <c r="D1" s="682"/>
-      <c r="E1" s="682"/>
-      <c r="F1" s="682"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="734" t="s">
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
+      <c r="E1" s="697"/>
+      <c r="F1" s="697"/>
+      <c r="G1" s="698"/>
+      <c r="H1" s="743" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="736"/>
+      <c r="I1" s="744"/>
+      <c r="J1" s="744"/>
+      <c r="K1" s="744"/>
+      <c r="L1" s="744"/>
+      <c r="M1" s="745"/>
       <c r="N1" s="509"/>
-      <c r="O1" s="694" t="s">
+      <c r="O1" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="694"/>
+      <c r="P1" s="724"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="330" t="s">
@@ -52264,8 +52536,8 @@
       <c r="G2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="732"/>
-      <c r="I2" s="733"/>
+      <c r="H2" s="741"/>
+      <c r="I2" s="742"/>
       <c r="J2" s="504" t="s">
         <v>35</v>
       </c>
@@ -52318,10 +52590,10 @@
         <v>оплачено</v>
       </c>
       <c r="G3" s="469"/>
-      <c r="H3" s="737" t="s">
+      <c r="H3" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="715"/>
       <c r="J3" s="510">
         <v>2039.02</v>
       </c>
@@ -52373,10 +52645,10 @@
         <v>оплачено</v>
       </c>
       <c r="G4" s="469"/>
-      <c r="H4" s="755" t="s">
+      <c r="H4" s="763" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="756"/>
+      <c r="I4" s="764"/>
       <c r="J4" s="531">
         <v>918.57</v>
       </c>
@@ -52887,20 +53159,20 @@
       <c r="E20" s="361"/>
       <c r="F20" s="359"/>
       <c r="G20" s="392"/>
-      <c r="H20" s="723" t="s">
+      <c r="H20" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="725" t="s">
+      <c r="I20" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="725" t="s">
+      <c r="J20" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="725"/>
-      <c r="L20" s="726" t="s">
+      <c r="K20" s="701"/>
+      <c r="L20" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="727" t="s">
+      <c r="M20" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="1"/>
@@ -52920,16 +53192,16 @@
       <c r="E21" s="222"/>
       <c r="F21" s="207"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="724"/>
-      <c r="I21" s="685"/>
+      <c r="H21" s="700"/>
+      <c r="I21" s="702"/>
       <c r="J21" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="686"/>
-      <c r="M21" s="687"/>
+      <c r="L21" s="704"/>
+      <c r="M21" s="706"/>
       <c r="N21" s="1"/>
       <c r="P21" s="373"/>
       <c r="Q21" s="373"/>
@@ -53228,18 +53500,18 @@
       <c r="E30" s="85"/>
       <c r="F30" s="373"/>
       <c r="G30" s="373"/>
-      <c r="H30" s="710" t="s">
+      <c r="H30" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="712" t="s">
+      <c r="I30" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="713"/>
-      <c r="K30" s="714"/>
-      <c r="L30" s="718" t="s">
+      <c r="J30" s="686"/>
+      <c r="K30" s="687"/>
+      <c r="L30" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M30" s="719"/>
+      <c r="M30" s="692"/>
       <c r="N30" s="1"/>
       <c r="P30" s="373"/>
       <c r="Q30" s="373"/>
@@ -53256,12 +53528,12 @@
       <c r="E31" s="290"/>
       <c r="F31" s="373"/>
       <c r="G31" s="394"/>
-      <c r="H31" s="711"/>
-      <c r="I31" s="715"/>
-      <c r="J31" s="716"/>
-      <c r="K31" s="717"/>
-      <c r="L31" s="720"/>
-      <c r="M31" s="721"/>
+      <c r="H31" s="684"/>
+      <c r="I31" s="688"/>
+      <c r="J31" s="689"/>
+      <c r="K31" s="690"/>
+      <c r="L31" s="693"/>
+      <c r="M31" s="694"/>
       <c r="N31" s="1"/>
       <c r="P31" s="373"/>
       <c r="Q31" s="373"/>
@@ -53281,10 +53553,10 @@
       <c r="H32" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="757" t="s">
+      <c r="I32" s="758" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="757"/>
+      <c r="J32" s="758"/>
       <c r="K32" s="479">
         <v>288.75</v>
       </c>
@@ -53313,10 +53585,10 @@
       <c r="H33" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="758" t="s">
+      <c r="I33" s="759" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="758"/>
+      <c r="J33" s="759"/>
       <c r="K33" s="53">
         <v>60.19</v>
       </c>
@@ -53345,10 +53617,10 @@
       <c r="H34" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="758" t="s">
+      <c r="I34" s="759" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="758"/>
+      <c r="J34" s="759"/>
       <c r="K34" s="53">
         <v>4.95</v>
       </c>
@@ -53377,10 +53649,10 @@
       <c r="H35" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="758" t="s">
+      <c r="I35" s="759" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="758"/>
+      <c r="J35" s="759"/>
       <c r="K35" s="53">
         <v>257</v>
       </c>
@@ -53409,10 +53681,10 @@
       <c r="H36" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="759" t="s">
+      <c r="I36" s="760" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="759"/>
+      <c r="J36" s="760"/>
       <c r="K36" s="480">
         <v>1101.6300000000001</v>
       </c>
@@ -53441,10 +53713,10 @@
       <c r="H37" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="760" t="s">
+      <c r="I37" s="761" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="761"/>
+      <c r="J37" s="762"/>
       <c r="K37" s="53">
         <v>338.19</v>
       </c>
@@ -53538,10 +53810,10 @@
       <c r="H40" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="761" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="761"/>
+      <c r="J40" s="762"/>
       <c r="K40" s="53">
         <v>1496.82</v>
       </c>
@@ -53570,10 +53842,10 @@
       <c r="H41" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="760" t="s">
+      <c r="I41" s="761" t="s">
         <v>181</v>
       </c>
-      <c r="J41" s="761"/>
+      <c r="J41" s="762"/>
       <c r="K41" s="53">
         <v>10</v>
       </c>
@@ -53640,10 +53912,10 @@
         <f>SUM(K32:K42)</f>
         <v>7448.04</v>
       </c>
-      <c r="K43" s="730" t="s">
+      <c r="K43" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="730"/>
+      <c r="L43" s="678"/>
       <c r="M43" s="542">
         <v>0</v>
       </c>
@@ -53663,10 +53935,10 @@
       <c r="E44" s="373"/>
       <c r="F44" s="373"/>
       <c r="G44" s="373"/>
-      <c r="H44" s="744"/>
-      <c r="I44" s="744"/>
-      <c r="J44" s="744"/>
-      <c r="K44" s="744"/>
+      <c r="H44" s="737"/>
+      <c r="I44" s="737"/>
+      <c r="J44" s="737"/>
+      <c r="K44" s="737"/>
       <c r="L44" s="373"/>
       <c r="M44" s="460"/>
       <c r="N44" s="1"/>
@@ -53679,18 +53951,18 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="373"/>
-      <c r="B45" s="742" t="s">
+      <c r="B45" s="735" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="742"/>
-      <c r="D45" s="742"/>
-      <c r="E45" s="742"/>
-      <c r="F45" s="742"/>
-      <c r="G45" s="742"/>
-      <c r="H45" s="742"/>
-      <c r="I45" s="742"/>
-      <c r="J45" s="742"/>
-      <c r="K45" s="742"/>
+      <c r="C45" s="735"/>
+      <c r="D45" s="735"/>
+      <c r="E45" s="735"/>
+      <c r="F45" s="735"/>
+      <c r="G45" s="735"/>
+      <c r="H45" s="735"/>
+      <c r="I45" s="735"/>
+      <c r="J45" s="735"/>
+      <c r="K45" s="735"/>
       <c r="L45" s="373"/>
       <c r="M45" s="460"/>
       <c r="N45" s="1"/>
@@ -53701,16 +53973,16 @@
       <c r="T45" s="373"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="743"/>
-      <c r="C46" s="743"/>
-      <c r="D46" s="743"/>
-      <c r="E46" s="743"/>
-      <c r="F46" s="743"/>
-      <c r="G46" s="743"/>
-      <c r="H46" s="743"/>
-      <c r="I46" s="743"/>
-      <c r="J46" s="743"/>
-      <c r="K46" s="743"/>
+      <c r="B46" s="736"/>
+      <c r="C46" s="736"/>
+      <c r="D46" s="736"/>
+      <c r="E46" s="736"/>
+      <c r="F46" s="736"/>
+      <c r="G46" s="736"/>
+      <c r="H46" s="736"/>
+      <c r="I46" s="736"/>
+      <c r="J46" s="736"/>
+      <c r="K46" s="736"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -53721,23 +53993,23 @@
       <c r="T46" s="373"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="739" t="s">
+      <c r="A47" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="682"/>
-      <c r="C47" s="682"/>
-      <c r="D47" s="682"/>
-      <c r="E47" s="682"/>
-      <c r="F47" s="682"/>
-      <c r="G47" s="683"/>
-      <c r="H47" s="740" t="s">
+      <c r="B47" s="697"/>
+      <c r="C47" s="697"/>
+      <c r="D47" s="697"/>
+      <c r="E47" s="697"/>
+      <c r="F47" s="697"/>
+      <c r="G47" s="698"/>
+      <c r="H47" s="738" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="738"/>
-      <c r="J47" s="738"/>
-      <c r="K47" s="738"/>
-      <c r="L47" s="738"/>
-      <c r="M47" s="741"/>
+      <c r="I47" s="739"/>
+      <c r="J47" s="739"/>
+      <c r="K47" s="739"/>
+      <c r="L47" s="739"/>
+      <c r="M47" s="740"/>
       <c r="N47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="459"/>
@@ -54210,25 +54482,25 @@
       <c r="E66" s="361"/>
       <c r="F66" s="359"/>
       <c r="G66" s="392"/>
-      <c r="H66" s="723" t="s">
+      <c r="H66" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="725" t="s">
+      <c r="I66" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="725" t="s">
+      <c r="J66" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="725"/>
-      <c r="L66" s="726" t="s">
+      <c r="K66" s="701"/>
+      <c r="L66" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M66" s="727" t="s">
+      <c r="M66" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="373"/>
-      <c r="P66" s="762"/>
+      <c r="P66" s="757"/>
     </row>
     <row r="67" spans="1:23" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="362"/>
@@ -54238,19 +54510,19 @@
       <c r="E67" s="222"/>
       <c r="F67" s="207"/>
       <c r="G67" s="207"/>
-      <c r="H67" s="724"/>
-      <c r="I67" s="685"/>
+      <c r="H67" s="700"/>
+      <c r="I67" s="702"/>
       <c r="J67" s="505" t="s">
         <v>21</v>
       </c>
       <c r="K67" s="505" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="686"/>
-      <c r="M67" s="687"/>
+      <c r="L67" s="704"/>
+      <c r="M67" s="706"/>
       <c r="N67" s="1"/>
       <c r="O67" s="373"/>
-      <c r="P67" s="762"/>
+      <c r="P67" s="757"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="345"/>
@@ -54425,18 +54697,18 @@
       <c r="E74" s="85"/>
       <c r="F74" s="373"/>
       <c r="G74" s="373"/>
-      <c r="H74" s="710" t="s">
+      <c r="H74" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="712" t="s">
+      <c r="I74" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J74" s="713"/>
-      <c r="K74" s="714"/>
-      <c r="L74" s="718" t="s">
+      <c r="J74" s="686"/>
+      <c r="K74" s="687"/>
+      <c r="L74" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M74" s="719"/>
+      <c r="M74" s="692"/>
       <c r="N74" s="1"/>
       <c r="O74" s="373"/>
       <c r="P74" s="455"/>
@@ -54451,12 +54723,12 @@
       <c r="E75" s="290"/>
       <c r="F75" s="373"/>
       <c r="G75" s="394"/>
-      <c r="H75" s="711"/>
-      <c r="I75" s="715"/>
-      <c r="J75" s="716"/>
-      <c r="K75" s="717"/>
-      <c r="L75" s="720"/>
-      <c r="M75" s="721"/>
+      <c r="H75" s="684"/>
+      <c r="I75" s="688"/>
+      <c r="J75" s="689"/>
+      <c r="K75" s="690"/>
+      <c r="L75" s="693"/>
+      <c r="M75" s="694"/>
       <c r="N75" s="1"/>
       <c r="O75" s="373"/>
       <c r="P75" s="455"/>
@@ -54479,10 +54751,10 @@
       <c r="H76" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="722" t="s">
+      <c r="I76" s="695" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="722"/>
+      <c r="J76" s="695"/>
       <c r="K76" s="479">
         <v>28.88</v>
       </c>
@@ -54644,10 +54916,10 @@
       <c r="H81" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="678" t="s">
+      <c r="I81" s="681" t="s">
         <v>68</v>
       </c>
-      <c r="J81" s="679"/>
+      <c r="J81" s="682"/>
       <c r="K81" s="53">
         <v>69.5</v>
       </c>
@@ -54742,10 +55014,10 @@
       <c r="H84" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I84" s="678" t="s">
+      <c r="I84" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J84" s="679"/>
+      <c r="J84" s="682"/>
       <c r="K84" s="53">
         <v>588.1</v>
       </c>
@@ -54779,10 +55051,10 @@
       <c r="H85" s="393" t="s">
         <v>91</v>
       </c>
-      <c r="I85" s="678" t="s">
+      <c r="I85" s="681" t="s">
         <v>53</v>
       </c>
-      <c r="J85" s="679"/>
+      <c r="J85" s="682"/>
       <c r="K85" s="477">
         <v>10</v>
       </c>
@@ -54850,10 +55122,10 @@
         <f>SUM(K76:K86)</f>
         <v>1736.95</v>
       </c>
-      <c r="K87" s="730" t="s">
+      <c r="K87" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L87" s="730"/>
+      <c r="L87" s="678"/>
       <c r="M87" s="367">
         <v>0</v>
       </c>
@@ -55020,27 +55292,20 @@
     <sortCondition ref="P30"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="L74:M75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
     <mergeCell ref="B45:K46"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -55053,20 +55318,27 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="H44:K44"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:K31"/>
-    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="L74:M75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -56884,7 +57156,7 @@
   <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56912,60 +57184,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="735" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="742"/>
-      <c r="C1" s="742"/>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="B1" s="735"/>
+      <c r="C1" s="735"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="743"/>
-      <c r="B2" s="743"/>
-      <c r="C2" s="743"/>
-      <c r="D2" s="743"/>
-      <c r="E2" s="743"/>
-      <c r="F2" s="743"/>
-      <c r="G2" s="743"/>
-      <c r="H2" s="743"/>
-      <c r="I2" s="743"/>
-      <c r="J2" s="743"/>
-      <c r="K2" s="743"/>
-      <c r="L2" s="743"/>
-      <c r="M2" s="743"/>
+      <c r="A2" s="736"/>
+      <c r="B2" s="736"/>
+      <c r="C2" s="736"/>
+      <c r="D2" s="736"/>
+      <c r="E2" s="736"/>
+      <c r="F2" s="736"/>
+      <c r="G2" s="736"/>
+      <c r="H2" s="736"/>
+      <c r="I2" s="736"/>
+      <c r="J2" s="736"/>
+      <c r="K2" s="736"/>
+      <c r="L2" s="736"/>
+      <c r="M2" s="736"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="739" t="s">
+      <c r="A3" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="682"/>
-      <c r="C3" s="682"/>
-      <c r="D3" s="682"/>
-      <c r="E3" s="682"/>
-      <c r="F3" s="682"/>
-      <c r="G3" s="683"/>
-      <c r="H3" s="734" t="s">
+      <c r="B3" s="697"/>
+      <c r="C3" s="697"/>
+      <c r="D3" s="697"/>
+      <c r="E3" s="697"/>
+      <c r="F3" s="697"/>
+      <c r="G3" s="698"/>
+      <c r="H3" s="743" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="735"/>
-      <c r="J3" s="735"/>
-      <c r="K3" s="735"/>
-      <c r="L3" s="735"/>
-      <c r="M3" s="736"/>
+      <c r="I3" s="744"/>
+      <c r="J3" s="744"/>
+      <c r="K3" s="744"/>
+      <c r="L3" s="744"/>
+      <c r="M3" s="745"/>
       <c r="N3" s="555"/>
-      <c r="O3" s="694" t="s">
+      <c r="O3" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="694"/>
+      <c r="P3" s="724"/>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="330" t="s">
@@ -56989,8 +57261,8 @@
       <c r="G4" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="732"/>
-      <c r="I4" s="733"/>
+      <c r="H4" s="741"/>
+      <c r="I4" s="742"/>
       <c r="J4" s="550" t="s">
         <v>35</v>
       </c>
@@ -57043,10 +57315,10 @@
         <v>оплачено</v>
       </c>
       <c r="G5" s="469"/>
-      <c r="H5" s="737" t="s">
+      <c r="H5" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="676"/>
+      <c r="I5" s="715"/>
       <c r="J5" s="601">
         <v>1633.61</v>
       </c>
@@ -57090,10 +57362,10 @@
         <v>оплачено</v>
       </c>
       <c r="G6" s="469"/>
-      <c r="H6" s="755" t="s">
+      <c r="H6" s="763" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="756"/>
+      <c r="I6" s="764"/>
       <c r="J6" s="531">
         <v>899.78</v>
       </c>
@@ -57437,8 +57709,8 @@
       <c r="M16" s="44"/>
       <c r="N16" s="301"/>
       <c r="O16" s="467"/>
-      <c r="P16" s="765"/>
-      <c r="Q16" s="765"/>
+      <c r="P16" s="769"/>
+      <c r="Q16" s="769"/>
       <c r="R16" s="373"/>
       <c r="S16" s="87"/>
       <c r="T16" s="87"/>
@@ -57556,10 +57828,10 @@
       <c r="T20" s="87"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="763" t="s">
+      <c r="A21" s="767" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="764"/>
+      <c r="B21" s="768"/>
       <c r="C21" s="365">
         <f>SUM(C5:C20)</f>
         <v>2084.6699999999996</v>
@@ -57593,20 +57865,20 @@
       <c r="E22" s="361"/>
       <c r="F22" s="359"/>
       <c r="G22" s="392"/>
-      <c r="H22" s="723" t="s">
+      <c r="H22" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="725" t="s">
+      <c r="I22" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="725" t="s">
+      <c r="J22" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="725"/>
-      <c r="L22" s="726" t="s">
+      <c r="K22" s="701"/>
+      <c r="L22" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="727" t="s">
+      <c r="M22" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N22" s="1"/>
@@ -57626,16 +57898,16 @@
       <c r="E23" s="222"/>
       <c r="F23" s="207"/>
       <c r="G23" s="207"/>
-      <c r="H23" s="724"/>
-      <c r="I23" s="685"/>
+      <c r="H23" s="700"/>
+      <c r="I23" s="702"/>
       <c r="J23" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="686"/>
-      <c r="M23" s="687"/>
+      <c r="L23" s="704"/>
+      <c r="M23" s="706"/>
       <c r="N23" s="1"/>
       <c r="P23" s="373"/>
       <c r="Q23" s="373"/>
@@ -57969,18 +58241,18 @@
       <c r="E33" s="85"/>
       <c r="F33" s="373"/>
       <c r="G33" s="373"/>
-      <c r="H33" s="710" t="s">
+      <c r="H33" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="712" t="s">
+      <c r="I33" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J33" s="713"/>
-      <c r="K33" s="714"/>
-      <c r="L33" s="718" t="s">
+      <c r="J33" s="686"/>
+      <c r="K33" s="687"/>
+      <c r="L33" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M33" s="719"/>
+      <c r="M33" s="692"/>
       <c r="N33" s="1"/>
       <c r="P33" s="85"/>
       <c r="Q33" s="373"/>
@@ -57997,12 +58269,12 @@
       <c r="E34" s="290"/>
       <c r="F34" s="373"/>
       <c r="G34" s="394"/>
-      <c r="H34" s="711"/>
-      <c r="I34" s="715"/>
-      <c r="J34" s="716"/>
-      <c r="K34" s="717"/>
-      <c r="L34" s="720"/>
-      <c r="M34" s="721"/>
+      <c r="H34" s="684"/>
+      <c r="I34" s="688"/>
+      <c r="J34" s="689"/>
+      <c r="K34" s="690"/>
+      <c r="L34" s="693"/>
+      <c r="M34" s="694"/>
       <c r="N34" s="1"/>
       <c r="P34" s="373"/>
       <c r="Q34" s="373"/>
@@ -58022,10 +58294,10 @@
       <c r="H35" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="757" t="s">
+      <c r="I35" s="758" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="757"/>
+      <c r="J35" s="758"/>
       <c r="K35" s="560">
         <v>328.13</v>
       </c>
@@ -58054,10 +58326,10 @@
       <c r="H36" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="758" t="s">
+      <c r="I36" s="759" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="758"/>
+      <c r="J36" s="759"/>
       <c r="K36" s="561">
         <v>71.83</v>
       </c>
@@ -58086,10 +58358,10 @@
       <c r="H37" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I37" s="758" t="s">
+      <c r="I37" s="759" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="758"/>
+      <c r="J37" s="759"/>
       <c r="K37" s="561">
         <v>5.63</v>
       </c>
@@ -58118,10 +58390,10 @@
       <c r="H38" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I38" s="758" t="s">
+      <c r="I38" s="759" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="758"/>
+      <c r="J38" s="759"/>
       <c r="K38" s="561">
         <v>257</v>
       </c>
@@ -58150,10 +58422,10 @@
       <c r="H39" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I39" s="759" t="s">
+      <c r="I39" s="760" t="s">
         <v>59</v>
       </c>
-      <c r="J39" s="759"/>
+      <c r="J39" s="760"/>
       <c r="K39" s="480">
         <v>846.17</v>
       </c>
@@ -58182,10 +58454,10 @@
       <c r="H40" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I40" s="760" t="s">
+      <c r="I40" s="761" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="761"/>
+      <c r="J40" s="762"/>
       <c r="K40" s="561">
         <v>333.58</v>
       </c>
@@ -58278,10 +58550,10 @@
       <c r="H43" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="760" t="s">
+      <c r="I43" s="761" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="761"/>
+      <c r="J43" s="762"/>
       <c r="K43" s="561">
         <v>1542</v>
       </c>
@@ -58313,10 +58585,10 @@
       <c r="H44" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="760" t="s">
+      <c r="I44" s="761" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="761"/>
+      <c r="J44" s="762"/>
       <c r="K44" s="561">
         <v>10</v>
       </c>
@@ -58385,10 +58657,10 @@
         <f>SUM(K35:K45)</f>
         <v>6446.32</v>
       </c>
-      <c r="K46" s="730" t="s">
+      <c r="K46" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="730"/>
+      <c r="L46" s="678"/>
       <c r="M46" s="542">
         <v>0</v>
       </c>
@@ -58408,10 +58680,10 @@
       <c r="E47" s="373"/>
       <c r="F47" s="373"/>
       <c r="G47" s="373"/>
-      <c r="H47" s="744"/>
-      <c r="I47" s="744"/>
-      <c r="J47" s="744"/>
-      <c r="K47" s="744"/>
+      <c r="H47" s="737"/>
+      <c r="I47" s="737"/>
+      <c r="J47" s="737"/>
+      <c r="K47" s="737"/>
       <c r="L47" s="373"/>
       <c r="M47" s="460"/>
       <c r="N47" s="1"/>
@@ -58423,21 +58695,21 @@
       <c r="U47" s="373"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="742" t="s">
+      <c r="A48" s="735" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="742"/>
-      <c r="C48" s="742"/>
-      <c r="D48" s="742"/>
-      <c r="E48" s="742"/>
-      <c r="F48" s="742"/>
-      <c r="G48" s="742"/>
-      <c r="H48" s="742"/>
-      <c r="I48" s="742"/>
-      <c r="J48" s="742"/>
-      <c r="K48" s="742"/>
-      <c r="L48" s="742"/>
-      <c r="M48" s="742"/>
+      <c r="B48" s="735"/>
+      <c r="C48" s="735"/>
+      <c r="D48" s="735"/>
+      <c r="E48" s="735"/>
+      <c r="F48" s="735"/>
+      <c r="G48" s="735"/>
+      <c r="H48" s="735"/>
+      <c r="I48" s="735"/>
+      <c r="J48" s="735"/>
+      <c r="K48" s="735"/>
+      <c r="L48" s="735"/>
+      <c r="M48" s="735"/>
       <c r="N48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="373"/>
@@ -58446,19 +58718,19 @@
       <c r="T48" s="373"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="743"/>
-      <c r="B49" s="743"/>
-      <c r="C49" s="743"/>
-      <c r="D49" s="743"/>
-      <c r="E49" s="743"/>
-      <c r="F49" s="743"/>
-      <c r="G49" s="743"/>
-      <c r="H49" s="743"/>
-      <c r="I49" s="743"/>
-      <c r="J49" s="743"/>
-      <c r="K49" s="743"/>
-      <c r="L49" s="743"/>
-      <c r="M49" s="743"/>
+      <c r="A49" s="736"/>
+      <c r="B49" s="736"/>
+      <c r="C49" s="736"/>
+      <c r="D49" s="736"/>
+      <c r="E49" s="736"/>
+      <c r="F49" s="736"/>
+      <c r="G49" s="736"/>
+      <c r="H49" s="736"/>
+      <c r="I49" s="736"/>
+      <c r="J49" s="736"/>
+      <c r="K49" s="736"/>
+      <c r="L49" s="736"/>
+      <c r="M49" s="736"/>
       <c r="N49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="373"/>
@@ -58467,23 +58739,23 @@
       <c r="T49" s="373"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="739" t="s">
+      <c r="A50" s="734" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="682"/>
-      <c r="C50" s="682"/>
-      <c r="D50" s="682"/>
-      <c r="E50" s="682"/>
-      <c r="F50" s="682"/>
-      <c r="G50" s="683"/>
-      <c r="H50" s="740" t="s">
+      <c r="B50" s="697"/>
+      <c r="C50" s="697"/>
+      <c r="D50" s="697"/>
+      <c r="E50" s="697"/>
+      <c r="F50" s="697"/>
+      <c r="G50" s="698"/>
+      <c r="H50" s="738" t="s">
         <v>279</v>
       </c>
-      <c r="I50" s="738"/>
-      <c r="J50" s="738"/>
-      <c r="K50" s="738"/>
-      <c r="L50" s="738"/>
-      <c r="M50" s="741"/>
+      <c r="I50" s="739"/>
+      <c r="J50" s="739"/>
+      <c r="K50" s="739"/>
+      <c r="L50" s="739"/>
+      <c r="M50" s="740"/>
       <c r="N50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="459"/>
@@ -59012,10 +59284,10 @@
       <c r="P67" s="373"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="763" t="s">
+      <c r="A68" s="767" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="764"/>
+      <c r="B68" s="768"/>
       <c r="C68" s="365">
         <f>SUM(C53:C67)</f>
         <v>1757.9200000000003</v>
@@ -59045,20 +59317,20 @@
       <c r="E69" s="361"/>
       <c r="F69" s="359"/>
       <c r="G69" s="392"/>
-      <c r="H69" s="723" t="s">
+      <c r="H69" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="725" t="s">
+      <c r="I69" s="701" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="725" t="s">
+      <c r="J69" s="701" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="725"/>
-      <c r="L69" s="726" t="s">
+      <c r="K69" s="701"/>
+      <c r="L69" s="703" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="727" t="s">
+      <c r="M69" s="705" t="s">
         <v>95</v>
       </c>
       <c r="N69" s="1"/>
@@ -59073,16 +59345,16 @@
       <c r="E70" s="222"/>
       <c r="F70" s="207"/>
       <c r="G70" s="207"/>
-      <c r="H70" s="724"/>
-      <c r="I70" s="685"/>
+      <c r="H70" s="700"/>
+      <c r="I70" s="702"/>
       <c r="J70" s="551" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="551" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="686"/>
-      <c r="M70" s="687"/>
+      <c r="L70" s="704"/>
+      <c r="M70" s="706"/>
       <c r="N70" s="1"/>
       <c r="O70" s="373"/>
       <c r="P70" s="457"/>
@@ -59203,7 +59475,7 @@
       <c r="J74" s="306">
         <v>749.49</v>
       </c>
-      <c r="K74" s="624">
+      <c r="K74" s="622">
         <v>435.1</v>
       </c>
       <c r="L74" s="305">
@@ -59270,18 +59542,18 @@
       <c r="E77" s="85"/>
       <c r="F77" s="373"/>
       <c r="G77" s="373"/>
-      <c r="H77" s="710" t="s">
+      <c r="H77" s="683" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="712" t="s">
+      <c r="I77" s="685" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="713"/>
-      <c r="K77" s="714"/>
-      <c r="L77" s="718" t="s">
+      <c r="J77" s="686"/>
+      <c r="K77" s="687"/>
+      <c r="L77" s="691" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="719"/>
+      <c r="M77" s="692"/>
       <c r="N77" s="1"/>
       <c r="O77" s="373"/>
       <c r="P77" s="455"/>
@@ -59296,12 +59568,12 @@
       <c r="E78" s="290"/>
       <c r="F78" s="373"/>
       <c r="G78" s="394"/>
-      <c r="H78" s="711"/>
-      <c r="I78" s="715"/>
-      <c r="J78" s="716"/>
-      <c r="K78" s="717"/>
-      <c r="L78" s="720"/>
-      <c r="M78" s="721"/>
+      <c r="H78" s="684"/>
+      <c r="I78" s="688"/>
+      <c r="J78" s="689"/>
+      <c r="K78" s="690"/>
+      <c r="L78" s="693"/>
+      <c r="M78" s="694"/>
       <c r="N78" s="1"/>
       <c r="O78" s="373"/>
       <c r="P78" s="455"/>
@@ -59324,10 +59596,10 @@
       <c r="H79" s="393" t="s">
         <v>259</v>
       </c>
-      <c r="I79" s="722" t="s">
+      <c r="I79" s="695" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="722"/>
+      <c r="J79" s="695"/>
       <c r="K79" s="603">
         <v>131.25</v>
       </c>
@@ -59451,10 +59723,10 @@
       <c r="H83" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I83" s="767" t="s">
+      <c r="I83" s="766" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="767"/>
+      <c r="J83" s="766"/>
       <c r="K83" s="480">
         <v>234.83</v>
       </c>
@@ -59464,7 +59736,7 @@
       <c r="M83" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="P83" s="625"/>
+      <c r="P83" s="623"/>
       <c r="Q83" s="540"/>
       <c r="R83" s="557"/>
       <c r="S83" s="1"/>
@@ -59484,10 +59756,10 @@
       <c r="H84" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I84" s="760" t="s">
+      <c r="I84" s="761" t="s">
         <v>68</v>
       </c>
-      <c r="J84" s="761"/>
+      <c r="J84" s="762"/>
       <c r="K84" s="604">
         <v>56.96</v>
       </c>
@@ -59517,10 +59789,10 @@
       <c r="H85" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="678" t="s">
+      <c r="I85" s="681" t="s">
         <v>174</v>
       </c>
-      <c r="J85" s="679"/>
+      <c r="J85" s="682"/>
       <c r="K85" s="604">
         <v>257.08999999999997</v>
       </c>
@@ -59581,10 +59853,10 @@
       <c r="H87" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="678" t="s">
+      <c r="I87" s="681" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="679"/>
+      <c r="J87" s="682"/>
       <c r="K87" s="604">
         <v>588.48</v>
       </c>
@@ -59614,10 +59886,10 @@
       <c r="H88" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I88" s="678" t="s">
+      <c r="I88" s="681" t="s">
         <v>53</v>
       </c>
-      <c r="J88" s="679"/>
+      <c r="J88" s="682"/>
       <c r="K88" s="477">
         <v>10</v>
       </c>
@@ -59647,10 +59919,10 @@
       <c r="H89" s="596" t="s">
         <v>259</v>
       </c>
-      <c r="I89" s="766" t="s">
+      <c r="I89" s="765" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="766"/>
+      <c r="J89" s="765"/>
       <c r="K89" s="598">
         <v>529.24</v>
       </c>
@@ -59682,10 +59954,10 @@
         <f>SUM(K79:K89)</f>
         <v>1920.45</v>
       </c>
-      <c r="K90" s="730" t="s">
+      <c r="K90" s="678" t="s">
         <v>180</v>
       </c>
-      <c r="L90" s="730"/>
+      <c r="L90" s="678"/>
       <c r="M90" s="605">
         <v>0</v>
       </c>
@@ -59879,35 +60151,14 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="A48:M49"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
@@ -59922,14 +60173,35 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="A48:M49"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I85:J85"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -59946,10 +60218,10 @@
   <dimension ref="A1:S126"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59957,7 +60229,7 @@
     <col min="1" max="1" width="6.42578125" style="35" customWidth="1"/>
     <col min="2" max="2" width="6" style="35" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="35" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="35" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="35" customWidth="1"/>
@@ -61235,11 +61507,11 @@
     <row r="50" spans="1:19" s="87" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="585"/>
       <c r="D50" s="585"/>
-      <c r="E50" s="622"/>
-      <c r="F50" s="622"/>
+      <c r="E50" s="620"/>
+      <c r="F50" s="620"/>
       <c r="G50" s="585"/>
       <c r="H50" s="171"/>
-      <c r="I50" s="623"/>
+      <c r="I50" s="621"/>
       <c r="J50" s="591"/>
       <c r="K50" s="585"/>
       <c r="L50" s="373"/>
@@ -61256,8 +61528,8 @@
       <c r="B51" s="373"/>
       <c r="C51" s="585"/>
       <c r="D51" s="585"/>
-      <c r="E51" s="622"/>
-      <c r="F51" s="622"/>
+      <c r="E51" s="620"/>
+      <c r="F51" s="620"/>
       <c r="G51" s="585"/>
       <c r="H51" s="586"/>
       <c r="I51" s="585"/>
@@ -61315,7 +61587,7 @@
       <c r="C54" s="373"/>
       <c r="D54" s="373"/>
       <c r="E54" s="147"/>
-      <c r="H54" s="622"/>
+      <c r="H54" s="620"/>
       <c r="I54" s="373"/>
       <c r="J54" s="589"/>
       <c r="K54" s="373"/>
@@ -61334,7 +61606,7 @@
       <c r="C55" s="373"/>
       <c r="D55" s="373"/>
       <c r="E55" s="147"/>
-      <c r="H55" s="622"/>
+      <c r="H55" s="620"/>
       <c r="I55" s="373"/>
       <c r="J55" s="589"/>
       <c r="K55" s="373"/>
@@ -61353,7 +61625,7 @@
       <c r="C56" s="373"/>
       <c r="D56" s="373"/>
       <c r="E56" s="147"/>
-      <c r="H56" s="622"/>
+      <c r="H56" s="620"/>
       <c r="I56" s="373"/>
       <c r="J56" s="589"/>
       <c r="K56" s="373"/>
@@ -61819,10 +62091,10 @@
       <c r="A4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="693" t="s">
+      <c r="B4" s="728" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="693"/>
+      <c r="C4" s="728"/>
       <c r="D4" s="597" t="s">
         <v>271</v>
       </c>
@@ -61835,10 +62107,10 @@
       <c r="G4" s="597" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="693" t="s">
+      <c r="H4" s="728" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="728"/>
       <c r="J4" s="597" t="s">
         <v>273</v>
       </c>
